--- a/data/receitas_2023.xlsx
+++ b/data/receitas_2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tales\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tales\Documents\GitHub\mrleague_financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="RECEITAS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -504,7 +505,9 @@
   </sheetPr>
   <dimension ref="A1:X987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -516,7 +519,7 @@
     <col min="7" max="16384" width="12.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +557,7 @@
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="7">
         <v>45141</v>
       </c>
@@ -592,7 +595,7 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="7">
         <v>45159</v>
       </c>
@@ -630,7 +633,7 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="7">
         <v>45159</v>
       </c>
@@ -668,7 +671,7 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="7">
         <v>45159</v>
       </c>
@@ -706,7 +709,7 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" s="7">
         <v>45159</v>
       </c>
@@ -744,7 +747,7 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" s="7">
         <v>45159</v>
       </c>
@@ -782,7 +785,7 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
       <c r="A8" s="7">
         <v>45159</v>
       </c>
@@ -820,7 +823,7 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="7">
         <v>45159</v>
       </c>
@@ -858,7 +861,7 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="7">
         <v>45159</v>
       </c>
@@ -896,7 +899,7 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="7">
         <v>45159</v>
       </c>
@@ -934,7 +937,7 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="7">
         <v>45159</v>
       </c>
@@ -972,7 +975,7 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="7">
         <v>45159</v>
       </c>
@@ -1010,7 +1013,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="7">
         <v>45159</v>
       </c>
@@ -1048,7 +1051,7 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="7">
         <v>45159</v>
       </c>
@@ -1086,7 +1089,7 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="7">
         <v>45159</v>
       </c>
@@ -1124,7 +1127,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="7">
         <v>45159</v>
       </c>
@@ -1162,7 +1165,7 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="7">
         <v>45159</v>
       </c>
@@ -1200,7 +1203,7 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1">
       <c r="A19" s="7">
         <v>45159</v>
       </c>
@@ -1238,7 +1241,7 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -1264,7 +1267,7 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -1290,7 +1293,7 @@
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -1316,7 +1319,7 @@
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
@@ -1342,7 +1345,7 @@
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
@@ -1368,7 +1371,7 @@
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
@@ -1394,7 +1397,7 @@
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
@@ -1420,7 +1423,7 @@
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
@@ -1446,7 +1449,7 @@
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
@@ -1472,7 +1475,7 @@
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
@@ -1498,7 +1501,7 @@
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
@@ -1524,7 +1527,7 @@
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
@@ -1550,7 +1553,7 @@
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
@@ -1576,7 +1579,7 @@
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" ht="15.75" customHeight="1">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
@@ -1602,7 +1605,7 @@
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" ht="15.75" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
@@ -1628,7 +1631,7 @@
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
@@ -1654,7 +1657,7 @@
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
@@ -1680,7 +1683,7 @@
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
@@ -1706,7 +1709,7 @@
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
@@ -1732,7 +1735,7 @@
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" ht="12.75">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
@@ -1758,7 +1761,7 @@
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" ht="12.75">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
@@ -1784,7 +1787,7 @@
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" ht="12.75">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
@@ -1810,7 +1813,7 @@
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" ht="12.75">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
@@ -1836,7 +1839,7 @@
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" ht="12.75">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
@@ -1862,7 +1865,7 @@
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" ht="12.75">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
@@ -1888,7 +1891,7 @@
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" ht="12.75">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
@@ -1914,7 +1917,7 @@
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" ht="12.75">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
@@ -1940,7 +1943,7 @@
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" ht="12.75">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
@@ -1966,7 +1969,7 @@
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" ht="12.75">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
@@ -1992,7 +1995,7 @@
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" ht="12.75">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
@@ -2018,7 +2021,7 @@
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" ht="12.75">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
@@ -2044,7 +2047,7 @@
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" ht="12.75">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
@@ -2070,7 +2073,7 @@
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" ht="12.75">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
@@ -2096,7 +2099,7 @@
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" ht="12.75">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
@@ -2122,7 +2125,7 @@
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" ht="12.75">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
@@ -2148,7 +2151,7 @@
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" ht="12.75">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
@@ -2174,7 +2177,7 @@
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" ht="12.75">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
@@ -2200,7 +2203,7 @@
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" ht="12.75">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
@@ -2226,7 +2229,7 @@
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" ht="12.75">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
@@ -2252,7 +2255,7 @@
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" ht="12.75">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
@@ -2278,7 +2281,7 @@
       <c r="W59" s="5"/>
       <c r="X59" s="5"/>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:24" ht="12.75">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
@@ -2304,7 +2307,7 @@
       <c r="W60" s="5"/>
       <c r="X60" s="5"/>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" ht="12.75">
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
@@ -2330,7 +2333,7 @@
       <c r="W61" s="5"/>
       <c r="X61" s="5"/>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" ht="12.75">
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
@@ -2356,7 +2359,7 @@
       <c r="W62" s="5"/>
       <c r="X62" s="5"/>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" ht="12.75">
       <c r="A63" s="7"/>
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
@@ -2382,7 +2385,7 @@
       <c r="W63" s="5"/>
       <c r="X63" s="5"/>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:24" ht="12.75">
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
@@ -2408,7 +2411,7 @@
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" spans="1:24" ht="12.75">
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
@@ -2434,7 +2437,7 @@
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="1:24">
+    <row r="66" spans="1:24" ht="12.75">
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
@@ -2460,7 +2463,7 @@
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:24" ht="12.75">
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
@@ -2486,7 +2489,7 @@
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
     </row>
-    <row r="68" spans="1:24">
+    <row r="68" spans="1:24" ht="12.75">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="9"/>
@@ -2512,7 +2515,7 @@
       <c r="W68" s="5"/>
       <c r="X68" s="5"/>
     </row>
-    <row r="69" spans="1:24">
+    <row r="69" spans="1:24" ht="12.75">
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
@@ -2538,7 +2541,7 @@
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:24" ht="12.75">
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
@@ -2564,7 +2567,7 @@
       <c r="W70" s="5"/>
       <c r="X70" s="5"/>
     </row>
-    <row r="71" spans="1:24">
+    <row r="71" spans="1:24" ht="12.75">
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
@@ -2590,7 +2593,7 @@
       <c r="W71" s="5"/>
       <c r="X71" s="5"/>
     </row>
-    <row r="72" spans="1:24">
+    <row r="72" spans="1:24" ht="12.75">
       <c r="A72" s="7"/>
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
@@ -2616,7 +2619,7 @@
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
     </row>
-    <row r="73" spans="1:24">
+    <row r="73" spans="1:24" ht="12.75">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
@@ -2642,7 +2645,7 @@
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
     </row>
-    <row r="74" spans="1:24">
+    <row r="74" spans="1:24" ht="12.75">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
@@ -2668,7 +2671,7 @@
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
     </row>
-    <row r="75" spans="1:24">
+    <row r="75" spans="1:24" ht="12.75">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
@@ -2694,7 +2697,7 @@
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
     </row>
-    <row r="76" spans="1:24">
+    <row r="76" spans="1:24" ht="12.75">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="C76" s="9"/>
@@ -2720,7 +2723,7 @@
       <c r="W76" s="5"/>
       <c r="X76" s="5"/>
     </row>
-    <row r="77" spans="1:24">
+    <row r="77" spans="1:24" ht="12.75">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="C77" s="9"/>
@@ -2746,7 +2749,7 @@
       <c r="W77" s="5"/>
       <c r="X77" s="5"/>
     </row>
-    <row r="78" spans="1:24">
+    <row r="78" spans="1:24" ht="12.75">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="C78" s="9"/>
@@ -2772,7 +2775,7 @@
       <c r="W78" s="5"/>
       <c r="X78" s="5"/>
     </row>
-    <row r="79" spans="1:24">
+    <row r="79" spans="1:24" ht="12.75">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="C79" s="9"/>
@@ -2798,7 +2801,7 @@
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
     </row>
-    <row r="80" spans="1:24">
+    <row r="80" spans="1:24" ht="12.75">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9"/>
@@ -2824,7 +2827,7 @@
       <c r="W80" s="5"/>
       <c r="X80" s="5"/>
     </row>
-    <row r="81" spans="1:24">
+    <row r="81" spans="1:24" ht="12.75">
       <c r="A81" s="7"/>
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
@@ -2850,7 +2853,7 @@
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
     </row>
-    <row r="82" spans="1:24">
+    <row r="82" spans="1:24" ht="12.75">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9"/>
@@ -2876,7 +2879,7 @@
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
     </row>
-    <row r="83" spans="1:24">
+    <row r="83" spans="1:24" ht="12.75">
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
@@ -2902,7 +2905,7 @@
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
     </row>
-    <row r="84" spans="1:24">
+    <row r="84" spans="1:24" ht="12.75">
       <c r="A84" s="7"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9"/>
@@ -2928,7 +2931,7 @@
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:24" ht="12.75">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="C85" s="9"/>
@@ -2954,7 +2957,7 @@
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
     </row>
-    <row r="86" spans="1:24">
+    <row r="86" spans="1:24" ht="12.75">
       <c r="A86" s="7"/>
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
@@ -2980,7 +2983,7 @@
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
     </row>
-    <row r="87" spans="1:24">
+    <row r="87" spans="1:24" ht="12.75">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
@@ -3006,7 +3009,7 @@
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
     </row>
-    <row r="88" spans="1:24">
+    <row r="88" spans="1:24" ht="12.75">
       <c r="A88" s="7"/>
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
@@ -3032,7 +3035,7 @@
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
     </row>
-    <row r="89" spans="1:24">
+    <row r="89" spans="1:24" ht="12.75">
       <c r="A89" s="7"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
@@ -3058,7 +3061,7 @@
       <c r="W89" s="5"/>
       <c r="X89" s="5"/>
     </row>
-    <row r="90" spans="1:24">
+    <row r="90" spans="1:24" ht="12.75">
       <c r="A90" s="7"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
@@ -3084,7 +3087,7 @@
       <c r="W90" s="5"/>
       <c r="X90" s="5"/>
     </row>
-    <row r="91" spans="1:24">
+    <row r="91" spans="1:24" ht="12.75">
       <c r="A91" s="7"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
@@ -3110,7 +3113,7 @@
       <c r="W91" s="5"/>
       <c r="X91" s="5"/>
     </row>
-    <row r="92" spans="1:24">
+    <row r="92" spans="1:24" ht="12.75">
       <c r="A92" s="7"/>
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
@@ -3136,7 +3139,7 @@
       <c r="W92" s="5"/>
       <c r="X92" s="5"/>
     </row>
-    <row r="93" spans="1:24">
+    <row r="93" spans="1:24" ht="12.75">
       <c r="A93" s="7"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
@@ -3162,7 +3165,7 @@
       <c r="W93" s="5"/>
       <c r="X93" s="5"/>
     </row>
-    <row r="94" spans="1:24">
+    <row r="94" spans="1:24" ht="12.75">
       <c r="A94" s="7"/>
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
@@ -3188,7 +3191,7 @@
       <c r="W94" s="5"/>
       <c r="X94" s="5"/>
     </row>
-    <row r="95" spans="1:24">
+    <row r="95" spans="1:24" ht="12.75">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
@@ -3214,7 +3217,7 @@
       <c r="W95" s="5"/>
       <c r="X95" s="5"/>
     </row>
-    <row r="96" spans="1:24">
+    <row r="96" spans="1:24" ht="12.75">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
@@ -3240,7 +3243,7 @@
       <c r="W96" s="5"/>
       <c r="X96" s="5"/>
     </row>
-    <row r="97" spans="1:24">
+    <row r="97" spans="1:24" ht="12.75">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
@@ -3266,7 +3269,7 @@
       <c r="W97" s="5"/>
       <c r="X97" s="5"/>
     </row>
-    <row r="98" spans="1:24">
+    <row r="98" spans="1:24" ht="12.75">
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
@@ -3292,7 +3295,7 @@
       <c r="W98" s="5"/>
       <c r="X98" s="5"/>
     </row>
-    <row r="99" spans="1:24">
+    <row r="99" spans="1:24" ht="12.75">
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="9"/>
@@ -3318,7 +3321,7 @@
       <c r="W99" s="5"/>
       <c r="X99" s="5"/>
     </row>
-    <row r="100" spans="1:24">
+    <row r="100" spans="1:24" ht="12.75">
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
       <c r="C100" s="9"/>
@@ -3344,7 +3347,7 @@
       <c r="W100" s="5"/>
       <c r="X100" s="5"/>
     </row>
-    <row r="101" spans="1:24">
+    <row r="101" spans="1:24" ht="12.75">
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
@@ -3370,7 +3373,7 @@
       <c r="W101" s="5"/>
       <c r="X101" s="5"/>
     </row>
-    <row r="102" spans="1:24">
+    <row r="102" spans="1:24" ht="12.75">
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
       <c r="C102" s="9"/>
@@ -3396,7 +3399,7 @@
       <c r="W102" s="5"/>
       <c r="X102" s="5"/>
     </row>
-    <row r="103" spans="1:24">
+    <row r="103" spans="1:24" ht="12.75">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="C103" s="9"/>
@@ -3422,7 +3425,7 @@
       <c r="W103" s="5"/>
       <c r="X103" s="5"/>
     </row>
-    <row r="104" spans="1:24">
+    <row r="104" spans="1:24" ht="12.75">
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
       <c r="C104" s="9"/>
@@ -3448,7 +3451,7 @@
       <c r="W104" s="5"/>
       <c r="X104" s="5"/>
     </row>
-    <row r="105" spans="1:24">
+    <row r="105" spans="1:24" ht="12.75">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
       <c r="C105" s="9"/>
@@ -3474,7 +3477,7 @@
       <c r="W105" s="5"/>
       <c r="X105" s="5"/>
     </row>
-    <row r="106" spans="1:24">
+    <row r="106" spans="1:24" ht="12.75">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="C106" s="9"/>
@@ -3500,7 +3503,7 @@
       <c r="W106" s="5"/>
       <c r="X106" s="5"/>
     </row>
-    <row r="107" spans="1:24">
+    <row r="107" spans="1:24" ht="12.75">
       <c r="A107" s="7"/>
       <c r="B107" s="8"/>
       <c r="C107" s="9"/>
@@ -3526,7 +3529,7 @@
       <c r="W107" s="5"/>
       <c r="X107" s="5"/>
     </row>
-    <row r="108" spans="1:24">
+    <row r="108" spans="1:24" ht="12.75">
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
       <c r="C108" s="9"/>
@@ -3552,7 +3555,7 @@
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
     </row>
-    <row r="109" spans="1:24">
+    <row r="109" spans="1:24" ht="12.75">
       <c r="A109" s="7"/>
       <c r="B109" s="8"/>
       <c r="C109" s="9"/>
@@ -3578,7 +3581,7 @@
       <c r="W109" s="5"/>
       <c r="X109" s="5"/>
     </row>
-    <row r="110" spans="1:24">
+    <row r="110" spans="1:24" ht="12.75">
       <c r="A110" s="7"/>
       <c r="B110" s="8"/>
       <c r="C110" s="9"/>
@@ -3604,7 +3607,7 @@
       <c r="W110" s="5"/>
       <c r="X110" s="5"/>
     </row>
-    <row r="111" spans="1:24">
+    <row r="111" spans="1:24" ht="12.75">
       <c r="A111" s="7"/>
       <c r="B111" s="8"/>
       <c r="C111" s="9"/>
@@ -3630,7 +3633,7 @@
       <c r="W111" s="5"/>
       <c r="X111" s="5"/>
     </row>
-    <row r="112" spans="1:24">
+    <row r="112" spans="1:24" ht="12.75">
       <c r="A112" s="7"/>
       <c r="B112" s="8"/>
       <c r="C112" s="9"/>
@@ -3656,7 +3659,7 @@
       <c r="W112" s="5"/>
       <c r="X112" s="5"/>
     </row>
-    <row r="113" spans="1:24">
+    <row r="113" spans="1:24" ht="12.75">
       <c r="A113" s="7"/>
       <c r="B113" s="8"/>
       <c r="C113" s="9"/>
@@ -3682,7 +3685,7 @@
       <c r="W113" s="5"/>
       <c r="X113" s="5"/>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" ht="12.75">
       <c r="A114" s="7"/>
       <c r="B114" s="8"/>
       <c r="C114" s="9"/>
@@ -3708,7 +3711,7 @@
       <c r="W114" s="5"/>
       <c r="X114" s="5"/>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" ht="12.75">
       <c r="A115" s="7"/>
       <c r="B115" s="8"/>
       <c r="C115" s="9"/>
@@ -3734,7 +3737,7 @@
       <c r="W115" s="5"/>
       <c r="X115" s="5"/>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" ht="12.75">
       <c r="A116" s="7"/>
       <c r="B116" s="8"/>
       <c r="C116" s="9"/>
@@ -3760,7 +3763,7 @@
       <c r="W116" s="5"/>
       <c r="X116" s="5"/>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" ht="12.75">
       <c r="A117" s="7"/>
       <c r="B117" s="8"/>
       <c r="C117" s="9"/>
@@ -3786,7 +3789,7 @@
       <c r="W117" s="5"/>
       <c r="X117" s="5"/>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" ht="12.75">
       <c r="A118" s="7"/>
       <c r="B118" s="8"/>
       <c r="C118" s="9"/>
@@ -3812,7 +3815,7 @@
       <c r="W118" s="5"/>
       <c r="X118" s="5"/>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" ht="12.75">
       <c r="A119" s="7"/>
       <c r="B119" s="8"/>
       <c r="C119" s="9"/>
@@ -3838,7 +3841,7 @@
       <c r="W119" s="5"/>
       <c r="X119" s="5"/>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" ht="12.75">
       <c r="A120" s="7"/>
       <c r="B120" s="8"/>
       <c r="C120" s="9"/>
@@ -3864,7 +3867,7 @@
       <c r="W120" s="5"/>
       <c r="X120" s="5"/>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" ht="12.75">
       <c r="A121" s="7"/>
       <c r="B121" s="8"/>
       <c r="C121" s="9"/>
@@ -3890,7 +3893,7 @@
       <c r="W121" s="5"/>
       <c r="X121" s="5"/>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" ht="12.75">
       <c r="A122" s="7"/>
       <c r="B122" s="8"/>
       <c r="C122" s="9"/>
@@ -3916,7 +3919,7 @@
       <c r="W122" s="5"/>
       <c r="X122" s="5"/>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" ht="12.75">
       <c r="A123" s="7"/>
       <c r="B123" s="8"/>
       <c r="C123" s="9"/>
@@ -3942,7 +3945,7 @@
       <c r="W123" s="5"/>
       <c r="X123" s="5"/>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" ht="12.75">
       <c r="A124" s="7"/>
       <c r="B124" s="8"/>
       <c r="C124" s="9"/>
@@ -3968,7 +3971,7 @@
       <c r="W124" s="5"/>
       <c r="X124" s="5"/>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" ht="12.75">
       <c r="A125" s="7"/>
       <c r="B125" s="8"/>
       <c r="C125" s="9"/>
@@ -3994,7 +3997,7 @@
       <c r="W125" s="5"/>
       <c r="X125" s="5"/>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" ht="12.75">
       <c r="A126" s="7"/>
       <c r="B126" s="8"/>
       <c r="C126" s="9"/>
@@ -4020,7 +4023,7 @@
       <c r="W126" s="5"/>
       <c r="X126" s="5"/>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" ht="12.75">
       <c r="A127" s="7"/>
       <c r="B127" s="8"/>
       <c r="C127" s="9"/>
@@ -4046,7 +4049,7 @@
       <c r="W127" s="5"/>
       <c r="X127" s="5"/>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" ht="12.75">
       <c r="A128" s="7"/>
       <c r="B128" s="8"/>
       <c r="C128" s="9"/>
@@ -4072,7 +4075,7 @@
       <c r="W128" s="5"/>
       <c r="X128" s="5"/>
     </row>
-    <row r="129" spans="1:24">
+    <row r="129" spans="1:24" ht="12.75">
       <c r="A129" s="7"/>
       <c r="B129" s="8"/>
       <c r="C129" s="9"/>
@@ -4098,7 +4101,7 @@
       <c r="W129" s="5"/>
       <c r="X129" s="5"/>
     </row>
-    <row r="130" spans="1:24">
+    <row r="130" spans="1:24" ht="12.75">
       <c r="A130" s="7"/>
       <c r="B130" s="8"/>
       <c r="C130" s="9"/>
@@ -4124,7 +4127,7 @@
       <c r="W130" s="5"/>
       <c r="X130" s="5"/>
     </row>
-    <row r="131" spans="1:24">
+    <row r="131" spans="1:24" ht="12.75">
       <c r="A131" s="7"/>
       <c r="B131" s="8"/>
       <c r="C131" s="9"/>
@@ -4150,7 +4153,7 @@
       <c r="W131" s="5"/>
       <c r="X131" s="5"/>
     </row>
-    <row r="132" spans="1:24">
+    <row r="132" spans="1:24" ht="12.75">
       <c r="A132" s="7"/>
       <c r="B132" s="8"/>
       <c r="C132" s="9"/>
@@ -4176,7 +4179,7 @@
       <c r="W132" s="5"/>
       <c r="X132" s="5"/>
     </row>
-    <row r="133" spans="1:24">
+    <row r="133" spans="1:24" ht="12.75">
       <c r="A133" s="7"/>
       <c r="B133" s="8"/>
       <c r="C133" s="9"/>
@@ -4202,7 +4205,7 @@
       <c r="W133" s="5"/>
       <c r="X133" s="5"/>
     </row>
-    <row r="134" spans="1:24">
+    <row r="134" spans="1:24" ht="12.75">
       <c r="A134" s="7"/>
       <c r="B134" s="8"/>
       <c r="C134" s="9"/>
@@ -4228,7 +4231,7 @@
       <c r="W134" s="5"/>
       <c r="X134" s="5"/>
     </row>
-    <row r="135" spans="1:24">
+    <row r="135" spans="1:24" ht="12.75">
       <c r="A135" s="7"/>
       <c r="B135" s="8"/>
       <c r="C135" s="9"/>
@@ -4254,7 +4257,7 @@
       <c r="W135" s="5"/>
       <c r="X135" s="5"/>
     </row>
-    <row r="136" spans="1:24">
+    <row r="136" spans="1:24" ht="12.75">
       <c r="A136" s="7"/>
       <c r="B136" s="8"/>
       <c r="C136" s="9"/>
@@ -4280,7 +4283,7 @@
       <c r="W136" s="5"/>
       <c r="X136" s="5"/>
     </row>
-    <row r="137" spans="1:24">
+    <row r="137" spans="1:24" ht="12.75">
       <c r="A137" s="7"/>
       <c r="B137" s="8"/>
       <c r="C137" s="9"/>
@@ -4306,7 +4309,7 @@
       <c r="W137" s="5"/>
       <c r="X137" s="5"/>
     </row>
-    <row r="138" spans="1:24">
+    <row r="138" spans="1:24" ht="12.75">
       <c r="A138" s="7"/>
       <c r="B138" s="8"/>
       <c r="C138" s="9"/>
@@ -4332,7 +4335,7 @@
       <c r="W138" s="5"/>
       <c r="X138" s="5"/>
     </row>
-    <row r="139" spans="1:24">
+    <row r="139" spans="1:24" ht="12.75">
       <c r="A139" s="7"/>
       <c r="B139" s="8"/>
       <c r="C139" s="9"/>
@@ -4358,7 +4361,7 @@
       <c r="W139" s="5"/>
       <c r="X139" s="5"/>
     </row>
-    <row r="140" spans="1:24">
+    <row r="140" spans="1:24" ht="12.75">
       <c r="A140" s="7"/>
       <c r="B140" s="8"/>
       <c r="C140" s="9"/>
@@ -4384,7 +4387,7 @@
       <c r="W140" s="5"/>
       <c r="X140" s="5"/>
     </row>
-    <row r="141" spans="1:24">
+    <row r="141" spans="1:24" ht="12.75">
       <c r="A141" s="7"/>
       <c r="B141" s="8"/>
       <c r="C141" s="9"/>
@@ -4410,7 +4413,7 @@
       <c r="W141" s="5"/>
       <c r="X141" s="5"/>
     </row>
-    <row r="142" spans="1:24">
+    <row r="142" spans="1:24" ht="12.75">
       <c r="A142" s="7"/>
       <c r="B142" s="8"/>
       <c r="C142" s="9"/>
@@ -4436,7 +4439,7 @@
       <c r="W142" s="5"/>
       <c r="X142" s="5"/>
     </row>
-    <row r="143" spans="1:24">
+    <row r="143" spans="1:24" ht="12.75">
       <c r="A143" s="7"/>
       <c r="B143" s="8"/>
       <c r="C143" s="9"/>
@@ -4462,7 +4465,7 @@
       <c r="W143" s="5"/>
       <c r="X143" s="5"/>
     </row>
-    <row r="144" spans="1:24">
+    <row r="144" spans="1:24" ht="12.75">
       <c r="A144" s="7"/>
       <c r="B144" s="8"/>
       <c r="C144" s="9"/>
@@ -4488,7 +4491,7 @@
       <c r="W144" s="5"/>
       <c r="X144" s="5"/>
     </row>
-    <row r="145" spans="1:24">
+    <row r="145" spans="1:24" ht="12.75">
       <c r="A145" s="7"/>
       <c r="B145" s="8"/>
       <c r="C145" s="9"/>
@@ -4514,7 +4517,7 @@
       <c r="W145" s="5"/>
       <c r="X145" s="5"/>
     </row>
-    <row r="146" spans="1:24">
+    <row r="146" spans="1:24" ht="12.75">
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="9"/>
@@ -4540,7 +4543,7 @@
       <c r="W146" s="5"/>
       <c r="X146" s="5"/>
     </row>
-    <row r="147" spans="1:24">
+    <row r="147" spans="1:24" ht="12.75">
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
       <c r="C147" s="9"/>
@@ -4566,7 +4569,7 @@
       <c r="W147" s="5"/>
       <c r="X147" s="5"/>
     </row>
-    <row r="148" spans="1:24">
+    <row r="148" spans="1:24" ht="12.75">
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" s="9"/>
@@ -4592,7 +4595,7 @@
       <c r="W148" s="5"/>
       <c r="X148" s="5"/>
     </row>
-    <row r="149" spans="1:24">
+    <row r="149" spans="1:24" ht="12.75">
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
       <c r="C149" s="9"/>
@@ -4618,7 +4621,7 @@
       <c r="W149" s="5"/>
       <c r="X149" s="5"/>
     </row>
-    <row r="150" spans="1:24">
+    <row r="150" spans="1:24" ht="12.75">
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" s="9"/>
@@ -4644,7 +4647,7 @@
       <c r="W150" s="5"/>
       <c r="X150" s="5"/>
     </row>
-    <row r="151" spans="1:24">
+    <row r="151" spans="1:24" ht="12.75">
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="9"/>
@@ -4670,7 +4673,7 @@
       <c r="W151" s="5"/>
       <c r="X151" s="5"/>
     </row>
-    <row r="152" spans="1:24">
+    <row r="152" spans="1:24" ht="12.75">
       <c r="A152" s="7"/>
       <c r="B152" s="8"/>
       <c r="C152" s="9"/>
@@ -4696,7 +4699,7 @@
       <c r="W152" s="5"/>
       <c r="X152" s="5"/>
     </row>
-    <row r="153" spans="1:24">
+    <row r="153" spans="1:24" ht="12.75">
       <c r="A153" s="7"/>
       <c r="B153" s="8"/>
       <c r="C153" s="9"/>
@@ -4722,7 +4725,7 @@
       <c r="W153" s="5"/>
       <c r="X153" s="5"/>
     </row>
-    <row r="154" spans="1:24">
+    <row r="154" spans="1:24" ht="12.75">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" s="9"/>
@@ -4748,7 +4751,7 @@
       <c r="W154" s="5"/>
       <c r="X154" s="5"/>
     </row>
-    <row r="155" spans="1:24">
+    <row r="155" spans="1:24" ht="12.75">
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
       <c r="C155" s="9"/>
@@ -4774,7 +4777,7 @@
       <c r="W155" s="5"/>
       <c r="X155" s="5"/>
     </row>
-    <row r="156" spans="1:24">
+    <row r="156" spans="1:24" ht="12.75">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="C156" s="9"/>
@@ -4800,7 +4803,7 @@
       <c r="W156" s="5"/>
       <c r="X156" s="5"/>
     </row>
-    <row r="157" spans="1:24">
+    <row r="157" spans="1:24" ht="12.75">
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
       <c r="C157" s="9"/>
@@ -4826,7 +4829,7 @@
       <c r="W157" s="5"/>
       <c r="X157" s="5"/>
     </row>
-    <row r="158" spans="1:24">
+    <row r="158" spans="1:24" ht="12.75">
       <c r="A158" s="7"/>
       <c r="B158" s="8"/>
       <c r="C158" s="9"/>
@@ -4852,7 +4855,7 @@
       <c r="W158" s="5"/>
       <c r="X158" s="5"/>
     </row>
-    <row r="159" spans="1:24">
+    <row r="159" spans="1:24" ht="12.75">
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
       <c r="C159" s="9"/>
@@ -4878,7 +4881,7 @@
       <c r="W159" s="5"/>
       <c r="X159" s="5"/>
     </row>
-    <row r="160" spans="1:24">
+    <row r="160" spans="1:24" ht="12.75">
       <c r="A160" s="7"/>
       <c r="B160" s="8"/>
       <c r="C160" s="9"/>
@@ -4904,7 +4907,7 @@
       <c r="W160" s="5"/>
       <c r="X160" s="5"/>
     </row>
-    <row r="161" spans="1:24">
+    <row r="161" spans="1:24" ht="12.75">
       <c r="A161" s="7"/>
       <c r="B161" s="8"/>
       <c r="C161" s="9"/>
@@ -4930,7 +4933,7 @@
       <c r="W161" s="5"/>
       <c r="X161" s="5"/>
     </row>
-    <row r="162" spans="1:24">
+    <row r="162" spans="1:24" ht="12.75">
       <c r="A162" s="7"/>
       <c r="B162" s="8"/>
       <c r="C162" s="9"/>
@@ -4956,7 +4959,7 @@
       <c r="W162" s="5"/>
       <c r="X162" s="5"/>
     </row>
-    <row r="163" spans="1:24">
+    <row r="163" spans="1:24" ht="12.75">
       <c r="A163" s="7"/>
       <c r="B163" s="8"/>
       <c r="C163" s="9"/>
@@ -4982,7 +4985,7 @@
       <c r="W163" s="5"/>
       <c r="X163" s="5"/>
     </row>
-    <row r="164" spans="1:24">
+    <row r="164" spans="1:24" ht="12.75">
       <c r="A164" s="7"/>
       <c r="B164" s="8"/>
       <c r="C164" s="9"/>
@@ -5008,7 +5011,7 @@
       <c r="W164" s="5"/>
       <c r="X164" s="5"/>
     </row>
-    <row r="165" spans="1:24">
+    <row r="165" spans="1:24" ht="12.75">
       <c r="A165" s="7"/>
       <c r="B165" s="8"/>
       <c r="C165" s="9"/>
@@ -5034,7 +5037,7 @@
       <c r="W165" s="5"/>
       <c r="X165" s="5"/>
     </row>
-    <row r="166" spans="1:24">
+    <row r="166" spans="1:24" ht="12.75">
       <c r="A166" s="7"/>
       <c r="B166" s="8"/>
       <c r="C166" s="9"/>
@@ -5060,7 +5063,7 @@
       <c r="W166" s="5"/>
       <c r="X166" s="5"/>
     </row>
-    <row r="167" spans="1:24">
+    <row r="167" spans="1:24" ht="12.75">
       <c r="A167" s="7"/>
       <c r="B167" s="8"/>
       <c r="C167" s="9"/>
@@ -5086,7 +5089,7 @@
       <c r="W167" s="5"/>
       <c r="X167" s="5"/>
     </row>
-    <row r="168" spans="1:24">
+    <row r="168" spans="1:24" ht="12.75">
       <c r="A168" s="7"/>
       <c r="B168" s="8"/>
       <c r="C168" s="9"/>
@@ -5112,7 +5115,7 @@
       <c r="W168" s="5"/>
       <c r="X168" s="5"/>
     </row>
-    <row r="169" spans="1:24">
+    <row r="169" spans="1:24" ht="12.75">
       <c r="A169" s="7"/>
       <c r="B169" s="8"/>
       <c r="C169" s="9"/>
@@ -5138,7 +5141,7 @@
       <c r="W169" s="5"/>
       <c r="X169" s="5"/>
     </row>
-    <row r="170" spans="1:24">
+    <row r="170" spans="1:24" ht="12.75">
       <c r="A170" s="7"/>
       <c r="B170" s="8"/>
       <c r="C170" s="9"/>
@@ -5164,7 +5167,7 @@
       <c r="W170" s="5"/>
       <c r="X170" s="5"/>
     </row>
-    <row r="171" spans="1:24">
+    <row r="171" spans="1:24" ht="12.75">
       <c r="A171" s="7"/>
       <c r="B171" s="8"/>
       <c r="C171" s="9"/>
@@ -5190,7 +5193,7 @@
       <c r="W171" s="5"/>
       <c r="X171" s="5"/>
     </row>
-    <row r="172" spans="1:24">
+    <row r="172" spans="1:24" ht="12.75">
       <c r="A172" s="7"/>
       <c r="B172" s="8"/>
       <c r="C172" s="9"/>
@@ -5216,7 +5219,7 @@
       <c r="W172" s="5"/>
       <c r="X172" s="5"/>
     </row>
-    <row r="173" spans="1:24">
+    <row r="173" spans="1:24" ht="12.75">
       <c r="A173" s="7"/>
       <c r="B173" s="8"/>
       <c r="C173" s="9"/>
@@ -5242,7 +5245,7 @@
       <c r="W173" s="5"/>
       <c r="X173" s="5"/>
     </row>
-    <row r="174" spans="1:24">
+    <row r="174" spans="1:24" ht="12.75">
       <c r="A174" s="7"/>
       <c r="B174" s="8"/>
       <c r="C174" s="9"/>
@@ -5268,7 +5271,7 @@
       <c r="W174" s="5"/>
       <c r="X174" s="5"/>
     </row>
-    <row r="175" spans="1:24">
+    <row r="175" spans="1:24" ht="12.75">
       <c r="A175" s="7"/>
       <c r="B175" s="8"/>
       <c r="C175" s="9"/>
@@ -5294,7 +5297,7 @@
       <c r="W175" s="5"/>
       <c r="X175" s="5"/>
     </row>
-    <row r="176" spans="1:24">
+    <row r="176" spans="1:24" ht="12.75">
       <c r="A176" s="7"/>
       <c r="B176" s="8"/>
       <c r="C176" s="9"/>
@@ -5320,7 +5323,7 @@
       <c r="W176" s="5"/>
       <c r="X176" s="5"/>
     </row>
-    <row r="177" spans="1:24">
+    <row r="177" spans="1:24" ht="12.75">
       <c r="A177" s="7"/>
       <c r="B177" s="8"/>
       <c r="C177" s="9"/>
@@ -5346,7 +5349,7 @@
       <c r="W177" s="5"/>
       <c r="X177" s="5"/>
     </row>
-    <row r="178" spans="1:24">
+    <row r="178" spans="1:24" ht="12.75">
       <c r="A178" s="7"/>
       <c r="B178" s="8"/>
       <c r="C178" s="9"/>
@@ -5372,7 +5375,7 @@
       <c r="W178" s="5"/>
       <c r="X178" s="5"/>
     </row>
-    <row r="179" spans="1:24">
+    <row r="179" spans="1:24" ht="12.75">
       <c r="A179" s="7"/>
       <c r="B179" s="8"/>
       <c r="C179" s="9"/>
@@ -5398,7 +5401,7 @@
       <c r="W179" s="5"/>
       <c r="X179" s="5"/>
     </row>
-    <row r="180" spans="1:24">
+    <row r="180" spans="1:24" ht="12.75">
       <c r="A180" s="7"/>
       <c r="B180" s="8"/>
       <c r="C180" s="9"/>
@@ -5424,7 +5427,7 @@
       <c r="W180" s="5"/>
       <c r="X180" s="5"/>
     </row>
-    <row r="181" spans="1:24">
+    <row r="181" spans="1:24" ht="12.75">
       <c r="A181" s="7"/>
       <c r="B181" s="8"/>
       <c r="C181" s="9"/>
@@ -5450,7 +5453,7 @@
       <c r="W181" s="5"/>
       <c r="X181" s="5"/>
     </row>
-    <row r="182" spans="1:24">
+    <row r="182" spans="1:24" ht="12.75">
       <c r="A182" s="7"/>
       <c r="B182" s="8"/>
       <c r="C182" s="9"/>
@@ -5476,7 +5479,7 @@
       <c r="W182" s="5"/>
       <c r="X182" s="5"/>
     </row>
-    <row r="183" spans="1:24">
+    <row r="183" spans="1:24" ht="12.75">
       <c r="A183" s="7"/>
       <c r="B183" s="8"/>
       <c r="C183" s="9"/>
@@ -5502,7 +5505,7 @@
       <c r="W183" s="5"/>
       <c r="X183" s="5"/>
     </row>
-    <row r="184" spans="1:24">
+    <row r="184" spans="1:24" ht="12.75">
       <c r="A184" s="7"/>
       <c r="B184" s="8"/>
       <c r="C184" s="9"/>
@@ -5528,7 +5531,7 @@
       <c r="W184" s="5"/>
       <c r="X184" s="5"/>
     </row>
-    <row r="185" spans="1:24">
+    <row r="185" spans="1:24" ht="12.75">
       <c r="A185" s="7"/>
       <c r="B185" s="8"/>
       <c r="C185" s="9"/>
@@ -5554,7 +5557,7 @@
       <c r="W185" s="5"/>
       <c r="X185" s="5"/>
     </row>
-    <row r="186" spans="1:24">
+    <row r="186" spans="1:24" ht="12.75">
       <c r="A186" s="7"/>
       <c r="B186" s="8"/>
       <c r="C186" s="9"/>
@@ -5580,7 +5583,7 @@
       <c r="W186" s="5"/>
       <c r="X186" s="5"/>
     </row>
-    <row r="187" spans="1:24">
+    <row r="187" spans="1:24" ht="12.75">
       <c r="A187" s="7"/>
       <c r="B187" s="8"/>
       <c r="C187" s="9"/>
@@ -5606,7 +5609,7 @@
       <c r="W187" s="5"/>
       <c r="X187" s="5"/>
     </row>
-    <row r="188" spans="1:24">
+    <row r="188" spans="1:24" ht="12.75">
       <c r="A188" s="7"/>
       <c r="B188" s="8"/>
       <c r="C188" s="9"/>
@@ -5632,7 +5635,7 @@
       <c r="W188" s="5"/>
       <c r="X188" s="5"/>
     </row>
-    <row r="189" spans="1:24">
+    <row r="189" spans="1:24" ht="12.75">
       <c r="A189" s="7"/>
       <c r="B189" s="8"/>
       <c r="C189" s="9"/>
@@ -5658,7 +5661,7 @@
       <c r="W189" s="5"/>
       <c r="X189" s="5"/>
     </row>
-    <row r="190" spans="1:24">
+    <row r="190" spans="1:24" ht="12.75">
       <c r="A190" s="7"/>
       <c r="B190" s="8"/>
       <c r="C190" s="9"/>
@@ -5684,7 +5687,7 @@
       <c r="W190" s="5"/>
       <c r="X190" s="5"/>
     </row>
-    <row r="191" spans="1:24">
+    <row r="191" spans="1:24" ht="12.75">
       <c r="A191" s="7"/>
       <c r="B191" s="8"/>
       <c r="C191" s="9"/>
@@ -5710,7 +5713,7 @@
       <c r="W191" s="5"/>
       <c r="X191" s="5"/>
     </row>
-    <row r="192" spans="1:24">
+    <row r="192" spans="1:24" ht="12.75">
       <c r="A192" s="7"/>
       <c r="B192" s="8"/>
       <c r="C192" s="9"/>
@@ -5736,7 +5739,7 @@
       <c r="W192" s="5"/>
       <c r="X192" s="5"/>
     </row>
-    <row r="193" spans="1:24">
+    <row r="193" spans="1:24" ht="12.75">
       <c r="A193" s="7"/>
       <c r="B193" s="8"/>
       <c r="C193" s="9"/>
@@ -5762,7 +5765,7 @@
       <c r="W193" s="5"/>
       <c r="X193" s="5"/>
     </row>
-    <row r="194" spans="1:24">
+    <row r="194" spans="1:24" ht="12.75">
       <c r="A194" s="7"/>
       <c r="B194" s="8"/>
       <c r="C194" s="9"/>
@@ -5788,7 +5791,7 @@
       <c r="W194" s="5"/>
       <c r="X194" s="5"/>
     </row>
-    <row r="195" spans="1:24">
+    <row r="195" spans="1:24" ht="12.75">
       <c r="A195" s="7"/>
       <c r="B195" s="8"/>
       <c r="C195" s="9"/>
@@ -5814,7 +5817,7 @@
       <c r="W195" s="5"/>
       <c r="X195" s="5"/>
     </row>
-    <row r="196" spans="1:24">
+    <row r="196" spans="1:24" ht="12.75">
       <c r="A196" s="7"/>
       <c r="B196" s="8"/>
       <c r="C196" s="9"/>
@@ -5840,7 +5843,7 @@
       <c r="W196" s="5"/>
       <c r="X196" s="5"/>
     </row>
-    <row r="197" spans="1:24">
+    <row r="197" spans="1:24" ht="12.75">
       <c r="A197" s="7"/>
       <c r="B197" s="8"/>
       <c r="C197" s="9"/>
@@ -5866,7 +5869,7 @@
       <c r="W197" s="5"/>
       <c r="X197" s="5"/>
     </row>
-    <row r="198" spans="1:24">
+    <row r="198" spans="1:24" ht="12.75">
       <c r="A198" s="7"/>
       <c r="B198" s="8"/>
       <c r="C198" s="9"/>
@@ -5892,7 +5895,7 @@
       <c r="W198" s="5"/>
       <c r="X198" s="5"/>
     </row>
-    <row r="199" spans="1:24">
+    <row r="199" spans="1:24" ht="12.75">
       <c r="A199" s="7"/>
       <c r="B199" s="8"/>
       <c r="C199" s="9"/>
@@ -5918,7 +5921,7 @@
       <c r="W199" s="5"/>
       <c r="X199" s="5"/>
     </row>
-    <row r="200" spans="1:24">
+    <row r="200" spans="1:24" ht="12.75">
       <c r="A200" s="7"/>
       <c r="B200" s="8"/>
       <c r="C200" s="9"/>
@@ -5944,7 +5947,7 @@
       <c r="W200" s="5"/>
       <c r="X200" s="5"/>
     </row>
-    <row r="201" spans="1:24">
+    <row r="201" spans="1:24" ht="12.75">
       <c r="A201" s="7"/>
       <c r="B201" s="8"/>
       <c r="C201" s="9"/>
@@ -5970,7 +5973,7 @@
       <c r="W201" s="5"/>
       <c r="X201" s="5"/>
     </row>
-    <row r="202" spans="1:24">
+    <row r="202" spans="1:24" ht="12.75">
       <c r="A202" s="7"/>
       <c r="B202" s="8"/>
       <c r="C202" s="9"/>
@@ -5996,7 +5999,7 @@
       <c r="W202" s="5"/>
       <c r="X202" s="5"/>
     </row>
-    <row r="203" spans="1:24">
+    <row r="203" spans="1:24" ht="12.75">
       <c r="A203" s="7"/>
       <c r="B203" s="8"/>
       <c r="C203" s="9"/>
@@ -6022,7 +6025,7 @@
       <c r="W203" s="5"/>
       <c r="X203" s="5"/>
     </row>
-    <row r="204" spans="1:24">
+    <row r="204" spans="1:24" ht="12.75">
       <c r="A204" s="7"/>
       <c r="B204" s="8"/>
       <c r="C204" s="9"/>
@@ -6048,7 +6051,7 @@
       <c r="W204" s="5"/>
       <c r="X204" s="5"/>
     </row>
-    <row r="205" spans="1:24">
+    <row r="205" spans="1:24" ht="12.75">
       <c r="A205" s="7"/>
       <c r="B205" s="8"/>
       <c r="C205" s="9"/>
@@ -6074,7 +6077,7 @@
       <c r="W205" s="5"/>
       <c r="X205" s="5"/>
     </row>
-    <row r="206" spans="1:24">
+    <row r="206" spans="1:24" ht="12.75">
       <c r="A206" s="7"/>
       <c r="B206" s="8"/>
       <c r="C206" s="9"/>
@@ -6100,7 +6103,7 @@
       <c r="W206" s="5"/>
       <c r="X206" s="5"/>
     </row>
-    <row r="207" spans="1:24">
+    <row r="207" spans="1:24" ht="12.75">
       <c r="A207" s="7"/>
       <c r="B207" s="8"/>
       <c r="C207" s="9"/>
@@ -6126,7 +6129,7 @@
       <c r="W207" s="5"/>
       <c r="X207" s="5"/>
     </row>
-    <row r="208" spans="1:24">
+    <row r="208" spans="1:24" ht="12.75">
       <c r="A208" s="7"/>
       <c r="B208" s="8"/>
       <c r="C208" s="9"/>
@@ -6152,7 +6155,7 @@
       <c r="W208" s="5"/>
       <c r="X208" s="5"/>
     </row>
-    <row r="209" spans="1:24">
+    <row r="209" spans="1:24" ht="12.75">
       <c r="A209" s="7"/>
       <c r="B209" s="8"/>
       <c r="C209" s="9"/>
@@ -6178,7 +6181,7 @@
       <c r="W209" s="5"/>
       <c r="X209" s="5"/>
     </row>
-    <row r="210" spans="1:24">
+    <row r="210" spans="1:24" ht="12.75">
       <c r="A210" s="7"/>
       <c r="B210" s="8"/>
       <c r="C210" s="9"/>
@@ -6204,7 +6207,7 @@
       <c r="W210" s="5"/>
       <c r="X210" s="5"/>
     </row>
-    <row r="211" spans="1:24">
+    <row r="211" spans="1:24" ht="12.75">
       <c r="A211" s="7"/>
       <c r="B211" s="8"/>
       <c r="C211" s="9"/>
@@ -6230,7 +6233,7 @@
       <c r="W211" s="5"/>
       <c r="X211" s="5"/>
     </row>
-    <row r="212" spans="1:24">
+    <row r="212" spans="1:24" ht="12.75">
       <c r="A212" s="7"/>
       <c r="B212" s="8"/>
       <c r="C212" s="9"/>
@@ -6256,7 +6259,7 @@
       <c r="W212" s="5"/>
       <c r="X212" s="5"/>
     </row>
-    <row r="213" spans="1:24">
+    <row r="213" spans="1:24" ht="12.75">
       <c r="A213" s="7"/>
       <c r="B213" s="8"/>
       <c r="C213" s="9"/>
@@ -6282,7 +6285,7 @@
       <c r="W213" s="5"/>
       <c r="X213" s="5"/>
     </row>
-    <row r="214" spans="1:24">
+    <row r="214" spans="1:24" ht="12.75">
       <c r="A214" s="7"/>
       <c r="B214" s="8"/>
       <c r="C214" s="9"/>
@@ -6308,7 +6311,7 @@
       <c r="W214" s="5"/>
       <c r="X214" s="5"/>
     </row>
-    <row r="215" spans="1:24">
+    <row r="215" spans="1:24" ht="12.75">
       <c r="A215" s="7"/>
       <c r="B215" s="8"/>
       <c r="C215" s="9"/>
@@ -6334,7 +6337,7 @@
       <c r="W215" s="5"/>
       <c r="X215" s="5"/>
     </row>
-    <row r="216" spans="1:24">
+    <row r="216" spans="1:24" ht="12.75">
       <c r="A216" s="7"/>
       <c r="B216" s="8"/>
       <c r="C216" s="9"/>
@@ -6360,7 +6363,7 @@
       <c r="W216" s="5"/>
       <c r="X216" s="5"/>
     </row>
-    <row r="217" spans="1:24">
+    <row r="217" spans="1:24" ht="12.75">
       <c r="A217" s="7"/>
       <c r="B217" s="8"/>
       <c r="C217" s="9"/>
@@ -6386,7 +6389,7 @@
       <c r="W217" s="5"/>
       <c r="X217" s="5"/>
     </row>
-    <row r="218" spans="1:24">
+    <row r="218" spans="1:24" ht="12.75">
       <c r="A218" s="7"/>
       <c r="B218" s="8"/>
       <c r="C218" s="9"/>
@@ -6412,7 +6415,7 @@
       <c r="W218" s="5"/>
       <c r="X218" s="5"/>
     </row>
-    <row r="219" spans="1:24">
+    <row r="219" spans="1:24" ht="12.75">
       <c r="A219" s="7"/>
       <c r="B219" s="8"/>
       <c r="C219" s="9"/>
@@ -6438,7 +6441,7 @@
       <c r="W219" s="5"/>
       <c r="X219" s="5"/>
     </row>
-    <row r="220" spans="1:24">
+    <row r="220" spans="1:24" ht="12.75">
       <c r="A220" s="7"/>
       <c r="B220" s="8"/>
       <c r="C220" s="9"/>
@@ -6464,7 +6467,7 @@
       <c r="W220" s="5"/>
       <c r="X220" s="5"/>
     </row>
-    <row r="221" spans="1:24">
+    <row r="221" spans="1:24" ht="12.75">
       <c r="A221" s="7"/>
       <c r="B221" s="8"/>
       <c r="C221" s="9"/>
@@ -6490,7 +6493,7 @@
       <c r="W221" s="5"/>
       <c r="X221" s="5"/>
     </row>
-    <row r="222" spans="1:24">
+    <row r="222" spans="1:24" ht="12.75">
       <c r="A222" s="7"/>
       <c r="B222" s="8"/>
       <c r="C222" s="9"/>
@@ -6516,7 +6519,7 @@
       <c r="W222" s="5"/>
       <c r="X222" s="5"/>
     </row>
-    <row r="223" spans="1:24">
+    <row r="223" spans="1:24" ht="12.75">
       <c r="A223" s="7"/>
       <c r="B223" s="8"/>
       <c r="C223" s="9"/>
@@ -6542,7 +6545,7 @@
       <c r="W223" s="5"/>
       <c r="X223" s="5"/>
     </row>
-    <row r="224" spans="1:24">
+    <row r="224" spans="1:24" ht="12.75">
       <c r="A224" s="7"/>
       <c r="B224" s="8"/>
       <c r="C224" s="9"/>
@@ -6568,7 +6571,7 @@
       <c r="W224" s="5"/>
       <c r="X224" s="5"/>
     </row>
-    <row r="225" spans="1:24">
+    <row r="225" spans="1:24" ht="12.75">
       <c r="A225" s="7"/>
       <c r="B225" s="8"/>
       <c r="C225" s="9"/>
@@ -6594,7 +6597,7 @@
       <c r="W225" s="5"/>
       <c r="X225" s="5"/>
     </row>
-    <row r="226" spans="1:24">
+    <row r="226" spans="1:24" ht="12.75">
       <c r="A226" s="7"/>
       <c r="B226" s="8"/>
       <c r="C226" s="9"/>
@@ -6620,7 +6623,7 @@
       <c r="W226" s="5"/>
       <c r="X226" s="5"/>
     </row>
-    <row r="227" spans="1:24">
+    <row r="227" spans="1:24" ht="12.75">
       <c r="A227" s="7"/>
       <c r="B227" s="8"/>
       <c r="C227" s="9"/>
@@ -6646,7 +6649,7 @@
       <c r="W227" s="5"/>
       <c r="X227" s="5"/>
     </row>
-    <row r="228" spans="1:24">
+    <row r="228" spans="1:24" ht="12.75">
       <c r="A228" s="7"/>
       <c r="B228" s="8"/>
       <c r="C228" s="9"/>
@@ -6672,7 +6675,7 @@
       <c r="W228" s="5"/>
       <c r="X228" s="5"/>
     </row>
-    <row r="229" spans="1:24">
+    <row r="229" spans="1:24" ht="12.75">
       <c r="A229" s="7"/>
       <c r="B229" s="8"/>
       <c r="C229" s="9"/>
@@ -6698,7 +6701,7 @@
       <c r="W229" s="5"/>
       <c r="X229" s="5"/>
     </row>
-    <row r="230" spans="1:24">
+    <row r="230" spans="1:24" ht="12.75">
       <c r="A230" s="7"/>
       <c r="B230" s="8"/>
       <c r="C230" s="9"/>
@@ -6724,7 +6727,7 @@
       <c r="W230" s="5"/>
       <c r="X230" s="5"/>
     </row>
-    <row r="231" spans="1:24">
+    <row r="231" spans="1:24" ht="12.75">
       <c r="A231" s="7"/>
       <c r="B231" s="8"/>
       <c r="C231" s="9"/>
@@ -6750,7 +6753,7 @@
       <c r="W231" s="5"/>
       <c r="X231" s="5"/>
     </row>
-    <row r="232" spans="1:24">
+    <row r="232" spans="1:24" ht="12.75">
       <c r="A232" s="7"/>
       <c r="B232" s="8"/>
       <c r="C232" s="9"/>
@@ -6776,7 +6779,7 @@
       <c r="W232" s="5"/>
       <c r="X232" s="5"/>
     </row>
-    <row r="233" spans="1:24">
+    <row r="233" spans="1:24" ht="12.75">
       <c r="A233" s="7"/>
       <c r="B233" s="8"/>
       <c r="C233" s="9"/>
@@ -6802,7 +6805,7 @@
       <c r="W233" s="5"/>
       <c r="X233" s="5"/>
     </row>
-    <row r="234" spans="1:24">
+    <row r="234" spans="1:24" ht="12.75">
       <c r="A234" s="7"/>
       <c r="B234" s="8"/>
       <c r="C234" s="9"/>
@@ -6828,7 +6831,7 @@
       <c r="W234" s="5"/>
       <c r="X234" s="5"/>
     </row>
-    <row r="235" spans="1:24">
+    <row r="235" spans="1:24" ht="12.75">
       <c r="A235" s="7"/>
       <c r="B235" s="8"/>
       <c r="C235" s="9"/>
@@ -6854,7 +6857,7 @@
       <c r="W235" s="5"/>
       <c r="X235" s="5"/>
     </row>
-    <row r="236" spans="1:24">
+    <row r="236" spans="1:24" ht="12.75">
       <c r="A236" s="7"/>
       <c r="B236" s="8"/>
       <c r="C236" s="9"/>
@@ -6880,7 +6883,7 @@
       <c r="W236" s="5"/>
       <c r="X236" s="5"/>
     </row>
-    <row r="237" spans="1:24">
+    <row r="237" spans="1:24" ht="12.75">
       <c r="A237" s="7"/>
       <c r="B237" s="8"/>
       <c r="C237" s="9"/>
@@ -6906,7 +6909,7 @@
       <c r="W237" s="5"/>
       <c r="X237" s="5"/>
     </row>
-    <row r="238" spans="1:24">
+    <row r="238" spans="1:24" ht="12.75">
       <c r="A238" s="7"/>
       <c r="B238" s="8"/>
       <c r="C238" s="9"/>
@@ -6932,7 +6935,7 @@
       <c r="W238" s="5"/>
       <c r="X238" s="5"/>
     </row>
-    <row r="239" spans="1:24">
+    <row r="239" spans="1:24" ht="12.75">
       <c r="A239" s="7"/>
       <c r="B239" s="8"/>
       <c r="C239" s="9"/>
@@ -6958,7 +6961,7 @@
       <c r="W239" s="5"/>
       <c r="X239" s="5"/>
     </row>
-    <row r="240" spans="1:24">
+    <row r="240" spans="1:24" ht="12.75">
       <c r="A240" s="7"/>
       <c r="B240" s="8"/>
       <c r="C240" s="9"/>
@@ -6984,7 +6987,7 @@
       <c r="W240" s="5"/>
       <c r="X240" s="5"/>
     </row>
-    <row r="241" spans="1:24">
+    <row r="241" spans="1:24" ht="12.75">
       <c r="A241" s="7"/>
       <c r="B241" s="8"/>
       <c r="C241" s="9"/>
@@ -7010,7 +7013,7 @@
       <c r="W241" s="5"/>
       <c r="X241" s="5"/>
     </row>
-    <row r="242" spans="1:24">
+    <row r="242" spans="1:24" ht="12.75">
       <c r="A242" s="7"/>
       <c r="B242" s="8"/>
       <c r="C242" s="9"/>
@@ -7036,7 +7039,7 @@
       <c r="W242" s="5"/>
       <c r="X242" s="5"/>
     </row>
-    <row r="243" spans="1:24">
+    <row r="243" spans="1:24" ht="12.75">
       <c r="A243" s="7"/>
       <c r="B243" s="8"/>
       <c r="C243" s="9"/>
@@ -7062,7 +7065,7 @@
       <c r="W243" s="5"/>
       <c r="X243" s="5"/>
     </row>
-    <row r="244" spans="1:24">
+    <row r="244" spans="1:24" ht="12.75">
       <c r="A244" s="7"/>
       <c r="B244" s="8"/>
       <c r="C244" s="9"/>
@@ -7088,7 +7091,7 @@
       <c r="W244" s="5"/>
       <c r="X244" s="5"/>
     </row>
-    <row r="245" spans="1:24">
+    <row r="245" spans="1:24" ht="12.75">
       <c r="A245" s="7"/>
       <c r="B245" s="8"/>
       <c r="C245" s="9"/>
@@ -7114,7 +7117,7 @@
       <c r="W245" s="5"/>
       <c r="X245" s="5"/>
     </row>
-    <row r="246" spans="1:24">
+    <row r="246" spans="1:24" ht="12.75">
       <c r="A246" s="7"/>
       <c r="B246" s="8"/>
       <c r="C246" s="9"/>
@@ -7140,7 +7143,7 @@
       <c r="W246" s="5"/>
       <c r="X246" s="5"/>
     </row>
-    <row r="247" spans="1:24">
+    <row r="247" spans="1:24" ht="12.75">
       <c r="A247" s="7"/>
       <c r="B247" s="8"/>
       <c r="C247" s="9"/>
@@ -7166,7 +7169,7 @@
       <c r="W247" s="5"/>
       <c r="X247" s="5"/>
     </row>
-    <row r="248" spans="1:24">
+    <row r="248" spans="1:24" ht="12.75">
       <c r="A248" s="7"/>
       <c r="B248" s="8"/>
       <c r="C248" s="9"/>
@@ -7192,7 +7195,7 @@
       <c r="W248" s="5"/>
       <c r="X248" s="5"/>
     </row>
-    <row r="249" spans="1:24">
+    <row r="249" spans="1:24" ht="12.75">
       <c r="A249" s="7"/>
       <c r="B249" s="8"/>
       <c r="C249" s="9"/>
@@ -7218,7 +7221,7 @@
       <c r="W249" s="5"/>
       <c r="X249" s="5"/>
     </row>
-    <row r="250" spans="1:24">
+    <row r="250" spans="1:24" ht="12.75">
       <c r="A250" s="7"/>
       <c r="B250" s="8"/>
       <c r="C250" s="9"/>
@@ -7244,7 +7247,7 @@
       <c r="W250" s="5"/>
       <c r="X250" s="5"/>
     </row>
-    <row r="251" spans="1:24">
+    <row r="251" spans="1:24" ht="12.75">
       <c r="A251" s="7"/>
       <c r="B251" s="8"/>
       <c r="C251" s="9"/>
@@ -7270,7 +7273,7 @@
       <c r="W251" s="5"/>
       <c r="X251" s="5"/>
     </row>
-    <row r="252" spans="1:24">
+    <row r="252" spans="1:24" ht="12.75">
       <c r="A252" s="7"/>
       <c r="B252" s="8"/>
       <c r="C252" s="9"/>
@@ -7296,7 +7299,7 @@
       <c r="W252" s="5"/>
       <c r="X252" s="5"/>
     </row>
-    <row r="253" spans="1:24">
+    <row r="253" spans="1:24" ht="12.75">
       <c r="A253" s="7"/>
       <c r="B253" s="8"/>
       <c r="C253" s="9"/>
@@ -7322,7 +7325,7 @@
       <c r="W253" s="5"/>
       <c r="X253" s="5"/>
     </row>
-    <row r="254" spans="1:24">
+    <row r="254" spans="1:24" ht="12.75">
       <c r="A254" s="7"/>
       <c r="B254" s="8"/>
       <c r="C254" s="9"/>
@@ -7348,7 +7351,7 @@
       <c r="W254" s="5"/>
       <c r="X254" s="5"/>
     </row>
-    <row r="255" spans="1:24">
+    <row r="255" spans="1:24" ht="12.75">
       <c r="A255" s="7"/>
       <c r="B255" s="8"/>
       <c r="C255" s="9"/>
@@ -7374,7 +7377,7 @@
       <c r="W255" s="5"/>
       <c r="X255" s="5"/>
     </row>
-    <row r="256" spans="1:24">
+    <row r="256" spans="1:24" ht="12.75">
       <c r="A256" s="7"/>
       <c r="B256" s="8"/>
       <c r="C256" s="9"/>
@@ -7400,7 +7403,7 @@
       <c r="W256" s="5"/>
       <c r="X256" s="5"/>
     </row>
-    <row r="257" spans="1:24">
+    <row r="257" spans="1:24" ht="12.75">
       <c r="A257" s="7"/>
       <c r="B257" s="8"/>
       <c r="C257" s="9"/>
@@ -7426,7 +7429,7 @@
       <c r="W257" s="5"/>
       <c r="X257" s="5"/>
     </row>
-    <row r="258" spans="1:24">
+    <row r="258" spans="1:24" ht="12.75">
       <c r="A258" s="7"/>
       <c r="B258" s="8"/>
       <c r="C258" s="9"/>
@@ -7452,7 +7455,7 @@
       <c r="W258" s="5"/>
       <c r="X258" s="5"/>
     </row>
-    <row r="259" spans="1:24">
+    <row r="259" spans="1:24" ht="12.75">
       <c r="A259" s="7"/>
       <c r="B259" s="8"/>
       <c r="C259" s="9"/>
@@ -7478,7 +7481,7 @@
       <c r="W259" s="5"/>
       <c r="X259" s="5"/>
     </row>
-    <row r="260" spans="1:24">
+    <row r="260" spans="1:24" ht="12.75">
       <c r="A260" s="7"/>
       <c r="B260" s="8"/>
       <c r="C260" s="9"/>
@@ -7504,7 +7507,7 @@
       <c r="W260" s="5"/>
       <c r="X260" s="5"/>
     </row>
-    <row r="261" spans="1:24">
+    <row r="261" spans="1:24" ht="12.75">
       <c r="A261" s="7"/>
       <c r="B261" s="8"/>
       <c r="C261" s="9"/>
@@ -7530,7 +7533,7 @@
       <c r="W261" s="5"/>
       <c r="X261" s="5"/>
     </row>
-    <row r="262" spans="1:24">
+    <row r="262" spans="1:24" ht="12.75">
       <c r="A262" s="7"/>
       <c r="B262" s="8"/>
       <c r="C262" s="9"/>
@@ -7556,7 +7559,7 @@
       <c r="W262" s="5"/>
       <c r="X262" s="5"/>
     </row>
-    <row r="263" spans="1:24">
+    <row r="263" spans="1:24" ht="12.75">
       <c r="A263" s="7"/>
       <c r="B263" s="8"/>
       <c r="C263" s="9"/>
@@ -7582,7 +7585,7 @@
       <c r="W263" s="5"/>
       <c r="X263" s="5"/>
     </row>
-    <row r="264" spans="1:24">
+    <row r="264" spans="1:24" ht="12.75">
       <c r="A264" s="7"/>
       <c r="B264" s="8"/>
       <c r="C264" s="9"/>
@@ -7608,7 +7611,7 @@
       <c r="W264" s="5"/>
       <c r="X264" s="5"/>
     </row>
-    <row r="265" spans="1:24">
+    <row r="265" spans="1:24" ht="12.75">
       <c r="A265" s="7"/>
       <c r="B265" s="8"/>
       <c r="C265" s="9"/>
@@ -7634,7 +7637,7 @@
       <c r="W265" s="5"/>
       <c r="X265" s="5"/>
     </row>
-    <row r="266" spans="1:24">
+    <row r="266" spans="1:24" ht="12.75">
       <c r="A266" s="7"/>
       <c r="B266" s="8"/>
       <c r="C266" s="9"/>
@@ -7660,7 +7663,7 @@
       <c r="W266" s="5"/>
       <c r="X266" s="5"/>
     </row>
-    <row r="267" spans="1:24">
+    <row r="267" spans="1:24" ht="12.75">
       <c r="A267" s="7"/>
       <c r="B267" s="8"/>
       <c r="C267" s="9"/>
@@ -7686,7 +7689,7 @@
       <c r="W267" s="5"/>
       <c r="X267" s="5"/>
     </row>
-    <row r="268" spans="1:24">
+    <row r="268" spans="1:24" ht="12.75">
       <c r="A268" s="7"/>
       <c r="B268" s="8"/>
       <c r="C268" s="9"/>
@@ -7712,7 +7715,7 @@
       <c r="W268" s="5"/>
       <c r="X268" s="5"/>
     </row>
-    <row r="269" spans="1:24">
+    <row r="269" spans="1:24" ht="12.75">
       <c r="A269" s="7"/>
       <c r="B269" s="8"/>
       <c r="C269" s="9"/>
@@ -7738,7 +7741,7 @@
       <c r="W269" s="5"/>
       <c r="X269" s="5"/>
     </row>
-    <row r="270" spans="1:24">
+    <row r="270" spans="1:24" ht="12.75">
       <c r="A270" s="7"/>
       <c r="B270" s="8"/>
       <c r="C270" s="9"/>
@@ -7764,7 +7767,7 @@
       <c r="W270" s="5"/>
       <c r="X270" s="5"/>
     </row>
-    <row r="271" spans="1:24">
+    <row r="271" spans="1:24" ht="12.75">
       <c r="A271" s="7"/>
       <c r="B271" s="8"/>
       <c r="C271" s="9"/>
@@ -7790,7 +7793,7 @@
       <c r="W271" s="5"/>
       <c r="X271" s="5"/>
     </row>
-    <row r="272" spans="1:24">
+    <row r="272" spans="1:24" ht="12.75">
       <c r="A272" s="7"/>
       <c r="B272" s="8"/>
       <c r="C272" s="9"/>
@@ -7816,7 +7819,7 @@
       <c r="W272" s="5"/>
       <c r="X272" s="5"/>
     </row>
-    <row r="273" spans="1:24">
+    <row r="273" spans="1:24" ht="12.75">
       <c r="A273" s="7"/>
       <c r="B273" s="8"/>
       <c r="C273" s="9"/>
@@ -7842,7 +7845,7 @@
       <c r="W273" s="5"/>
       <c r="X273" s="5"/>
     </row>
-    <row r="274" spans="1:24">
+    <row r="274" spans="1:24" ht="12.75">
       <c r="A274" s="7"/>
       <c r="B274" s="8"/>
       <c r="C274" s="9"/>
@@ -7868,7 +7871,7 @@
       <c r="W274" s="5"/>
       <c r="X274" s="5"/>
     </row>
-    <row r="275" spans="1:24">
+    <row r="275" spans="1:24" ht="12.75">
       <c r="A275" s="7"/>
       <c r="B275" s="8"/>
       <c r="C275" s="9"/>
@@ -7894,7 +7897,7 @@
       <c r="W275" s="5"/>
       <c r="X275" s="5"/>
     </row>
-    <row r="276" spans="1:24">
+    <row r="276" spans="1:24" ht="12.75">
       <c r="A276" s="7"/>
       <c r="B276" s="8"/>
       <c r="C276" s="9"/>
@@ -7920,7 +7923,7 @@
       <c r="W276" s="5"/>
       <c r="X276" s="5"/>
     </row>
-    <row r="277" spans="1:24">
+    <row r="277" spans="1:24" ht="12.75">
       <c r="A277" s="7"/>
       <c r="B277" s="8"/>
       <c r="C277" s="9"/>
@@ -7946,7 +7949,7 @@
       <c r="W277" s="5"/>
       <c r="X277" s="5"/>
     </row>
-    <row r="278" spans="1:24">
+    <row r="278" spans="1:24" ht="12.75">
       <c r="A278" s="7"/>
       <c r="B278" s="8"/>
       <c r="C278" s="9"/>
@@ -7972,7 +7975,7 @@
       <c r="W278" s="5"/>
       <c r="X278" s="5"/>
     </row>
-    <row r="279" spans="1:24">
+    <row r="279" spans="1:24" ht="12.75">
       <c r="A279" s="7"/>
       <c r="B279" s="8"/>
       <c r="C279" s="9"/>
@@ -7998,7 +8001,7 @@
       <c r="W279" s="5"/>
       <c r="X279" s="5"/>
     </row>
-    <row r="280" spans="1:24">
+    <row r="280" spans="1:24" ht="12.75">
       <c r="A280" s="7"/>
       <c r="B280" s="8"/>
       <c r="C280" s="9"/>
@@ -8024,7 +8027,7 @@
       <c r="W280" s="5"/>
       <c r="X280" s="5"/>
     </row>
-    <row r="281" spans="1:24">
+    <row r="281" spans="1:24" ht="12.75">
       <c r="A281" s="7"/>
       <c r="B281" s="8"/>
       <c r="C281" s="9"/>
@@ -8050,7 +8053,7 @@
       <c r="W281" s="5"/>
       <c r="X281" s="5"/>
     </row>
-    <row r="282" spans="1:24">
+    <row r="282" spans="1:24" ht="12.75">
       <c r="A282" s="7"/>
       <c r="B282" s="8"/>
       <c r="C282" s="9"/>
@@ -8076,7 +8079,7 @@
       <c r="W282" s="5"/>
       <c r="X282" s="5"/>
     </row>
-    <row r="283" spans="1:24">
+    <row r="283" spans="1:24" ht="12.75">
       <c r="A283" s="7"/>
       <c r="B283" s="8"/>
       <c r="C283" s="9"/>
@@ -8102,7 +8105,7 @@
       <c r="W283" s="5"/>
       <c r="X283" s="5"/>
     </row>
-    <row r="284" spans="1:24">
+    <row r="284" spans="1:24" ht="12.75">
       <c r="A284" s="7"/>
       <c r="B284" s="8"/>
       <c r="C284" s="9"/>
@@ -8128,7 +8131,7 @@
       <c r="W284" s="5"/>
       <c r="X284" s="5"/>
     </row>
-    <row r="285" spans="1:24">
+    <row r="285" spans="1:24" ht="12.75">
       <c r="A285" s="7"/>
       <c r="B285" s="8"/>
       <c r="C285" s="9"/>
@@ -8154,7 +8157,7 @@
       <c r="W285" s="5"/>
       <c r="X285" s="5"/>
     </row>
-    <row r="286" spans="1:24">
+    <row r="286" spans="1:24" ht="12.75">
       <c r="A286" s="7"/>
       <c r="B286" s="8"/>
       <c r="C286" s="9"/>
@@ -8180,7 +8183,7 @@
       <c r="W286" s="5"/>
       <c r="X286" s="5"/>
     </row>
-    <row r="287" spans="1:24">
+    <row r="287" spans="1:24" ht="12.75">
       <c r="A287" s="7"/>
       <c r="B287" s="8"/>
       <c r="C287" s="9"/>
@@ -8206,7 +8209,7 @@
       <c r="W287" s="5"/>
       <c r="X287" s="5"/>
     </row>
-    <row r="288" spans="1:24">
+    <row r="288" spans="1:24" ht="12.75">
       <c r="A288" s="7"/>
       <c r="B288" s="8"/>
       <c r="C288" s="9"/>
@@ -8232,7 +8235,7 @@
       <c r="W288" s="5"/>
       <c r="X288" s="5"/>
     </row>
-    <row r="289" spans="1:24">
+    <row r="289" spans="1:24" ht="12.75">
       <c r="A289" s="7"/>
       <c r="B289" s="8"/>
       <c r="C289" s="9"/>
@@ -8258,7 +8261,7 @@
       <c r="W289" s="5"/>
       <c r="X289" s="5"/>
     </row>
-    <row r="290" spans="1:24">
+    <row r="290" spans="1:24" ht="12.75">
       <c r="A290" s="7"/>
       <c r="B290" s="8"/>
       <c r="C290" s="9"/>
@@ -8284,7 +8287,7 @@
       <c r="W290" s="5"/>
       <c r="X290" s="5"/>
     </row>
-    <row r="291" spans="1:24">
+    <row r="291" spans="1:24" ht="12.75">
       <c r="A291" s="7"/>
       <c r="B291" s="8"/>
       <c r="C291" s="9"/>
@@ -8310,7 +8313,7 @@
       <c r="W291" s="5"/>
       <c r="X291" s="5"/>
     </row>
-    <row r="292" spans="1:24">
+    <row r="292" spans="1:24" ht="12.75">
       <c r="A292" s="7"/>
       <c r="B292" s="8"/>
       <c r="C292" s="9"/>
@@ -8336,7 +8339,7 @@
       <c r="W292" s="5"/>
       <c r="X292" s="5"/>
     </row>
-    <row r="293" spans="1:24">
+    <row r="293" spans="1:24" ht="12.75">
       <c r="A293" s="7"/>
       <c r="B293" s="8"/>
       <c r="C293" s="9"/>
@@ -8362,7 +8365,7 @@
       <c r="W293" s="5"/>
       <c r="X293" s="5"/>
     </row>
-    <row r="294" spans="1:24">
+    <row r="294" spans="1:24" ht="12.75">
       <c r="A294" s="7"/>
       <c r="B294" s="8"/>
       <c r="C294" s="9"/>
@@ -8388,7 +8391,7 @@
       <c r="W294" s="5"/>
       <c r="X294" s="5"/>
     </row>
-    <row r="295" spans="1:24">
+    <row r="295" spans="1:24" ht="12.75">
       <c r="A295" s="7"/>
       <c r="B295" s="8"/>
       <c r="C295" s="9"/>
@@ -8414,7 +8417,7 @@
       <c r="W295" s="5"/>
       <c r="X295" s="5"/>
     </row>
-    <row r="296" spans="1:24">
+    <row r="296" spans="1:24" ht="12.75">
       <c r="A296" s="7"/>
       <c r="B296" s="8"/>
       <c r="C296" s="9"/>
@@ -8440,7 +8443,7 @@
       <c r="W296" s="5"/>
       <c r="X296" s="5"/>
     </row>
-    <row r="297" spans="1:24">
+    <row r="297" spans="1:24" ht="12.75">
       <c r="A297" s="7"/>
       <c r="B297" s="8"/>
       <c r="C297" s="9"/>
@@ -8466,7 +8469,7 @@
       <c r="W297" s="5"/>
       <c r="X297" s="5"/>
     </row>
-    <row r="298" spans="1:24">
+    <row r="298" spans="1:24" ht="12.75">
       <c r="A298" s="7"/>
       <c r="B298" s="8"/>
       <c r="C298" s="9"/>
@@ -8492,7 +8495,7 @@
       <c r="W298" s="5"/>
       <c r="X298" s="5"/>
     </row>
-    <row r="299" spans="1:24">
+    <row r="299" spans="1:24" ht="12.75">
       <c r="A299" s="7"/>
       <c r="B299" s="8"/>
       <c r="C299" s="9"/>
@@ -8518,7 +8521,7 @@
       <c r="W299" s="5"/>
       <c r="X299" s="5"/>
     </row>
-    <row r="300" spans="1:24">
+    <row r="300" spans="1:24" ht="12.75">
       <c r="A300" s="7"/>
       <c r="B300" s="8"/>
       <c r="C300" s="9"/>
@@ -8544,7 +8547,7 @@
       <c r="W300" s="5"/>
       <c r="X300" s="5"/>
     </row>
-    <row r="301" spans="1:24">
+    <row r="301" spans="1:24" ht="12.75">
       <c r="A301" s="7"/>
       <c r="B301" s="8"/>
       <c r="C301" s="9"/>
@@ -8570,7 +8573,7 @@
       <c r="W301" s="5"/>
       <c r="X301" s="5"/>
     </row>
-    <row r="302" spans="1:24">
+    <row r="302" spans="1:24" ht="12.75">
       <c r="A302" s="7"/>
       <c r="B302" s="8"/>
       <c r="C302" s="9"/>
@@ -8596,7 +8599,7 @@
       <c r="W302" s="5"/>
       <c r="X302" s="5"/>
     </row>
-    <row r="303" spans="1:24">
+    <row r="303" spans="1:24" ht="12.75">
       <c r="A303" s="7"/>
       <c r="B303" s="8"/>
       <c r="C303" s="9"/>
@@ -8622,7 +8625,7 @@
       <c r="W303" s="5"/>
       <c r="X303" s="5"/>
     </row>
-    <row r="304" spans="1:24">
+    <row r="304" spans="1:24" ht="12.75">
       <c r="A304" s="7"/>
       <c r="B304" s="8"/>
       <c r="C304" s="9"/>
@@ -8648,7 +8651,7 @@
       <c r="W304" s="5"/>
       <c r="X304" s="5"/>
     </row>
-    <row r="305" spans="1:24">
+    <row r="305" spans="1:24" ht="12.75">
       <c r="A305" s="7"/>
       <c r="B305" s="8"/>
       <c r="C305" s="9"/>
@@ -8674,7 +8677,7 @@
       <c r="W305" s="5"/>
       <c r="X305" s="5"/>
     </row>
-    <row r="306" spans="1:24">
+    <row r="306" spans="1:24" ht="12.75">
       <c r="A306" s="7"/>
       <c r="B306" s="8"/>
       <c r="C306" s="9"/>
@@ -8700,7 +8703,7 @@
       <c r="W306" s="5"/>
       <c r="X306" s="5"/>
     </row>
-    <row r="307" spans="1:24">
+    <row r="307" spans="1:24" ht="12.75">
       <c r="A307" s="7"/>
       <c r="B307" s="8"/>
       <c r="C307" s="9"/>
@@ -8726,7 +8729,7 @@
       <c r="W307" s="5"/>
       <c r="X307" s="5"/>
     </row>
-    <row r="308" spans="1:24">
+    <row r="308" spans="1:24" ht="12.75">
       <c r="A308" s="7"/>
       <c r="B308" s="8"/>
       <c r="C308" s="9"/>
@@ -8752,7 +8755,7 @@
       <c r="W308" s="5"/>
       <c r="X308" s="5"/>
     </row>
-    <row r="309" spans="1:24">
+    <row r="309" spans="1:24" ht="12.75">
       <c r="A309" s="7"/>
       <c r="B309" s="8"/>
       <c r="C309" s="9"/>
@@ -8778,7 +8781,7 @@
       <c r="W309" s="5"/>
       <c r="X309" s="5"/>
     </row>
-    <row r="310" spans="1:24">
+    <row r="310" spans="1:24" ht="12.75">
       <c r="A310" s="7"/>
       <c r="B310" s="8"/>
       <c r="C310" s="9"/>
@@ -8804,7 +8807,7 @@
       <c r="W310" s="5"/>
       <c r="X310" s="5"/>
     </row>
-    <row r="311" spans="1:24">
+    <row r="311" spans="1:24" ht="12.75">
       <c r="A311" s="7"/>
       <c r="B311" s="8"/>
       <c r="C311" s="9"/>
@@ -8830,7 +8833,7 @@
       <c r="W311" s="5"/>
       <c r="X311" s="5"/>
     </row>
-    <row r="312" spans="1:24">
+    <row r="312" spans="1:24" ht="12.75">
       <c r="A312" s="7"/>
       <c r="B312" s="8"/>
       <c r="C312" s="9"/>
@@ -8856,7 +8859,7 @@
       <c r="W312" s="5"/>
       <c r="X312" s="5"/>
     </row>
-    <row r="313" spans="1:24">
+    <row r="313" spans="1:24" ht="12.75">
       <c r="A313" s="7"/>
       <c r="B313" s="8"/>
       <c r="C313" s="9"/>
@@ -8882,7 +8885,7 @@
       <c r="W313" s="5"/>
       <c r="X313" s="5"/>
     </row>
-    <row r="314" spans="1:24">
+    <row r="314" spans="1:24" ht="12.75">
       <c r="A314" s="7"/>
       <c r="B314" s="8"/>
       <c r="C314" s="9"/>
@@ -8908,7 +8911,7 @@
       <c r="W314" s="5"/>
       <c r="X314" s="5"/>
     </row>
-    <row r="315" spans="1:24">
+    <row r="315" spans="1:24" ht="12.75">
       <c r="A315" s="7"/>
       <c r="B315" s="8"/>
       <c r="C315" s="9"/>
@@ -8934,7 +8937,7 @@
       <c r="W315" s="5"/>
       <c r="X315" s="5"/>
     </row>
-    <row r="316" spans="1:24">
+    <row r="316" spans="1:24" ht="12.75">
       <c r="A316" s="7"/>
       <c r="B316" s="8"/>
       <c r="C316" s="9"/>
@@ -8960,7 +8963,7 @@
       <c r="W316" s="5"/>
       <c r="X316" s="5"/>
     </row>
-    <row r="317" spans="1:24">
+    <row r="317" spans="1:24" ht="12.75">
       <c r="A317" s="7"/>
       <c r="B317" s="8"/>
       <c r="C317" s="9"/>
@@ -8986,7 +8989,7 @@
       <c r="W317" s="5"/>
       <c r="X317" s="5"/>
     </row>
-    <row r="318" spans="1:24">
+    <row r="318" spans="1:24" ht="12.75">
       <c r="A318" s="7"/>
       <c r="B318" s="8"/>
       <c r="C318" s="9"/>
@@ -9012,7 +9015,7 @@
       <c r="W318" s="5"/>
       <c r="X318" s="5"/>
     </row>
-    <row r="319" spans="1:24">
+    <row r="319" spans="1:24" ht="12.75">
       <c r="A319" s="7"/>
       <c r="B319" s="8"/>
       <c r="C319" s="9"/>
@@ -9038,7 +9041,7 @@
       <c r="W319" s="5"/>
       <c r="X319" s="5"/>
     </row>
-    <row r="320" spans="1:24">
+    <row r="320" spans="1:24" ht="12.75">
       <c r="A320" s="7"/>
       <c r="B320" s="8"/>
       <c r="C320" s="9"/>
@@ -9064,7 +9067,7 @@
       <c r="W320" s="5"/>
       <c r="X320" s="5"/>
     </row>
-    <row r="321" spans="1:24">
+    <row r="321" spans="1:24" ht="12.75">
       <c r="A321" s="7"/>
       <c r="B321" s="8"/>
       <c r="C321" s="9"/>
@@ -9090,7 +9093,7 @@
       <c r="W321" s="5"/>
       <c r="X321" s="5"/>
     </row>
-    <row r="322" spans="1:24">
+    <row r="322" spans="1:24" ht="12.75">
       <c r="A322" s="7"/>
       <c r="B322" s="8"/>
       <c r="C322" s="9"/>
@@ -9116,7 +9119,7 @@
       <c r="W322" s="5"/>
       <c r="X322" s="5"/>
     </row>
-    <row r="323" spans="1:24">
+    <row r="323" spans="1:24" ht="12.75">
       <c r="A323" s="7"/>
       <c r="B323" s="8"/>
       <c r="C323" s="9"/>
@@ -9142,7 +9145,7 @@
       <c r="W323" s="5"/>
       <c r="X323" s="5"/>
     </row>
-    <row r="324" spans="1:24">
+    <row r="324" spans="1:24" ht="12.75">
       <c r="A324" s="7"/>
       <c r="B324" s="8"/>
       <c r="C324" s="9"/>
@@ -9168,7 +9171,7 @@
       <c r="W324" s="5"/>
       <c r="X324" s="5"/>
     </row>
-    <row r="325" spans="1:24">
+    <row r="325" spans="1:24" ht="12.75">
       <c r="A325" s="7"/>
       <c r="B325" s="8"/>
       <c r="C325" s="9"/>
@@ -9194,7 +9197,7 @@
       <c r="W325" s="5"/>
       <c r="X325" s="5"/>
     </row>
-    <row r="326" spans="1:24">
+    <row r="326" spans="1:24" ht="12.75">
       <c r="A326" s="7"/>
       <c r="B326" s="8"/>
       <c r="C326" s="9"/>
@@ -9220,7 +9223,7 @@
       <c r="W326" s="5"/>
       <c r="X326" s="5"/>
     </row>
-    <row r="327" spans="1:24">
+    <row r="327" spans="1:24" ht="12.75">
       <c r="A327" s="7"/>
       <c r="B327" s="8"/>
       <c r="C327" s="9"/>
@@ -9246,7 +9249,7 @@
       <c r="W327" s="5"/>
       <c r="X327" s="5"/>
     </row>
-    <row r="328" spans="1:24">
+    <row r="328" spans="1:24" ht="12.75">
       <c r="A328" s="7"/>
       <c r="B328" s="8"/>
       <c r="C328" s="9"/>
@@ -9272,7 +9275,7 @@
       <c r="W328" s="5"/>
       <c r="X328" s="5"/>
     </row>
-    <row r="329" spans="1:24">
+    <row r="329" spans="1:24" ht="12.75">
       <c r="A329" s="7"/>
       <c r="B329" s="8"/>
       <c r="C329" s="9"/>
@@ -9298,7 +9301,7 @@
       <c r="W329" s="5"/>
       <c r="X329" s="5"/>
     </row>
-    <row r="330" spans="1:24">
+    <row r="330" spans="1:24" ht="12.75">
       <c r="A330" s="7"/>
       <c r="B330" s="8"/>
       <c r="C330" s="9"/>
@@ -9324,7 +9327,7 @@
       <c r="W330" s="5"/>
       <c r="X330" s="5"/>
     </row>
-    <row r="331" spans="1:24">
+    <row r="331" spans="1:24" ht="12.75">
       <c r="A331" s="7"/>
       <c r="B331" s="8"/>
       <c r="C331" s="9"/>
@@ -9350,7 +9353,7 @@
       <c r="W331" s="5"/>
       <c r="X331" s="5"/>
     </row>
-    <row r="332" spans="1:24">
+    <row r="332" spans="1:24" ht="12.75">
       <c r="A332" s="7"/>
       <c r="B332" s="8"/>
       <c r="C332" s="9"/>
@@ -9376,7 +9379,7 @@
       <c r="W332" s="5"/>
       <c r="X332" s="5"/>
     </row>
-    <row r="333" spans="1:24">
+    <row r="333" spans="1:24" ht="12.75">
       <c r="A333" s="7"/>
       <c r="B333" s="8"/>
       <c r="C333" s="9"/>
@@ -9402,7 +9405,7 @@
       <c r="W333" s="5"/>
       <c r="X333" s="5"/>
     </row>
-    <row r="334" spans="1:24">
+    <row r="334" spans="1:24" ht="12.75">
       <c r="A334" s="7"/>
       <c r="B334" s="8"/>
       <c r="C334" s="9"/>
@@ -9428,7 +9431,7 @@
       <c r="W334" s="5"/>
       <c r="X334" s="5"/>
     </row>
-    <row r="335" spans="1:24">
+    <row r="335" spans="1:24" ht="12.75">
       <c r="A335" s="7"/>
       <c r="B335" s="8"/>
       <c r="C335" s="9"/>
@@ -9454,7 +9457,7 @@
       <c r="W335" s="5"/>
       <c r="X335" s="5"/>
     </row>
-    <row r="336" spans="1:24">
+    <row r="336" spans="1:24" ht="12.75">
       <c r="A336" s="7"/>
       <c r="B336" s="8"/>
       <c r="C336" s="9"/>
@@ -9480,7 +9483,7 @@
       <c r="W336" s="5"/>
       <c r="X336" s="5"/>
     </row>
-    <row r="337" spans="1:24">
+    <row r="337" spans="1:24" ht="12.75">
       <c r="A337" s="7"/>
       <c r="B337" s="8"/>
       <c r="C337" s="9"/>
@@ -9506,7 +9509,7 @@
       <c r="W337" s="5"/>
       <c r="X337" s="5"/>
     </row>
-    <row r="338" spans="1:24">
+    <row r="338" spans="1:24" ht="12.75">
       <c r="A338" s="7"/>
       <c r="B338" s="8"/>
       <c r="C338" s="9"/>
@@ -9532,7 +9535,7 @@
       <c r="W338" s="5"/>
       <c r="X338" s="5"/>
     </row>
-    <row r="339" spans="1:24">
+    <row r="339" spans="1:24" ht="12.75">
       <c r="A339" s="7"/>
       <c r="B339" s="8"/>
       <c r="C339" s="9"/>
@@ -9558,7 +9561,7 @@
       <c r="W339" s="5"/>
       <c r="X339" s="5"/>
     </row>
-    <row r="340" spans="1:24">
+    <row r="340" spans="1:24" ht="12.75">
       <c r="A340" s="7"/>
       <c r="B340" s="8"/>
       <c r="C340" s="9"/>
@@ -9584,7 +9587,7 @@
       <c r="W340" s="5"/>
       <c r="X340" s="5"/>
     </row>
-    <row r="341" spans="1:24">
+    <row r="341" spans="1:24" ht="12.75">
       <c r="A341" s="7"/>
       <c r="B341" s="8"/>
       <c r="C341" s="9"/>
@@ -9610,7 +9613,7 @@
       <c r="W341" s="5"/>
       <c r="X341" s="5"/>
     </row>
-    <row r="342" spans="1:24">
+    <row r="342" spans="1:24" ht="12.75">
       <c r="A342" s="7"/>
       <c r="B342" s="8"/>
       <c r="C342" s="9"/>
@@ -9636,7 +9639,7 @@
       <c r="W342" s="5"/>
       <c r="X342" s="5"/>
     </row>
-    <row r="343" spans="1:24">
+    <row r="343" spans="1:24" ht="12.75">
       <c r="A343" s="7"/>
       <c r="B343" s="8"/>
       <c r="C343" s="9"/>
@@ -9662,7 +9665,7 @@
       <c r="W343" s="5"/>
       <c r="X343" s="5"/>
     </row>
-    <row r="344" spans="1:24">
+    <row r="344" spans="1:24" ht="12.75">
       <c r="A344" s="7"/>
       <c r="B344" s="8"/>
       <c r="C344" s="9"/>
@@ -9688,7 +9691,7 @@
       <c r="W344" s="5"/>
       <c r="X344" s="5"/>
     </row>
-    <row r="345" spans="1:24">
+    <row r="345" spans="1:24" ht="12.75">
       <c r="A345" s="7"/>
       <c r="B345" s="8"/>
       <c r="C345" s="9"/>
@@ -9714,7 +9717,7 @@
       <c r="W345" s="5"/>
       <c r="X345" s="5"/>
     </row>
-    <row r="346" spans="1:24">
+    <row r="346" spans="1:24" ht="12.75">
       <c r="A346" s="7"/>
       <c r="B346" s="8"/>
       <c r="C346" s="9"/>
@@ -9740,7 +9743,7 @@
       <c r="W346" s="5"/>
       <c r="X346" s="5"/>
     </row>
-    <row r="347" spans="1:24">
+    <row r="347" spans="1:24" ht="12.75">
       <c r="A347" s="7"/>
       <c r="B347" s="8"/>
       <c r="C347" s="9"/>
@@ -9766,7 +9769,7 @@
       <c r="W347" s="5"/>
       <c r="X347" s="5"/>
     </row>
-    <row r="348" spans="1:24">
+    <row r="348" spans="1:24" ht="12.75">
       <c r="A348" s="7"/>
       <c r="B348" s="8"/>
       <c r="C348" s="9"/>
@@ -9792,7 +9795,7 @@
       <c r="W348" s="5"/>
       <c r="X348" s="5"/>
     </row>
-    <row r="349" spans="1:24">
+    <row r="349" spans="1:24" ht="12.75">
       <c r="A349" s="7"/>
       <c r="B349" s="8"/>
       <c r="C349" s="9"/>
@@ -9818,7 +9821,7 @@
       <c r="W349" s="5"/>
       <c r="X349" s="5"/>
     </row>
-    <row r="350" spans="1:24">
+    <row r="350" spans="1:24" ht="12.75">
       <c r="A350" s="7"/>
       <c r="B350" s="8"/>
       <c r="C350" s="9"/>
@@ -9844,7 +9847,7 @@
       <c r="W350" s="5"/>
       <c r="X350" s="5"/>
     </row>
-    <row r="351" spans="1:24">
+    <row r="351" spans="1:24" ht="12.75">
       <c r="A351" s="7"/>
       <c r="B351" s="8"/>
       <c r="C351" s="9"/>
@@ -9870,7 +9873,7 @@
       <c r="W351" s="5"/>
       <c r="X351" s="5"/>
     </row>
-    <row r="352" spans="1:24">
+    <row r="352" spans="1:24" ht="12.75">
       <c r="A352" s="7"/>
       <c r="B352" s="8"/>
       <c r="C352" s="9"/>
@@ -9896,7 +9899,7 @@
       <c r="W352" s="5"/>
       <c r="X352" s="5"/>
     </row>
-    <row r="353" spans="1:24">
+    <row r="353" spans="1:24" ht="12.75">
       <c r="A353" s="7"/>
       <c r="B353" s="8"/>
       <c r="C353" s="9"/>
@@ -9922,7 +9925,7 @@
       <c r="W353" s="5"/>
       <c r="X353" s="5"/>
     </row>
-    <row r="354" spans="1:24">
+    <row r="354" spans="1:24" ht="12.75">
       <c r="A354" s="7"/>
       <c r="B354" s="8"/>
       <c r="C354" s="9"/>
@@ -9948,7 +9951,7 @@
       <c r="W354" s="5"/>
       <c r="X354" s="5"/>
     </row>
-    <row r="355" spans="1:24">
+    <row r="355" spans="1:24" ht="12.75">
       <c r="A355" s="7"/>
       <c r="B355" s="8"/>
       <c r="C355" s="9"/>
@@ -9974,7 +9977,7 @@
       <c r="W355" s="5"/>
       <c r="X355" s="5"/>
     </row>
-    <row r="356" spans="1:24">
+    <row r="356" spans="1:24" ht="12.75">
       <c r="A356" s="7"/>
       <c r="B356" s="8"/>
       <c r="C356" s="9"/>
@@ -10000,7 +10003,7 @@
       <c r="W356" s="5"/>
       <c r="X356" s="5"/>
     </row>
-    <row r="357" spans="1:24">
+    <row r="357" spans="1:24" ht="12.75">
       <c r="A357" s="7"/>
       <c r="B357" s="8"/>
       <c r="C357" s="9"/>
@@ -10026,7 +10029,7 @@
       <c r="W357" s="5"/>
       <c r="X357" s="5"/>
     </row>
-    <row r="358" spans="1:24">
+    <row r="358" spans="1:24" ht="12.75">
       <c r="A358" s="7"/>
       <c r="B358" s="8"/>
       <c r="C358" s="9"/>
@@ -10052,7 +10055,7 @@
       <c r="W358" s="5"/>
       <c r="X358" s="5"/>
     </row>
-    <row r="359" spans="1:24">
+    <row r="359" spans="1:24" ht="12.75">
       <c r="A359" s="7"/>
       <c r="B359" s="8"/>
       <c r="C359" s="9"/>
@@ -10078,7 +10081,7 @@
       <c r="W359" s="5"/>
       <c r="X359" s="5"/>
     </row>
-    <row r="360" spans="1:24">
+    <row r="360" spans="1:24" ht="12.75">
       <c r="A360" s="7"/>
       <c r="B360" s="8"/>
       <c r="C360" s="9"/>
@@ -10104,7 +10107,7 @@
       <c r="W360" s="5"/>
       <c r="X360" s="5"/>
     </row>
-    <row r="361" spans="1:24">
+    <row r="361" spans="1:24" ht="12.75">
       <c r="A361" s="7"/>
       <c r="B361" s="8"/>
       <c r="C361" s="9"/>
@@ -10130,7 +10133,7 @@
       <c r="W361" s="5"/>
       <c r="X361" s="5"/>
     </row>
-    <row r="362" spans="1:24">
+    <row r="362" spans="1:24" ht="12.75">
       <c r="A362" s="7"/>
       <c r="B362" s="8"/>
       <c r="C362" s="9"/>
@@ -10156,7 +10159,7 @@
       <c r="W362" s="5"/>
       <c r="X362" s="5"/>
     </row>
-    <row r="363" spans="1:24">
+    <row r="363" spans="1:24" ht="12.75">
       <c r="A363" s="7"/>
       <c r="B363" s="8"/>
       <c r="C363" s="9"/>
@@ -10182,7 +10185,7 @@
       <c r="W363" s="5"/>
       <c r="X363" s="5"/>
     </row>
-    <row r="364" spans="1:24">
+    <row r="364" spans="1:24" ht="12.75">
       <c r="A364" s="7"/>
       <c r="B364" s="8"/>
       <c r="C364" s="9"/>
@@ -10208,7 +10211,7 @@
       <c r="W364" s="5"/>
       <c r="X364" s="5"/>
     </row>
-    <row r="365" spans="1:24">
+    <row r="365" spans="1:24" ht="12.75">
       <c r="A365" s="7"/>
       <c r="B365" s="8"/>
       <c r="C365" s="9"/>
@@ -10234,7 +10237,7 @@
       <c r="W365" s="5"/>
       <c r="X365" s="5"/>
     </row>
-    <row r="366" spans="1:24">
+    <row r="366" spans="1:24" ht="12.75">
       <c r="A366" s="7"/>
       <c r="B366" s="8"/>
       <c r="C366" s="9"/>
@@ -10260,7 +10263,7 @@
       <c r="W366" s="5"/>
       <c r="X366" s="5"/>
     </row>
-    <row r="367" spans="1:24">
+    <row r="367" spans="1:24" ht="12.75">
       <c r="A367" s="7"/>
       <c r="B367" s="8"/>
       <c r="C367" s="9"/>
@@ -10286,7 +10289,7 @@
       <c r="W367" s="5"/>
       <c r="X367" s="5"/>
     </row>
-    <row r="368" spans="1:24">
+    <row r="368" spans="1:24" ht="12.75">
       <c r="A368" s="7"/>
       <c r="B368" s="8"/>
       <c r="C368" s="9"/>
@@ -10312,7 +10315,7 @@
       <c r="W368" s="5"/>
       <c r="X368" s="5"/>
     </row>
-    <row r="369" spans="1:24">
+    <row r="369" spans="1:24" ht="12.75">
       <c r="A369" s="7"/>
       <c r="B369" s="8"/>
       <c r="C369" s="9"/>
@@ -10338,7 +10341,7 @@
       <c r="W369" s="5"/>
       <c r="X369" s="5"/>
     </row>
-    <row r="370" spans="1:24">
+    <row r="370" spans="1:24" ht="12.75">
       <c r="A370" s="7"/>
       <c r="B370" s="8"/>
       <c r="C370" s="9"/>
@@ -10364,7 +10367,7 @@
       <c r="W370" s="5"/>
       <c r="X370" s="5"/>
     </row>
-    <row r="371" spans="1:24">
+    <row r="371" spans="1:24" ht="12.75">
       <c r="A371" s="7"/>
       <c r="B371" s="8"/>
       <c r="C371" s="9"/>
@@ -10390,7 +10393,7 @@
       <c r="W371" s="5"/>
       <c r="X371" s="5"/>
     </row>
-    <row r="372" spans="1:24">
+    <row r="372" spans="1:24" ht="12.75">
       <c r="A372" s="7"/>
       <c r="B372" s="8"/>
       <c r="C372" s="9"/>
@@ -10416,7 +10419,7 @@
       <c r="W372" s="5"/>
       <c r="X372" s="5"/>
     </row>
-    <row r="373" spans="1:24">
+    <row r="373" spans="1:24" ht="12.75">
       <c r="A373" s="7"/>
       <c r="B373" s="8"/>
       <c r="C373" s="9"/>
@@ -10442,7 +10445,7 @@
       <c r="W373" s="5"/>
       <c r="X373" s="5"/>
     </row>
-    <row r="374" spans="1:24">
+    <row r="374" spans="1:24" ht="12.75">
       <c r="A374" s="7"/>
       <c r="B374" s="8"/>
       <c r="C374" s="9"/>
@@ -10468,7 +10471,7 @@
       <c r="W374" s="5"/>
       <c r="X374" s="5"/>
     </row>
-    <row r="375" spans="1:24">
+    <row r="375" spans="1:24" ht="12.75">
       <c r="A375" s="7"/>
       <c r="B375" s="8"/>
       <c r="C375" s="9"/>
@@ -10494,7 +10497,7 @@
       <c r="W375" s="5"/>
       <c r="X375" s="5"/>
     </row>
-    <row r="376" spans="1:24">
+    <row r="376" spans="1:24" ht="12.75">
       <c r="A376" s="7"/>
       <c r="B376" s="8"/>
       <c r="C376" s="9"/>
@@ -10520,7 +10523,7 @@
       <c r="W376" s="5"/>
       <c r="X376" s="5"/>
     </row>
-    <row r="377" spans="1:24">
+    <row r="377" spans="1:24" ht="12.75">
       <c r="A377" s="7"/>
       <c r="B377" s="8"/>
       <c r="C377" s="9"/>
@@ -10546,7 +10549,7 @@
       <c r="W377" s="5"/>
       <c r="X377" s="5"/>
     </row>
-    <row r="378" spans="1:24">
+    <row r="378" spans="1:24" ht="12.75">
       <c r="A378" s="7"/>
       <c r="B378" s="8"/>
       <c r="C378" s="9"/>
@@ -10572,7 +10575,7 @@
       <c r="W378" s="5"/>
       <c r="X378" s="5"/>
     </row>
-    <row r="379" spans="1:24">
+    <row r="379" spans="1:24" ht="12.75">
       <c r="A379" s="7"/>
       <c r="B379" s="8"/>
       <c r="C379" s="9"/>
@@ -10598,7 +10601,7 @@
       <c r="W379" s="5"/>
       <c r="X379" s="5"/>
     </row>
-    <row r="380" spans="1:24">
+    <row r="380" spans="1:24" ht="12.75">
       <c r="A380" s="7"/>
       <c r="B380" s="8"/>
       <c r="C380" s="9"/>
@@ -10624,7 +10627,7 @@
       <c r="W380" s="5"/>
       <c r="X380" s="5"/>
     </row>
-    <row r="381" spans="1:24">
+    <row r="381" spans="1:24" ht="12.75">
       <c r="A381" s="7"/>
       <c r="B381" s="8"/>
       <c r="C381" s="9"/>
@@ -10650,7 +10653,7 @@
       <c r="W381" s="5"/>
       <c r="X381" s="5"/>
     </row>
-    <row r="382" spans="1:24">
+    <row r="382" spans="1:24" ht="12.75">
       <c r="A382" s="7"/>
       <c r="B382" s="8"/>
       <c r="C382" s="9"/>
@@ -10676,7 +10679,7 @@
       <c r="W382" s="5"/>
       <c r="X382" s="5"/>
     </row>
-    <row r="383" spans="1:24">
+    <row r="383" spans="1:24" ht="12.75">
       <c r="A383" s="7"/>
       <c r="B383" s="8"/>
       <c r="C383" s="9"/>
@@ -10702,7 +10705,7 @@
       <c r="W383" s="5"/>
       <c r="X383" s="5"/>
     </row>
-    <row r="384" spans="1:24">
+    <row r="384" spans="1:24" ht="12.75">
       <c r="A384" s="7"/>
       <c r="B384" s="8"/>
       <c r="C384" s="9"/>
@@ -10728,7 +10731,7 @@
       <c r="W384" s="5"/>
       <c r="X384" s="5"/>
     </row>
-    <row r="385" spans="1:24">
+    <row r="385" spans="1:24" ht="12.75">
       <c r="A385" s="7"/>
       <c r="B385" s="8"/>
       <c r="C385" s="9"/>
@@ -10754,7 +10757,7 @@
       <c r="W385" s="5"/>
       <c r="X385" s="5"/>
     </row>
-    <row r="386" spans="1:24">
+    <row r="386" spans="1:24" ht="12.75">
       <c r="A386" s="7"/>
       <c r="B386" s="8"/>
       <c r="C386" s="9"/>
@@ -10780,7 +10783,7 @@
       <c r="W386" s="5"/>
       <c r="X386" s="5"/>
     </row>
-    <row r="387" spans="1:24">
+    <row r="387" spans="1:24" ht="12.75">
       <c r="A387" s="7"/>
       <c r="B387" s="8"/>
       <c r="C387" s="9"/>
@@ -10806,7 +10809,7 @@
       <c r="W387" s="5"/>
       <c r="X387" s="5"/>
     </row>
-    <row r="388" spans="1:24">
+    <row r="388" spans="1:24" ht="12.75">
       <c r="A388" s="7"/>
       <c r="B388" s="8"/>
       <c r="C388" s="9"/>
@@ -10832,7 +10835,7 @@
       <c r="W388" s="5"/>
       <c r="X388" s="5"/>
     </row>
-    <row r="389" spans="1:24">
+    <row r="389" spans="1:24" ht="12.75">
       <c r="A389" s="7"/>
       <c r="B389" s="8"/>
       <c r="C389" s="9"/>
@@ -10858,7 +10861,7 @@
       <c r="W389" s="5"/>
       <c r="X389" s="5"/>
     </row>
-    <row r="390" spans="1:24">
+    <row r="390" spans="1:24" ht="12.75">
       <c r="A390" s="7"/>
       <c r="B390" s="8"/>
       <c r="C390" s="9"/>
@@ -10884,7 +10887,7 @@
       <c r="W390" s="5"/>
       <c r="X390" s="5"/>
     </row>
-    <row r="391" spans="1:24">
+    <row r="391" spans="1:24" ht="12.75">
       <c r="A391" s="7"/>
       <c r="B391" s="8"/>
       <c r="C391" s="9"/>
@@ -10910,7 +10913,7 @@
       <c r="W391" s="5"/>
       <c r="X391" s="5"/>
     </row>
-    <row r="392" spans="1:24">
+    <row r="392" spans="1:24" ht="12.75">
       <c r="A392" s="7"/>
       <c r="B392" s="8"/>
       <c r="C392" s="9"/>
@@ -10936,7 +10939,7 @@
       <c r="W392" s="5"/>
       <c r="X392" s="5"/>
     </row>
-    <row r="393" spans="1:24">
+    <row r="393" spans="1:24" ht="12.75">
       <c r="A393" s="7"/>
       <c r="B393" s="8"/>
       <c r="C393" s="9"/>
@@ -10962,7 +10965,7 @@
       <c r="W393" s="5"/>
       <c r="X393" s="5"/>
     </row>
-    <row r="394" spans="1:24">
+    <row r="394" spans="1:24" ht="12.75">
       <c r="A394" s="7"/>
       <c r="B394" s="8"/>
       <c r="C394" s="9"/>
@@ -10988,7 +10991,7 @@
       <c r="W394" s="5"/>
       <c r="X394" s="5"/>
     </row>
-    <row r="395" spans="1:24">
+    <row r="395" spans="1:24" ht="12.75">
       <c r="A395" s="7"/>
       <c r="B395" s="8"/>
       <c r="C395" s="9"/>
@@ -11014,7 +11017,7 @@
       <c r="W395" s="5"/>
       <c r="X395" s="5"/>
     </row>
-    <row r="396" spans="1:24">
+    <row r="396" spans="1:24" ht="12.75">
       <c r="A396" s="7"/>
       <c r="B396" s="8"/>
       <c r="C396" s="9"/>
@@ -11040,7 +11043,7 @@
       <c r="W396" s="5"/>
       <c r="X396" s="5"/>
     </row>
-    <row r="397" spans="1:24">
+    <row r="397" spans="1:24" ht="12.75">
       <c r="A397" s="7"/>
       <c r="B397" s="8"/>
       <c r="C397" s="9"/>
@@ -11066,7 +11069,7 @@
       <c r="W397" s="5"/>
       <c r="X397" s="5"/>
     </row>
-    <row r="398" spans="1:24">
+    <row r="398" spans="1:24" ht="12.75">
       <c r="A398" s="7"/>
       <c r="B398" s="8"/>
       <c r="C398" s="9"/>
@@ -11092,7 +11095,7 @@
       <c r="W398" s="5"/>
       <c r="X398" s="5"/>
     </row>
-    <row r="399" spans="1:24">
+    <row r="399" spans="1:24" ht="12.75">
       <c r="A399" s="7"/>
       <c r="B399" s="8"/>
       <c r="C399" s="9"/>
@@ -11118,7 +11121,7 @@
       <c r="W399" s="5"/>
       <c r="X399" s="5"/>
     </row>
-    <row r="400" spans="1:24">
+    <row r="400" spans="1:24" ht="12.75">
       <c r="A400" s="7"/>
       <c r="B400" s="8"/>
       <c r="C400" s="9"/>
@@ -11144,7 +11147,7 @@
       <c r="W400" s="5"/>
       <c r="X400" s="5"/>
     </row>
-    <row r="401" spans="1:24">
+    <row r="401" spans="1:24" ht="12.75">
       <c r="A401" s="7"/>
       <c r="B401" s="8"/>
       <c r="C401" s="9"/>
@@ -11170,7 +11173,7 @@
       <c r="W401" s="5"/>
       <c r="X401" s="5"/>
     </row>
-    <row r="402" spans="1:24">
+    <row r="402" spans="1:24" ht="12.75">
       <c r="A402" s="7"/>
       <c r="B402" s="8"/>
       <c r="C402" s="9"/>
@@ -11196,7 +11199,7 @@
       <c r="W402" s="5"/>
       <c r="X402" s="5"/>
     </row>
-    <row r="403" spans="1:24">
+    <row r="403" spans="1:24" ht="12.75">
       <c r="A403" s="7"/>
       <c r="B403" s="8"/>
       <c r="C403" s="9"/>
@@ -11222,7 +11225,7 @@
       <c r="W403" s="5"/>
       <c r="X403" s="5"/>
     </row>
-    <row r="404" spans="1:24">
+    <row r="404" spans="1:24" ht="12.75">
       <c r="A404" s="7"/>
       <c r="B404" s="8"/>
       <c r="C404" s="9"/>
@@ -11248,7 +11251,7 @@
       <c r="W404" s="5"/>
       <c r="X404" s="5"/>
     </row>
-    <row r="405" spans="1:24">
+    <row r="405" spans="1:24" ht="12.75">
       <c r="A405" s="7"/>
       <c r="B405" s="8"/>
       <c r="C405" s="9"/>
@@ -11274,7 +11277,7 @@
       <c r="W405" s="5"/>
       <c r="X405" s="5"/>
     </row>
-    <row r="406" spans="1:24">
+    <row r="406" spans="1:24" ht="12.75">
       <c r="A406" s="7"/>
       <c r="B406" s="8"/>
       <c r="C406" s="9"/>
@@ -11300,7 +11303,7 @@
       <c r="W406" s="5"/>
       <c r="X406" s="5"/>
     </row>
-    <row r="407" spans="1:24">
+    <row r="407" spans="1:24" ht="12.75">
       <c r="A407" s="7"/>
       <c r="B407" s="8"/>
       <c r="C407" s="9"/>
@@ -11326,7 +11329,7 @@
       <c r="W407" s="5"/>
       <c r="X407" s="5"/>
     </row>
-    <row r="408" spans="1:24">
+    <row r="408" spans="1:24" ht="12.75">
       <c r="A408" s="7"/>
       <c r="B408" s="8"/>
       <c r="C408" s="9"/>
@@ -11352,7 +11355,7 @@
       <c r="W408" s="5"/>
       <c r="X408" s="5"/>
     </row>
-    <row r="409" spans="1:24">
+    <row r="409" spans="1:24" ht="12.75">
       <c r="A409" s="7"/>
       <c r="B409" s="8"/>
       <c r="C409" s="9"/>
@@ -11378,7 +11381,7 @@
       <c r="W409" s="5"/>
       <c r="X409" s="5"/>
     </row>
-    <row r="410" spans="1:24">
+    <row r="410" spans="1:24" ht="12.75">
       <c r="A410" s="7"/>
       <c r="B410" s="8"/>
       <c r="C410" s="9"/>
@@ -11404,7 +11407,7 @@
       <c r="W410" s="5"/>
       <c r="X410" s="5"/>
     </row>
-    <row r="411" spans="1:24">
+    <row r="411" spans="1:24" ht="12.75">
       <c r="A411" s="7"/>
       <c r="B411" s="8"/>
       <c r="C411" s="9"/>
@@ -11430,7 +11433,7 @@
       <c r="W411" s="5"/>
       <c r="X411" s="5"/>
     </row>
-    <row r="412" spans="1:24">
+    <row r="412" spans="1:24" ht="12.75">
       <c r="A412" s="7"/>
       <c r="B412" s="8"/>
       <c r="C412" s="9"/>
@@ -11456,7 +11459,7 @@
       <c r="W412" s="5"/>
       <c r="X412" s="5"/>
     </row>
-    <row r="413" spans="1:24">
+    <row r="413" spans="1:24" ht="12.75">
       <c r="A413" s="7"/>
       <c r="B413" s="8"/>
       <c r="C413" s="9"/>
@@ -11482,7 +11485,7 @@
       <c r="W413" s="5"/>
       <c r="X413" s="5"/>
     </row>
-    <row r="414" spans="1:24">
+    <row r="414" spans="1:24" ht="12.75">
       <c r="A414" s="7"/>
       <c r="B414" s="8"/>
       <c r="C414" s="9"/>
@@ -11508,7 +11511,7 @@
       <c r="W414" s="5"/>
       <c r="X414" s="5"/>
     </row>
-    <row r="415" spans="1:24">
+    <row r="415" spans="1:24" ht="12.75">
       <c r="A415" s="7"/>
       <c r="B415" s="8"/>
       <c r="C415" s="9"/>
@@ -11534,7 +11537,7 @@
       <c r="W415" s="5"/>
       <c r="X415" s="5"/>
     </row>
-    <row r="416" spans="1:24">
+    <row r="416" spans="1:24" ht="12.75">
       <c r="A416" s="7"/>
       <c r="B416" s="8"/>
       <c r="C416" s="9"/>
@@ -11560,7 +11563,7 @@
       <c r="W416" s="5"/>
       <c r="X416" s="5"/>
     </row>
-    <row r="417" spans="1:24">
+    <row r="417" spans="1:24" ht="12.75">
       <c r="A417" s="7"/>
       <c r="B417" s="8"/>
       <c r="C417" s="9"/>
@@ -11586,7 +11589,7 @@
       <c r="W417" s="5"/>
       <c r="X417" s="5"/>
     </row>
-    <row r="418" spans="1:24">
+    <row r="418" spans="1:24" ht="12.75">
       <c r="A418" s="7"/>
       <c r="B418" s="8"/>
       <c r="C418" s="9"/>
@@ -11612,7 +11615,7 @@
       <c r="W418" s="5"/>
       <c r="X418" s="5"/>
     </row>
-    <row r="419" spans="1:24">
+    <row r="419" spans="1:24" ht="12.75">
       <c r="A419" s="7"/>
       <c r="B419" s="8"/>
       <c r="C419" s="9"/>
@@ -11638,7 +11641,7 @@
       <c r="W419" s="5"/>
       <c r="X419" s="5"/>
     </row>
-    <row r="420" spans="1:24">
+    <row r="420" spans="1:24" ht="12.75">
       <c r="A420" s="7"/>
       <c r="B420" s="8"/>
       <c r="C420" s="9"/>
@@ -11664,7 +11667,7 @@
       <c r="W420" s="5"/>
       <c r="X420" s="5"/>
     </row>
-    <row r="421" spans="1:24">
+    <row r="421" spans="1:24" ht="12.75">
       <c r="A421" s="7"/>
       <c r="B421" s="8"/>
       <c r="C421" s="9"/>
@@ -11690,7 +11693,7 @@
       <c r="W421" s="5"/>
       <c r="X421" s="5"/>
     </row>
-    <row r="422" spans="1:24">
+    <row r="422" spans="1:24" ht="12.75">
       <c r="A422" s="7"/>
       <c r="B422" s="8"/>
       <c r="C422" s="9"/>
@@ -11716,7 +11719,7 @@
       <c r="W422" s="5"/>
       <c r="X422" s="5"/>
     </row>
-    <row r="423" spans="1:24">
+    <row r="423" spans="1:24" ht="12.75">
       <c r="A423" s="7"/>
       <c r="B423" s="8"/>
       <c r="C423" s="9"/>
@@ -11742,7 +11745,7 @@
       <c r="W423" s="5"/>
       <c r="X423" s="5"/>
     </row>
-    <row r="424" spans="1:24">
+    <row r="424" spans="1:24" ht="12.75">
       <c r="A424" s="7"/>
       <c r="B424" s="8"/>
       <c r="C424" s="9"/>
@@ -11768,7 +11771,7 @@
       <c r="W424" s="5"/>
       <c r="X424" s="5"/>
     </row>
-    <row r="425" spans="1:24">
+    <row r="425" spans="1:24" ht="12.75">
       <c r="A425" s="7"/>
       <c r="B425" s="8"/>
       <c r="C425" s="9"/>
@@ -11794,7 +11797,7 @@
       <c r="W425" s="5"/>
       <c r="X425" s="5"/>
     </row>
-    <row r="426" spans="1:24">
+    <row r="426" spans="1:24" ht="12.75">
       <c r="A426" s="7"/>
       <c r="B426" s="8"/>
       <c r="C426" s="9"/>
@@ -11820,7 +11823,7 @@
       <c r="W426" s="5"/>
       <c r="X426" s="5"/>
     </row>
-    <row r="427" spans="1:24">
+    <row r="427" spans="1:24" ht="12.75">
       <c r="A427" s="7"/>
       <c r="B427" s="8"/>
       <c r="C427" s="9"/>
@@ -11846,7 +11849,7 @@
       <c r="W427" s="5"/>
       <c r="X427" s="5"/>
     </row>
-    <row r="428" spans="1:24">
+    <row r="428" spans="1:24" ht="12.75">
       <c r="A428" s="7"/>
       <c r="B428" s="8"/>
       <c r="C428" s="9"/>
@@ -11872,7 +11875,7 @@
       <c r="W428" s="5"/>
       <c r="X428" s="5"/>
     </row>
-    <row r="429" spans="1:24">
+    <row r="429" spans="1:24" ht="12.75">
       <c r="A429" s="7"/>
       <c r="B429" s="8"/>
       <c r="C429" s="9"/>
@@ -11898,7 +11901,7 @@
       <c r="W429" s="5"/>
       <c r="X429" s="5"/>
     </row>
-    <row r="430" spans="1:24">
+    <row r="430" spans="1:24" ht="12.75">
       <c r="A430" s="7"/>
       <c r="B430" s="8"/>
       <c r="C430" s="9"/>
@@ -11924,7 +11927,7 @@
       <c r="W430" s="5"/>
       <c r="X430" s="5"/>
     </row>
-    <row r="431" spans="1:24">
+    <row r="431" spans="1:24" ht="12.75">
       <c r="A431" s="7"/>
       <c r="B431" s="8"/>
       <c r="C431" s="9"/>
@@ -11950,7 +11953,7 @@
       <c r="W431" s="5"/>
       <c r="X431" s="5"/>
     </row>
-    <row r="432" spans="1:24">
+    <row r="432" spans="1:24" ht="12.75">
       <c r="A432" s="7"/>
       <c r="B432" s="8"/>
       <c r="C432" s="9"/>
@@ -11976,7 +11979,7 @@
       <c r="W432" s="5"/>
       <c r="X432" s="5"/>
     </row>
-    <row r="433" spans="1:24">
+    <row r="433" spans="1:24" ht="12.75">
       <c r="A433" s="7"/>
       <c r="B433" s="8"/>
       <c r="C433" s="9"/>
@@ -12002,7 +12005,7 @@
       <c r="W433" s="5"/>
       <c r="X433" s="5"/>
     </row>
-    <row r="434" spans="1:24">
+    <row r="434" spans="1:24" ht="12.75">
       <c r="A434" s="7"/>
       <c r="B434" s="8"/>
       <c r="C434" s="9"/>
@@ -12028,7 +12031,7 @@
       <c r="W434" s="5"/>
       <c r="X434" s="5"/>
     </row>
-    <row r="435" spans="1:24">
+    <row r="435" spans="1:24" ht="12.75">
       <c r="A435" s="7"/>
       <c r="B435" s="8"/>
       <c r="C435" s="9"/>
@@ -12054,7 +12057,7 @@
       <c r="W435" s="5"/>
       <c r="X435" s="5"/>
     </row>
-    <row r="436" spans="1:24">
+    <row r="436" spans="1:24" ht="12.75">
       <c r="A436" s="7"/>
       <c r="B436" s="8"/>
       <c r="C436" s="9"/>
@@ -12080,7 +12083,7 @@
       <c r="W436" s="5"/>
       <c r="X436" s="5"/>
     </row>
-    <row r="437" spans="1:24">
+    <row r="437" spans="1:24" ht="12.75">
       <c r="A437" s="7"/>
       <c r="B437" s="8"/>
       <c r="C437" s="9"/>
@@ -12106,7 +12109,7 @@
       <c r="W437" s="5"/>
       <c r="X437" s="5"/>
     </row>
-    <row r="438" spans="1:24">
+    <row r="438" spans="1:24" ht="12.75">
       <c r="A438" s="7"/>
       <c r="B438" s="8"/>
       <c r="C438" s="9"/>
@@ -12132,7 +12135,7 @@
       <c r="W438" s="5"/>
       <c r="X438" s="5"/>
     </row>
-    <row r="439" spans="1:24">
+    <row r="439" spans="1:24" ht="12.75">
       <c r="A439" s="7"/>
       <c r="B439" s="8"/>
       <c r="C439" s="9"/>
@@ -12158,7 +12161,7 @@
       <c r="W439" s="5"/>
       <c r="X439" s="5"/>
     </row>
-    <row r="440" spans="1:24">
+    <row r="440" spans="1:24" ht="12.75">
       <c r="A440" s="7"/>
       <c r="B440" s="8"/>
       <c r="C440" s="9"/>
@@ -12184,7 +12187,7 @@
       <c r="W440" s="5"/>
       <c r="X440" s="5"/>
     </row>
-    <row r="441" spans="1:24">
+    <row r="441" spans="1:24" ht="12.75">
       <c r="A441" s="7"/>
       <c r="B441" s="8"/>
       <c r="C441" s="9"/>
@@ -12210,7 +12213,7 @@
       <c r="W441" s="5"/>
       <c r="X441" s="5"/>
     </row>
-    <row r="442" spans="1:24">
+    <row r="442" spans="1:24" ht="12.75">
       <c r="A442" s="7"/>
       <c r="B442" s="8"/>
       <c r="C442" s="9"/>
@@ -12236,7 +12239,7 @@
       <c r="W442" s="5"/>
       <c r="X442" s="5"/>
     </row>
-    <row r="443" spans="1:24">
+    <row r="443" spans="1:24" ht="12.75">
       <c r="A443" s="7"/>
       <c r="B443" s="8"/>
       <c r="C443" s="9"/>
@@ -12262,7 +12265,7 @@
       <c r="W443" s="5"/>
       <c r="X443" s="5"/>
     </row>
-    <row r="444" spans="1:24">
+    <row r="444" spans="1:24" ht="12.75">
       <c r="A444" s="7"/>
       <c r="B444" s="8"/>
       <c r="C444" s="9"/>
@@ -12288,7 +12291,7 @@
       <c r="W444" s="5"/>
       <c r="X444" s="5"/>
     </row>
-    <row r="445" spans="1:24">
+    <row r="445" spans="1:24" ht="12.75">
       <c r="A445" s="7"/>
       <c r="B445" s="8"/>
       <c r="C445" s="9"/>
@@ -12314,7 +12317,7 @@
       <c r="W445" s="5"/>
       <c r="X445" s="5"/>
     </row>
-    <row r="446" spans="1:24">
+    <row r="446" spans="1:24" ht="12.75">
       <c r="A446" s="7"/>
       <c r="B446" s="8"/>
       <c r="C446" s="9"/>
@@ -12340,7 +12343,7 @@
       <c r="W446" s="5"/>
       <c r="X446" s="5"/>
     </row>
-    <row r="447" spans="1:24">
+    <row r="447" spans="1:24" ht="12.75">
       <c r="A447" s="7"/>
       <c r="B447" s="8"/>
       <c r="C447" s="9"/>
@@ -12366,7 +12369,7 @@
       <c r="W447" s="5"/>
       <c r="X447" s="5"/>
     </row>
-    <row r="448" spans="1:24">
+    <row r="448" spans="1:24" ht="12.75">
       <c r="A448" s="7"/>
       <c r="B448" s="8"/>
       <c r="C448" s="9"/>
@@ -12392,7 +12395,7 @@
       <c r="W448" s="5"/>
       <c r="X448" s="5"/>
     </row>
-    <row r="449" spans="1:24">
+    <row r="449" spans="1:24" ht="12.75">
       <c r="A449" s="7"/>
       <c r="B449" s="8"/>
       <c r="C449" s="9"/>
@@ -12418,7 +12421,7 @@
       <c r="W449" s="5"/>
       <c r="X449" s="5"/>
     </row>
-    <row r="450" spans="1:24">
+    <row r="450" spans="1:24" ht="12.75">
       <c r="A450" s="7"/>
       <c r="B450" s="8"/>
       <c r="C450" s="9"/>
@@ -12444,7 +12447,7 @@
       <c r="W450" s="5"/>
       <c r="X450" s="5"/>
     </row>
-    <row r="451" spans="1:24">
+    <row r="451" spans="1:24" ht="12.75">
       <c r="A451" s="7"/>
       <c r="B451" s="8"/>
       <c r="C451" s="9"/>
@@ -12470,7 +12473,7 @@
       <c r="W451" s="5"/>
       <c r="X451" s="5"/>
     </row>
-    <row r="452" spans="1:24">
+    <row r="452" spans="1:24" ht="12.75">
       <c r="A452" s="7"/>
       <c r="B452" s="8"/>
       <c r="C452" s="9"/>
@@ -12496,7 +12499,7 @@
       <c r="W452" s="5"/>
       <c r="X452" s="5"/>
     </row>
-    <row r="453" spans="1:24">
+    <row r="453" spans="1:24" ht="12.75">
       <c r="A453" s="7"/>
       <c r="B453" s="8"/>
       <c r="C453" s="9"/>
@@ -12522,7 +12525,7 @@
       <c r="W453" s="5"/>
       <c r="X453" s="5"/>
     </row>
-    <row r="454" spans="1:24">
+    <row r="454" spans="1:24" ht="12.75">
       <c r="A454" s="7"/>
       <c r="B454" s="8"/>
       <c r="C454" s="9"/>
@@ -12548,7 +12551,7 @@
       <c r="W454" s="5"/>
       <c r="X454" s="5"/>
     </row>
-    <row r="455" spans="1:24">
+    <row r="455" spans="1:24" ht="12.75">
       <c r="A455" s="7"/>
       <c r="B455" s="8"/>
       <c r="C455" s="9"/>
@@ -12574,7 +12577,7 @@
       <c r="W455" s="5"/>
       <c r="X455" s="5"/>
     </row>
-    <row r="456" spans="1:24">
+    <row r="456" spans="1:24" ht="12.75">
       <c r="A456" s="7"/>
       <c r="B456" s="8"/>
       <c r="C456" s="9"/>
@@ -12600,7 +12603,7 @@
       <c r="W456" s="5"/>
       <c r="X456" s="5"/>
     </row>
-    <row r="457" spans="1:24">
+    <row r="457" spans="1:24" ht="12.75">
       <c r="A457" s="7"/>
       <c r="B457" s="8"/>
       <c r="C457" s="9"/>
@@ -12626,7 +12629,7 @@
       <c r="W457" s="5"/>
       <c r="X457" s="5"/>
     </row>
-    <row r="458" spans="1:24">
+    <row r="458" spans="1:24" ht="12.75">
       <c r="A458" s="7"/>
       <c r="B458" s="8"/>
       <c r="C458" s="9"/>
@@ -12652,7 +12655,7 @@
       <c r="W458" s="5"/>
       <c r="X458" s="5"/>
     </row>
-    <row r="459" spans="1:24">
+    <row r="459" spans="1:24" ht="12.75">
       <c r="A459" s="7"/>
       <c r="B459" s="8"/>
       <c r="C459" s="9"/>
@@ -12678,7 +12681,7 @@
       <c r="W459" s="5"/>
       <c r="X459" s="5"/>
     </row>
-    <row r="460" spans="1:24">
+    <row r="460" spans="1:24" ht="12.75">
       <c r="A460" s="7"/>
       <c r="B460" s="8"/>
       <c r="C460" s="9"/>
@@ -12704,7 +12707,7 @@
       <c r="W460" s="5"/>
       <c r="X460" s="5"/>
     </row>
-    <row r="461" spans="1:24">
+    <row r="461" spans="1:24" ht="12.75">
       <c r="A461" s="7"/>
       <c r="B461" s="8"/>
       <c r="C461" s="9"/>
@@ -12730,7 +12733,7 @@
       <c r="W461" s="5"/>
       <c r="X461" s="5"/>
     </row>
-    <row r="462" spans="1:24">
+    <row r="462" spans="1:24" ht="12.75">
       <c r="A462" s="7"/>
       <c r="B462" s="8"/>
       <c r="C462" s="9"/>
@@ -12756,7 +12759,7 @@
       <c r="W462" s="5"/>
       <c r="X462" s="5"/>
     </row>
-    <row r="463" spans="1:24">
+    <row r="463" spans="1:24" ht="12.75">
       <c r="A463" s="7"/>
       <c r="B463" s="8"/>
       <c r="C463" s="9"/>
@@ -12782,7 +12785,7 @@
       <c r="W463" s="5"/>
       <c r="X463" s="5"/>
     </row>
-    <row r="464" spans="1:24">
+    <row r="464" spans="1:24" ht="12.75">
       <c r="A464" s="7"/>
       <c r="B464" s="8"/>
       <c r="C464" s="9"/>
@@ -12808,7 +12811,7 @@
       <c r="W464" s="5"/>
       <c r="X464" s="5"/>
     </row>
-    <row r="465" spans="1:24">
+    <row r="465" spans="1:24" ht="12.75">
       <c r="A465" s="7"/>
       <c r="B465" s="8"/>
       <c r="C465" s="9"/>
@@ -12834,7 +12837,7 @@
       <c r="W465" s="5"/>
       <c r="X465" s="5"/>
     </row>
-    <row r="466" spans="1:24">
+    <row r="466" spans="1:24" ht="12.75">
       <c r="A466" s="7"/>
       <c r="B466" s="8"/>
       <c r="C466" s="9"/>
@@ -12860,7 +12863,7 @@
       <c r="W466" s="5"/>
       <c r="X466" s="5"/>
     </row>
-    <row r="467" spans="1:24">
+    <row r="467" spans="1:24" ht="12.75">
       <c r="A467" s="7"/>
       <c r="B467" s="8"/>
       <c r="C467" s="9"/>
@@ -12886,7 +12889,7 @@
       <c r="W467" s="5"/>
       <c r="X467" s="5"/>
     </row>
-    <row r="468" spans="1:24">
+    <row r="468" spans="1:24" ht="12.75">
       <c r="A468" s="7"/>
       <c r="B468" s="8"/>
       <c r="C468" s="9"/>
@@ -12912,7 +12915,7 @@
       <c r="W468" s="5"/>
       <c r="X468" s="5"/>
     </row>
-    <row r="469" spans="1:24">
+    <row r="469" spans="1:24" ht="12.75">
       <c r="A469" s="7"/>
       <c r="B469" s="8"/>
       <c r="C469" s="9"/>
@@ -12938,7 +12941,7 @@
       <c r="W469" s="5"/>
       <c r="X469" s="5"/>
     </row>
-    <row r="470" spans="1:24">
+    <row r="470" spans="1:24" ht="12.75">
       <c r="A470" s="7"/>
       <c r="B470" s="8"/>
       <c r="C470" s="9"/>
@@ -12964,7 +12967,7 @@
       <c r="W470" s="5"/>
       <c r="X470" s="5"/>
     </row>
-    <row r="471" spans="1:24">
+    <row r="471" spans="1:24" ht="12.75">
       <c r="A471" s="7"/>
       <c r="B471" s="8"/>
       <c r="C471" s="9"/>
@@ -12990,7 +12993,7 @@
       <c r="W471" s="5"/>
       <c r="X471" s="5"/>
     </row>
-    <row r="472" spans="1:24">
+    <row r="472" spans="1:24" ht="12.75">
       <c r="A472" s="7"/>
       <c r="B472" s="8"/>
       <c r="C472" s="9"/>
@@ -13016,7 +13019,7 @@
       <c r="W472" s="5"/>
       <c r="X472" s="5"/>
     </row>
-    <row r="473" spans="1:24">
+    <row r="473" spans="1:24" ht="12.75">
       <c r="A473" s="7"/>
       <c r="B473" s="8"/>
       <c r="C473" s="9"/>
@@ -13042,7 +13045,7 @@
       <c r="W473" s="5"/>
       <c r="X473" s="5"/>
     </row>
-    <row r="474" spans="1:24">
+    <row r="474" spans="1:24" ht="12.75">
       <c r="A474" s="7"/>
       <c r="B474" s="8"/>
       <c r="C474" s="9"/>
@@ -13068,7 +13071,7 @@
       <c r="W474" s="5"/>
       <c r="X474" s="5"/>
     </row>
-    <row r="475" spans="1:24">
+    <row r="475" spans="1:24" ht="12.75">
       <c r="A475" s="7"/>
       <c r="B475" s="8"/>
       <c r="C475" s="9"/>
@@ -13094,7 +13097,7 @@
       <c r="W475" s="5"/>
       <c r="X475" s="5"/>
     </row>
-    <row r="476" spans="1:24">
+    <row r="476" spans="1:24" ht="12.75">
       <c r="A476" s="7"/>
       <c r="B476" s="8"/>
       <c r="C476" s="9"/>
@@ -13120,7 +13123,7 @@
       <c r="W476" s="5"/>
       <c r="X476" s="5"/>
     </row>
-    <row r="477" spans="1:24">
+    <row r="477" spans="1:24" ht="12.75">
       <c r="A477" s="7"/>
       <c r="B477" s="8"/>
       <c r="C477" s="9"/>
@@ -13146,7 +13149,7 @@
       <c r="W477" s="5"/>
       <c r="X477" s="5"/>
     </row>
-    <row r="478" spans="1:24">
+    <row r="478" spans="1:24" ht="12.75">
       <c r="A478" s="7"/>
       <c r="B478" s="8"/>
       <c r="C478" s="9"/>
@@ -13172,7 +13175,7 @@
       <c r="W478" s="5"/>
       <c r="X478" s="5"/>
     </row>
-    <row r="479" spans="1:24">
+    <row r="479" spans="1:24" ht="12.75">
       <c r="A479" s="7"/>
       <c r="B479" s="8"/>
       <c r="C479" s="9"/>
@@ -13198,7 +13201,7 @@
       <c r="W479" s="5"/>
       <c r="X479" s="5"/>
     </row>
-    <row r="480" spans="1:24">
+    <row r="480" spans="1:24" ht="12.75">
       <c r="A480" s="7"/>
       <c r="B480" s="8"/>
       <c r="C480" s="9"/>
@@ -13224,7 +13227,7 @@
       <c r="W480" s="5"/>
       <c r="X480" s="5"/>
     </row>
-    <row r="481" spans="1:24">
+    <row r="481" spans="1:24" ht="12.75">
       <c r="A481" s="7"/>
       <c r="B481" s="8"/>
       <c r="C481" s="9"/>
@@ -13250,7 +13253,7 @@
       <c r="W481" s="5"/>
       <c r="X481" s="5"/>
     </row>
-    <row r="482" spans="1:24">
+    <row r="482" spans="1:24" ht="12.75">
       <c r="A482" s="7"/>
       <c r="B482" s="8"/>
       <c r="C482" s="9"/>
@@ -13276,7 +13279,7 @@
       <c r="W482" s="5"/>
       <c r="X482" s="5"/>
     </row>
-    <row r="483" spans="1:24">
+    <row r="483" spans="1:24" ht="12.75">
       <c r="A483" s="7"/>
       <c r="B483" s="8"/>
       <c r="C483" s="9"/>
@@ -13302,7 +13305,7 @@
       <c r="W483" s="5"/>
       <c r="X483" s="5"/>
     </row>
-    <row r="484" spans="1:24">
+    <row r="484" spans="1:24" ht="12.75">
       <c r="A484" s="7"/>
       <c r="B484" s="8"/>
       <c r="C484" s="9"/>
@@ -13328,7 +13331,7 @@
       <c r="W484" s="5"/>
       <c r="X484" s="5"/>
     </row>
-    <row r="485" spans="1:24">
+    <row r="485" spans="1:24" ht="12.75">
       <c r="A485" s="7"/>
       <c r="B485" s="8"/>
       <c r="C485" s="9"/>
@@ -13354,7 +13357,7 @@
       <c r="W485" s="5"/>
       <c r="X485" s="5"/>
     </row>
-    <row r="486" spans="1:24">
+    <row r="486" spans="1:24" ht="12.75">
       <c r="A486" s="7"/>
       <c r="B486" s="8"/>
       <c r="C486" s="9"/>
@@ -13380,7 +13383,7 @@
       <c r="W486" s="5"/>
       <c r="X486" s="5"/>
     </row>
-    <row r="487" spans="1:24">
+    <row r="487" spans="1:24" ht="12.75">
       <c r="A487" s="7"/>
       <c r="B487" s="8"/>
       <c r="C487" s="9"/>
@@ -13406,7 +13409,7 @@
       <c r="W487" s="5"/>
       <c r="X487" s="5"/>
     </row>
-    <row r="488" spans="1:24">
+    <row r="488" spans="1:24" ht="12.75">
       <c r="A488" s="7"/>
       <c r="B488" s="8"/>
       <c r="C488" s="9"/>
@@ -13432,7 +13435,7 @@
       <c r="W488" s="5"/>
       <c r="X488" s="5"/>
     </row>
-    <row r="489" spans="1:24">
+    <row r="489" spans="1:24" ht="12.75">
       <c r="A489" s="7"/>
       <c r="B489" s="8"/>
       <c r="C489" s="9"/>
@@ -13458,7 +13461,7 @@
       <c r="W489" s="5"/>
       <c r="X489" s="5"/>
     </row>
-    <row r="490" spans="1:24">
+    <row r="490" spans="1:24" ht="12.75">
       <c r="A490" s="7"/>
       <c r="B490" s="8"/>
       <c r="C490" s="9"/>
@@ -13484,7 +13487,7 @@
       <c r="W490" s="5"/>
       <c r="X490" s="5"/>
     </row>
-    <row r="491" spans="1:24">
+    <row r="491" spans="1:24" ht="12.75">
       <c r="A491" s="7"/>
       <c r="B491" s="8"/>
       <c r="C491" s="9"/>
@@ -13510,7 +13513,7 @@
       <c r="W491" s="5"/>
       <c r="X491" s="5"/>
     </row>
-    <row r="492" spans="1:24">
+    <row r="492" spans="1:24" ht="12.75">
       <c r="A492" s="7"/>
       <c r="B492" s="8"/>
       <c r="C492" s="9"/>
@@ -13536,7 +13539,7 @@
       <c r="W492" s="5"/>
       <c r="X492" s="5"/>
     </row>
-    <row r="493" spans="1:24">
+    <row r="493" spans="1:24" ht="12.75">
       <c r="A493" s="7"/>
       <c r="B493" s="8"/>
       <c r="C493" s="9"/>
@@ -13562,7 +13565,7 @@
       <c r="W493" s="5"/>
       <c r="X493" s="5"/>
     </row>
-    <row r="494" spans="1:24">
+    <row r="494" spans="1:24" ht="12.75">
       <c r="A494" s="7"/>
       <c r="B494" s="8"/>
       <c r="C494" s="9"/>
@@ -13588,7 +13591,7 @@
       <c r="W494" s="5"/>
       <c r="X494" s="5"/>
     </row>
-    <row r="495" spans="1:24">
+    <row r="495" spans="1:24" ht="12.75">
       <c r="A495" s="7"/>
       <c r="B495" s="8"/>
       <c r="C495" s="9"/>
@@ -13614,7 +13617,7 @@
       <c r="W495" s="5"/>
       <c r="X495" s="5"/>
     </row>
-    <row r="496" spans="1:24">
+    <row r="496" spans="1:24" ht="12.75">
       <c r="A496" s="7"/>
       <c r="B496" s="8"/>
       <c r="C496" s="9"/>
@@ -13640,7 +13643,7 @@
       <c r="W496" s="5"/>
       <c r="X496" s="5"/>
     </row>
-    <row r="497" spans="1:24">
+    <row r="497" spans="1:24" ht="12.75">
       <c r="A497" s="7"/>
       <c r="B497" s="8"/>
       <c r="C497" s="9"/>
@@ -13666,7 +13669,7 @@
       <c r="W497" s="5"/>
       <c r="X497" s="5"/>
     </row>
-    <row r="498" spans="1:24">
+    <row r="498" spans="1:24" ht="12.75">
       <c r="A498" s="7"/>
       <c r="B498" s="8"/>
       <c r="C498" s="9"/>
@@ -13692,7 +13695,7 @@
       <c r="W498" s="5"/>
       <c r="X498" s="5"/>
     </row>
-    <row r="499" spans="1:24">
+    <row r="499" spans="1:24" ht="12.75">
       <c r="A499" s="7"/>
       <c r="B499" s="8"/>
       <c r="C499" s="9"/>
@@ -13718,7 +13721,7 @@
       <c r="W499" s="5"/>
       <c r="X499" s="5"/>
     </row>
-    <row r="500" spans="1:24">
+    <row r="500" spans="1:24" ht="12.75">
       <c r="A500" s="7"/>
       <c r="B500" s="8"/>
       <c r="C500" s="9"/>
@@ -13744,7 +13747,7 @@
       <c r="W500" s="5"/>
       <c r="X500" s="5"/>
     </row>
-    <row r="501" spans="1:24">
+    <row r="501" spans="1:24" ht="12.75">
       <c r="A501" s="7"/>
       <c r="B501" s="8"/>
       <c r="C501" s="9"/>
@@ -13770,7 +13773,7 @@
       <c r="W501" s="5"/>
       <c r="X501" s="5"/>
     </row>
-    <row r="502" spans="1:24">
+    <row r="502" spans="1:24" ht="12.75">
       <c r="A502" s="7"/>
       <c r="B502" s="8"/>
       <c r="C502" s="9"/>
@@ -13796,7 +13799,7 @@
       <c r="W502" s="5"/>
       <c r="X502" s="5"/>
     </row>
-    <row r="503" spans="1:24">
+    <row r="503" spans="1:24" ht="12.75">
       <c r="A503" s="7"/>
       <c r="B503" s="8"/>
       <c r="C503" s="9"/>
@@ -13822,7 +13825,7 @@
       <c r="W503" s="5"/>
       <c r="X503" s="5"/>
     </row>
-    <row r="504" spans="1:24">
+    <row r="504" spans="1:24" ht="12.75">
       <c r="A504" s="7"/>
       <c r="B504" s="8"/>
       <c r="C504" s="9"/>
@@ -13848,7 +13851,7 @@
       <c r="W504" s="5"/>
       <c r="X504" s="5"/>
     </row>
-    <row r="505" spans="1:24">
+    <row r="505" spans="1:24" ht="12.75">
       <c r="A505" s="7"/>
       <c r="B505" s="8"/>
       <c r="C505" s="9"/>
@@ -13874,7 +13877,7 @@
       <c r="W505" s="5"/>
       <c r="X505" s="5"/>
     </row>
-    <row r="506" spans="1:24">
+    <row r="506" spans="1:24" ht="12.75">
       <c r="A506" s="7"/>
       <c r="B506" s="8"/>
       <c r="C506" s="9"/>
@@ -13900,7 +13903,7 @@
       <c r="W506" s="5"/>
       <c r="X506" s="5"/>
     </row>
-    <row r="507" spans="1:24">
+    <row r="507" spans="1:24" ht="12.75">
       <c r="A507" s="7"/>
       <c r="B507" s="8"/>
       <c r="C507" s="9"/>
@@ -13926,7 +13929,7 @@
       <c r="W507" s="5"/>
       <c r="X507" s="5"/>
     </row>
-    <row r="508" spans="1:24">
+    <row r="508" spans="1:24" ht="12.75">
       <c r="A508" s="7"/>
       <c r="B508" s="8"/>
       <c r="C508" s="9"/>
@@ -13952,7 +13955,7 @@
       <c r="W508" s="5"/>
       <c r="X508" s="5"/>
     </row>
-    <row r="509" spans="1:24">
+    <row r="509" spans="1:24" ht="12.75">
       <c r="A509" s="7"/>
       <c r="B509" s="8"/>
       <c r="C509" s="9"/>
@@ -13978,7 +13981,7 @@
       <c r="W509" s="5"/>
       <c r="X509" s="5"/>
     </row>
-    <row r="510" spans="1:24">
+    <row r="510" spans="1:24" ht="12.75">
       <c r="A510" s="7"/>
       <c r="B510" s="8"/>
       <c r="C510" s="9"/>
@@ -14004,7 +14007,7 @@
       <c r="W510" s="5"/>
       <c r="X510" s="5"/>
     </row>
-    <row r="511" spans="1:24">
+    <row r="511" spans="1:24" ht="12.75">
       <c r="A511" s="7"/>
       <c r="B511" s="8"/>
       <c r="C511" s="9"/>
@@ -14030,7 +14033,7 @@
       <c r="W511" s="5"/>
       <c r="X511" s="5"/>
     </row>
-    <row r="512" spans="1:24">
+    <row r="512" spans="1:24" ht="12.75">
       <c r="A512" s="7"/>
       <c r="B512" s="8"/>
       <c r="C512" s="9"/>
@@ -14056,7 +14059,7 @@
       <c r="W512" s="5"/>
       <c r="X512" s="5"/>
     </row>
-    <row r="513" spans="1:24">
+    <row r="513" spans="1:24" ht="12.75">
       <c r="A513" s="7"/>
       <c r="B513" s="8"/>
       <c r="C513" s="9"/>
@@ -14082,7 +14085,7 @@
       <c r="W513" s="5"/>
       <c r="X513" s="5"/>
     </row>
-    <row r="514" spans="1:24">
+    <row r="514" spans="1:24" ht="12.75">
       <c r="A514" s="7"/>
       <c r="B514" s="8"/>
       <c r="C514" s="9"/>
@@ -14108,7 +14111,7 @@
       <c r="W514" s="5"/>
       <c r="X514" s="5"/>
     </row>
-    <row r="515" spans="1:24">
+    <row r="515" spans="1:24" ht="12.75">
       <c r="A515" s="7"/>
       <c r="B515" s="8"/>
       <c r="C515" s="9"/>
@@ -14134,7 +14137,7 @@
       <c r="W515" s="5"/>
       <c r="X515" s="5"/>
     </row>
-    <row r="516" spans="1:24">
+    <row r="516" spans="1:24" ht="12.75">
       <c r="A516" s="7"/>
       <c r="B516" s="8"/>
       <c r="C516" s="9"/>
@@ -14160,7 +14163,7 @@
       <c r="W516" s="5"/>
       <c r="X516" s="5"/>
     </row>
-    <row r="517" spans="1:24">
+    <row r="517" spans="1:24" ht="12.75">
       <c r="A517" s="7"/>
       <c r="B517" s="8"/>
       <c r="C517" s="9"/>
@@ -14186,7 +14189,7 @@
       <c r="W517" s="5"/>
       <c r="X517" s="5"/>
     </row>
-    <row r="518" spans="1:24">
+    <row r="518" spans="1:24" ht="12.75">
       <c r="A518" s="7"/>
       <c r="B518" s="8"/>
       <c r="C518" s="9"/>
@@ -14212,7 +14215,7 @@
       <c r="W518" s="5"/>
       <c r="X518" s="5"/>
     </row>
-    <row r="519" spans="1:24">
+    <row r="519" spans="1:24" ht="12.75">
       <c r="A519" s="7"/>
       <c r="B519" s="8"/>
       <c r="C519" s="9"/>
@@ -14238,7 +14241,7 @@
       <c r="W519" s="5"/>
       <c r="X519" s="5"/>
     </row>
-    <row r="520" spans="1:24">
+    <row r="520" spans="1:24" ht="12.75">
       <c r="A520" s="7"/>
       <c r="B520" s="8"/>
       <c r="C520" s="9"/>
@@ -14264,7 +14267,7 @@
       <c r="W520" s="5"/>
       <c r="X520" s="5"/>
     </row>
-    <row r="521" spans="1:24">
+    <row r="521" spans="1:24" ht="12.75">
       <c r="A521" s="7"/>
       <c r="B521" s="8"/>
       <c r="C521" s="9"/>
@@ -14290,7 +14293,7 @@
       <c r="W521" s="5"/>
       <c r="X521" s="5"/>
     </row>
-    <row r="522" spans="1:24">
+    <row r="522" spans="1:24" ht="12.75">
       <c r="A522" s="7"/>
       <c r="B522" s="8"/>
       <c r="C522" s="9"/>
@@ -14316,7 +14319,7 @@
       <c r="W522" s="5"/>
       <c r="X522" s="5"/>
     </row>
-    <row r="523" spans="1:24">
+    <row r="523" spans="1:24" ht="12.75">
       <c r="A523" s="7"/>
       <c r="B523" s="8"/>
       <c r="C523" s="9"/>
@@ -14342,7 +14345,7 @@
       <c r="W523" s="5"/>
       <c r="X523" s="5"/>
     </row>
-    <row r="524" spans="1:24">
+    <row r="524" spans="1:24" ht="12.75">
       <c r="A524" s="7"/>
       <c r="B524" s="8"/>
       <c r="C524" s="9"/>
@@ -14368,7 +14371,7 @@
       <c r="W524" s="5"/>
       <c r="X524" s="5"/>
     </row>
-    <row r="525" spans="1:24">
+    <row r="525" spans="1:24" ht="12.75">
       <c r="A525" s="7"/>
       <c r="B525" s="8"/>
       <c r="C525" s="9"/>
@@ -14394,7 +14397,7 @@
       <c r="W525" s="5"/>
       <c r="X525" s="5"/>
     </row>
-    <row r="526" spans="1:24">
+    <row r="526" spans="1:24" ht="12.75">
       <c r="A526" s="7"/>
       <c r="B526" s="8"/>
       <c r="C526" s="9"/>
@@ -14420,7 +14423,7 @@
       <c r="W526" s="5"/>
       <c r="X526" s="5"/>
     </row>
-    <row r="527" spans="1:24">
+    <row r="527" spans="1:24" ht="12.75">
       <c r="A527" s="7"/>
       <c r="B527" s="8"/>
       <c r="C527" s="9"/>
@@ -14446,7 +14449,7 @@
       <c r="W527" s="5"/>
       <c r="X527" s="5"/>
     </row>
-    <row r="528" spans="1:24">
+    <row r="528" spans="1:24" ht="12.75">
       <c r="A528" s="7"/>
       <c r="B528" s="8"/>
       <c r="C528" s="9"/>
@@ -14472,7 +14475,7 @@
       <c r="W528" s="5"/>
       <c r="X528" s="5"/>
     </row>
-    <row r="529" spans="1:24">
+    <row r="529" spans="1:24" ht="12.75">
       <c r="A529" s="7"/>
       <c r="B529" s="8"/>
       <c r="C529" s="9"/>
@@ -14498,7 +14501,7 @@
       <c r="W529" s="5"/>
       <c r="X529" s="5"/>
     </row>
-    <row r="530" spans="1:24">
+    <row r="530" spans="1:24" ht="12.75">
       <c r="A530" s="7"/>
       <c r="B530" s="8"/>
       <c r="C530" s="9"/>
@@ -14524,7 +14527,7 @@
       <c r="W530" s="5"/>
       <c r="X530" s="5"/>
     </row>
-    <row r="531" spans="1:24">
+    <row r="531" spans="1:24" ht="12.75">
       <c r="A531" s="7"/>
       <c r="B531" s="8"/>
       <c r="C531" s="9"/>
@@ -14550,7 +14553,7 @@
       <c r="W531" s="5"/>
       <c r="X531" s="5"/>
     </row>
-    <row r="532" spans="1:24">
+    <row r="532" spans="1:24" ht="12.75">
       <c r="A532" s="7"/>
       <c r="B532" s="8"/>
       <c r="C532" s="9"/>
@@ -14576,7 +14579,7 @@
       <c r="W532" s="5"/>
       <c r="X532" s="5"/>
     </row>
-    <row r="533" spans="1:24">
+    <row r="533" spans="1:24" ht="12.75">
       <c r="A533" s="7"/>
       <c r="B533" s="8"/>
       <c r="C533" s="9"/>
@@ -14602,7 +14605,7 @@
       <c r="W533" s="5"/>
       <c r="X533" s="5"/>
     </row>
-    <row r="534" spans="1:24">
+    <row r="534" spans="1:24" ht="12.75">
       <c r="A534" s="7"/>
       <c r="B534" s="8"/>
       <c r="C534" s="9"/>
@@ -14628,7 +14631,7 @@
       <c r="W534" s="5"/>
       <c r="X534" s="5"/>
     </row>
-    <row r="535" spans="1:24">
+    <row r="535" spans="1:24" ht="12.75">
       <c r="A535" s="7"/>
       <c r="B535" s="8"/>
       <c r="C535" s="9"/>
@@ -14654,7 +14657,7 @@
       <c r="W535" s="5"/>
       <c r="X535" s="5"/>
     </row>
-    <row r="536" spans="1:24">
+    <row r="536" spans="1:24" ht="12.75">
       <c r="A536" s="7"/>
       <c r="B536" s="8"/>
       <c r="C536" s="9"/>
@@ -14680,7 +14683,7 @@
       <c r="W536" s="5"/>
       <c r="X536" s="5"/>
     </row>
-    <row r="537" spans="1:24">
+    <row r="537" spans="1:24" ht="12.75">
       <c r="A537" s="7"/>
       <c r="B537" s="8"/>
       <c r="C537" s="9"/>
@@ -14706,7 +14709,7 @@
       <c r="W537" s="5"/>
       <c r="X537" s="5"/>
     </row>
-    <row r="538" spans="1:24">
+    <row r="538" spans="1:24" ht="12.75">
       <c r="A538" s="7"/>
       <c r="B538" s="8"/>
       <c r="C538" s="9"/>
@@ -14732,7 +14735,7 @@
       <c r="W538" s="5"/>
       <c r="X538" s="5"/>
     </row>
-    <row r="539" spans="1:24">
+    <row r="539" spans="1:24" ht="12.75">
       <c r="A539" s="7"/>
       <c r="B539" s="8"/>
       <c r="C539" s="9"/>
@@ -14758,7 +14761,7 @@
       <c r="W539" s="5"/>
       <c r="X539" s="5"/>
     </row>
-    <row r="540" spans="1:24">
+    <row r="540" spans="1:24" ht="12.75">
       <c r="A540" s="7"/>
       <c r="B540" s="8"/>
       <c r="C540" s="9"/>
@@ -14784,7 +14787,7 @@
       <c r="W540" s="5"/>
       <c r="X540" s="5"/>
     </row>
-    <row r="541" spans="1:24">
+    <row r="541" spans="1:24" ht="12.75">
       <c r="A541" s="7"/>
       <c r="B541" s="8"/>
       <c r="C541" s="9"/>
@@ -14810,7 +14813,7 @@
       <c r="W541" s="5"/>
       <c r="X541" s="5"/>
     </row>
-    <row r="542" spans="1:24">
+    <row r="542" spans="1:24" ht="12.75">
       <c r="A542" s="7"/>
       <c r="B542" s="8"/>
       <c r="C542" s="9"/>
@@ -14836,7 +14839,7 @@
       <c r="W542" s="5"/>
       <c r="X542" s="5"/>
     </row>
-    <row r="543" spans="1:24">
+    <row r="543" spans="1:24" ht="12.75">
       <c r="A543" s="7"/>
       <c r="B543" s="8"/>
       <c r="C543" s="9"/>
@@ -14862,7 +14865,7 @@
       <c r="W543" s="5"/>
       <c r="X543" s="5"/>
     </row>
-    <row r="544" spans="1:24">
+    <row r="544" spans="1:24" ht="12.75">
       <c r="A544" s="7"/>
       <c r="B544" s="8"/>
       <c r="C544" s="9"/>
@@ -14888,7 +14891,7 @@
       <c r="W544" s="5"/>
       <c r="X544" s="5"/>
     </row>
-    <row r="545" spans="1:24">
+    <row r="545" spans="1:24" ht="12.75">
       <c r="A545" s="7"/>
       <c r="B545" s="8"/>
       <c r="C545" s="9"/>
@@ -14914,7 +14917,7 @@
       <c r="W545" s="5"/>
       <c r="X545" s="5"/>
     </row>
-    <row r="546" spans="1:24">
+    <row r="546" spans="1:24" ht="12.75">
       <c r="A546" s="7"/>
       <c r="B546" s="8"/>
       <c r="C546" s="9"/>
@@ -14940,7 +14943,7 @@
       <c r="W546" s="5"/>
       <c r="X546" s="5"/>
     </row>
-    <row r="547" spans="1:24">
+    <row r="547" spans="1:24" ht="12.75">
       <c r="A547" s="7"/>
       <c r="B547" s="8"/>
       <c r="C547" s="9"/>
@@ -14966,7 +14969,7 @@
       <c r="W547" s="5"/>
       <c r="X547" s="5"/>
     </row>
-    <row r="548" spans="1:24">
+    <row r="548" spans="1:24" ht="12.75">
       <c r="A548" s="7"/>
       <c r="B548" s="8"/>
       <c r="C548" s="9"/>
@@ -14992,7 +14995,7 @@
       <c r="W548" s="5"/>
       <c r="X548" s="5"/>
     </row>
-    <row r="549" spans="1:24">
+    <row r="549" spans="1:24" ht="12.75">
       <c r="A549" s="7"/>
       <c r="B549" s="8"/>
       <c r="C549" s="9"/>
@@ -15018,7 +15021,7 @@
       <c r="W549" s="5"/>
       <c r="X549" s="5"/>
     </row>
-    <row r="550" spans="1:24">
+    <row r="550" spans="1:24" ht="12.75">
       <c r="A550" s="7"/>
       <c r="B550" s="8"/>
       <c r="C550" s="9"/>
@@ -15044,7 +15047,7 @@
       <c r="W550" s="5"/>
       <c r="X550" s="5"/>
     </row>
-    <row r="551" spans="1:24">
+    <row r="551" spans="1:24" ht="12.75">
       <c r="A551" s="7"/>
       <c r="B551" s="8"/>
       <c r="C551" s="9"/>
@@ -15070,7 +15073,7 @@
       <c r="W551" s="5"/>
       <c r="X551" s="5"/>
     </row>
-    <row r="552" spans="1:24">
+    <row r="552" spans="1:24" ht="12.75">
       <c r="A552" s="7"/>
       <c r="B552" s="8"/>
       <c r="C552" s="9"/>
@@ -15096,7 +15099,7 @@
       <c r="W552" s="5"/>
       <c r="X552" s="5"/>
     </row>
-    <row r="553" spans="1:24">
+    <row r="553" spans="1:24" ht="12.75">
       <c r="A553" s="7"/>
       <c r="B553" s="8"/>
       <c r="C553" s="9"/>
@@ -15122,7 +15125,7 @@
       <c r="W553" s="5"/>
       <c r="X553" s="5"/>
     </row>
-    <row r="554" spans="1:24">
+    <row r="554" spans="1:24" ht="12.75">
       <c r="A554" s="7"/>
       <c r="B554" s="8"/>
       <c r="C554" s="9"/>
@@ -15148,7 +15151,7 @@
       <c r="W554" s="5"/>
       <c r="X554" s="5"/>
     </row>
-    <row r="555" spans="1:24">
+    <row r="555" spans="1:24" ht="12.75">
       <c r="A555" s="7"/>
       <c r="B555" s="8"/>
       <c r="C555" s="9"/>
@@ -15174,7 +15177,7 @@
       <c r="W555" s="5"/>
       <c r="X555" s="5"/>
     </row>
-    <row r="556" spans="1:24">
+    <row r="556" spans="1:24" ht="12.75">
       <c r="A556" s="7"/>
       <c r="B556" s="8"/>
       <c r="C556" s="9"/>
@@ -15200,7 +15203,7 @@
       <c r="W556" s="5"/>
       <c r="X556" s="5"/>
     </row>
-    <row r="557" spans="1:24">
+    <row r="557" spans="1:24" ht="12.75">
       <c r="A557" s="7"/>
       <c r="B557" s="8"/>
       <c r="C557" s="9"/>
@@ -15226,7 +15229,7 @@
       <c r="W557" s="5"/>
       <c r="X557" s="5"/>
     </row>
-    <row r="558" spans="1:24">
+    <row r="558" spans="1:24" ht="12.75">
       <c r="A558" s="7"/>
       <c r="B558" s="8"/>
       <c r="C558" s="9"/>
@@ -15252,7 +15255,7 @@
       <c r="W558" s="5"/>
       <c r="X558" s="5"/>
     </row>
-    <row r="559" spans="1:24">
+    <row r="559" spans="1:24" ht="12.75">
       <c r="A559" s="7"/>
       <c r="B559" s="8"/>
       <c r="C559" s="9"/>
@@ -15278,7 +15281,7 @@
       <c r="W559" s="5"/>
       <c r="X559" s="5"/>
     </row>
-    <row r="560" spans="1:24">
+    <row r="560" spans="1:24" ht="12.75">
       <c r="A560" s="7"/>
       <c r="B560" s="8"/>
       <c r="C560" s="9"/>
@@ -15304,7 +15307,7 @@
       <c r="W560" s="5"/>
       <c r="X560" s="5"/>
     </row>
-    <row r="561" spans="1:24">
+    <row r="561" spans="1:24" ht="12.75">
       <c r="A561" s="7"/>
       <c r="B561" s="8"/>
       <c r="C561" s="9"/>
@@ -15330,7 +15333,7 @@
       <c r="W561" s="5"/>
       <c r="X561" s="5"/>
     </row>
-    <row r="562" spans="1:24">
+    <row r="562" spans="1:24" ht="12.75">
       <c r="A562" s="7"/>
       <c r="B562" s="8"/>
       <c r="C562" s="9"/>
@@ -15356,7 +15359,7 @@
       <c r="W562" s="5"/>
       <c r="X562" s="5"/>
     </row>
-    <row r="563" spans="1:24">
+    <row r="563" spans="1:24" ht="12.75">
       <c r="A563" s="7"/>
       <c r="B563" s="8"/>
       <c r="C563" s="9"/>
@@ -15382,7 +15385,7 @@
       <c r="W563" s="5"/>
       <c r="X563" s="5"/>
     </row>
-    <row r="564" spans="1:24">
+    <row r="564" spans="1:24" ht="12.75">
       <c r="A564" s="7"/>
       <c r="B564" s="8"/>
       <c r="C564" s="9"/>
@@ -15408,7 +15411,7 @@
       <c r="W564" s="5"/>
       <c r="X564" s="5"/>
     </row>
-    <row r="565" spans="1:24">
+    <row r="565" spans="1:24" ht="12.75">
       <c r="A565" s="7"/>
       <c r="B565" s="8"/>
       <c r="C565" s="9"/>
@@ -15434,7 +15437,7 @@
       <c r="W565" s="5"/>
       <c r="X565" s="5"/>
     </row>
-    <row r="566" spans="1:24">
+    <row r="566" spans="1:24" ht="12.75">
       <c r="A566" s="7"/>
       <c r="B566" s="8"/>
       <c r="C566" s="9"/>
@@ -15460,7 +15463,7 @@
       <c r="W566" s="5"/>
       <c r="X566" s="5"/>
     </row>
-    <row r="567" spans="1:24">
+    <row r="567" spans="1:24" ht="12.75">
       <c r="A567" s="7"/>
       <c r="B567" s="8"/>
       <c r="C567" s="9"/>
@@ -15486,7 +15489,7 @@
       <c r="W567" s="5"/>
       <c r="X567" s="5"/>
     </row>
-    <row r="568" spans="1:24">
+    <row r="568" spans="1:24" ht="12.75">
       <c r="A568" s="7"/>
       <c r="B568" s="8"/>
       <c r="C568" s="9"/>
@@ -15512,7 +15515,7 @@
       <c r="W568" s="5"/>
       <c r="X568" s="5"/>
     </row>
-    <row r="569" spans="1:24">
+    <row r="569" spans="1:24" ht="12.75">
       <c r="A569" s="7"/>
       <c r="B569" s="8"/>
       <c r="C569" s="9"/>
@@ -15538,7 +15541,7 @@
       <c r="W569" s="5"/>
       <c r="X569" s="5"/>
     </row>
-    <row r="570" spans="1:24">
+    <row r="570" spans="1:24" ht="12.75">
       <c r="A570" s="7"/>
       <c r="B570" s="8"/>
       <c r="C570" s="9"/>
@@ -15564,7 +15567,7 @@
       <c r="W570" s="5"/>
       <c r="X570" s="5"/>
     </row>
-    <row r="571" spans="1:24">
+    <row r="571" spans="1:24" ht="12.75">
       <c r="A571" s="7"/>
       <c r="B571" s="8"/>
       <c r="C571" s="9"/>
@@ -15590,7 +15593,7 @@
       <c r="W571" s="5"/>
       <c r="X571" s="5"/>
     </row>
-    <row r="572" spans="1:24">
+    <row r="572" spans="1:24" ht="12.75">
       <c r="A572" s="7"/>
       <c r="B572" s="8"/>
       <c r="C572" s="9"/>
@@ -15616,7 +15619,7 @@
       <c r="W572" s="5"/>
       <c r="X572" s="5"/>
     </row>
-    <row r="573" spans="1:24">
+    <row r="573" spans="1:24" ht="12.75">
       <c r="A573" s="7"/>
       <c r="B573" s="8"/>
       <c r="C573" s="9"/>
@@ -15642,7 +15645,7 @@
       <c r="W573" s="5"/>
       <c r="X573" s="5"/>
     </row>
-    <row r="574" spans="1:24">
+    <row r="574" spans="1:24" ht="12.75">
       <c r="A574" s="7"/>
       <c r="B574" s="8"/>
       <c r="C574" s="9"/>
@@ -15668,7 +15671,7 @@
       <c r="W574" s="5"/>
       <c r="X574" s="5"/>
     </row>
-    <row r="575" spans="1:24">
+    <row r="575" spans="1:24" ht="12.75">
       <c r="A575" s="7"/>
       <c r="B575" s="8"/>
       <c r="C575" s="9"/>
@@ -15694,7 +15697,7 @@
       <c r="W575" s="5"/>
       <c r="X575" s="5"/>
     </row>
-    <row r="576" spans="1:24">
+    <row r="576" spans="1:24" ht="12.75">
       <c r="A576" s="7"/>
       <c r="B576" s="8"/>
       <c r="C576" s="9"/>
@@ -15720,7 +15723,7 @@
       <c r="W576" s="5"/>
       <c r="X576" s="5"/>
     </row>
-    <row r="577" spans="1:24">
+    <row r="577" spans="1:24" ht="12.75">
       <c r="A577" s="7"/>
       <c r="B577" s="8"/>
       <c r="C577" s="9"/>
@@ -15746,7 +15749,7 @@
       <c r="W577" s="5"/>
       <c r="X577" s="5"/>
     </row>
-    <row r="578" spans="1:24">
+    <row r="578" spans="1:24" ht="12.75">
       <c r="A578" s="7"/>
       <c r="B578" s="8"/>
       <c r="C578" s="9"/>
@@ -15772,7 +15775,7 @@
       <c r="W578" s="5"/>
       <c r="X578" s="5"/>
     </row>
-    <row r="579" spans="1:24">
+    <row r="579" spans="1:24" ht="12.75">
       <c r="A579" s="7"/>
       <c r="B579" s="8"/>
       <c r="C579" s="9"/>
@@ -15798,7 +15801,7 @@
       <c r="W579" s="5"/>
       <c r="X579" s="5"/>
     </row>
-    <row r="580" spans="1:24">
+    <row r="580" spans="1:24" ht="12.75">
       <c r="A580" s="7"/>
       <c r="B580" s="8"/>
       <c r="C580" s="9"/>
@@ -15824,7 +15827,7 @@
       <c r="W580" s="5"/>
       <c r="X580" s="5"/>
     </row>
-    <row r="581" spans="1:24">
+    <row r="581" spans="1:24" ht="12.75">
       <c r="A581" s="7"/>
       <c r="B581" s="8"/>
       <c r="C581" s="9"/>
@@ -15850,7 +15853,7 @@
       <c r="W581" s="5"/>
       <c r="X581" s="5"/>
     </row>
-    <row r="582" spans="1:24">
+    <row r="582" spans="1:24" ht="12.75">
       <c r="A582" s="7"/>
       <c r="B582" s="8"/>
       <c r="C582" s="9"/>
@@ -15876,7 +15879,7 @@
       <c r="W582" s="5"/>
       <c r="X582" s="5"/>
     </row>
-    <row r="583" spans="1:24">
+    <row r="583" spans="1:24" ht="12.75">
       <c r="A583" s="7"/>
       <c r="B583" s="8"/>
       <c r="C583" s="9"/>
@@ -15902,7 +15905,7 @@
       <c r="W583" s="5"/>
       <c r="X583" s="5"/>
     </row>
-    <row r="584" spans="1:24">
+    <row r="584" spans="1:24" ht="12.75">
       <c r="A584" s="7"/>
       <c r="B584" s="8"/>
       <c r="C584" s="9"/>
@@ -15928,7 +15931,7 @@
       <c r="W584" s="5"/>
       <c r="X584" s="5"/>
     </row>
-    <row r="585" spans="1:24">
+    <row r="585" spans="1:24" ht="12.75">
       <c r="A585" s="7"/>
       <c r="B585" s="8"/>
       <c r="C585" s="9"/>
@@ -15954,7 +15957,7 @@
       <c r="W585" s="5"/>
       <c r="X585" s="5"/>
     </row>
-    <row r="586" spans="1:24">
+    <row r="586" spans="1:24" ht="12.75">
       <c r="A586" s="7"/>
       <c r="B586" s="8"/>
       <c r="C586" s="9"/>
@@ -15980,7 +15983,7 @@
       <c r="W586" s="5"/>
       <c r="X586" s="5"/>
     </row>
-    <row r="587" spans="1:24">
+    <row r="587" spans="1:24" ht="12.75">
       <c r="A587" s="7"/>
       <c r="B587" s="8"/>
       <c r="C587" s="9"/>
@@ -16006,7 +16009,7 @@
       <c r="W587" s="5"/>
       <c r="X587" s="5"/>
     </row>
-    <row r="588" spans="1:24">
+    <row r="588" spans="1:24" ht="12.75">
       <c r="A588" s="7"/>
       <c r="B588" s="8"/>
       <c r="C588" s="9"/>
@@ -16032,7 +16035,7 @@
       <c r="W588" s="5"/>
       <c r="X588" s="5"/>
     </row>
-    <row r="589" spans="1:24">
+    <row r="589" spans="1:24" ht="12.75">
       <c r="A589" s="7"/>
       <c r="B589" s="8"/>
       <c r="C589" s="9"/>
@@ -16058,7 +16061,7 @@
       <c r="W589" s="5"/>
       <c r="X589" s="5"/>
     </row>
-    <row r="590" spans="1:24">
+    <row r="590" spans="1:24" ht="12.75">
       <c r="A590" s="7"/>
       <c r="B590" s="8"/>
       <c r="C590" s="9"/>
@@ -16084,7 +16087,7 @@
       <c r="W590" s="5"/>
       <c r="X590" s="5"/>
     </row>
-    <row r="591" spans="1:24">
+    <row r="591" spans="1:24" ht="12.75">
       <c r="A591" s="7"/>
       <c r="B591" s="8"/>
       <c r="C591" s="9"/>
@@ -16110,7 +16113,7 @@
       <c r="W591" s="5"/>
       <c r="X591" s="5"/>
     </row>
-    <row r="592" spans="1:24">
+    <row r="592" spans="1:24" ht="12.75">
       <c r="A592" s="7"/>
       <c r="B592" s="8"/>
       <c r="C592" s="9"/>
@@ -16136,7 +16139,7 @@
       <c r="W592" s="5"/>
       <c r="X592" s="5"/>
     </row>
-    <row r="593" spans="1:24">
+    <row r="593" spans="1:24" ht="12.75">
       <c r="A593" s="7"/>
       <c r="B593" s="8"/>
       <c r="C593" s="9"/>
@@ -16162,7 +16165,7 @@
       <c r="W593" s="5"/>
       <c r="X593" s="5"/>
     </row>
-    <row r="594" spans="1:24">
+    <row r="594" spans="1:24" ht="12.75">
       <c r="A594" s="7"/>
       <c r="B594" s="8"/>
       <c r="C594" s="9"/>
@@ -16188,7 +16191,7 @@
       <c r="W594" s="5"/>
       <c r="X594" s="5"/>
     </row>
-    <row r="595" spans="1:24">
+    <row r="595" spans="1:24" ht="12.75">
       <c r="A595" s="7"/>
       <c r="B595" s="8"/>
       <c r="C595" s="9"/>
@@ -16214,7 +16217,7 @@
       <c r="W595" s="5"/>
       <c r="X595" s="5"/>
     </row>
-    <row r="596" spans="1:24">
+    <row r="596" spans="1:24" ht="12.75">
       <c r="A596" s="7"/>
       <c r="B596" s="8"/>
       <c r="C596" s="9"/>
@@ -16240,7 +16243,7 @@
       <c r="W596" s="5"/>
       <c r="X596" s="5"/>
     </row>
-    <row r="597" spans="1:24">
+    <row r="597" spans="1:24" ht="12.75">
       <c r="A597" s="7"/>
       <c r="B597" s="8"/>
       <c r="C597" s="9"/>
@@ -16266,7 +16269,7 @@
       <c r="W597" s="5"/>
       <c r="X597" s="5"/>
     </row>
-    <row r="598" spans="1:24">
+    <row r="598" spans="1:24" ht="12.75">
       <c r="A598" s="7"/>
       <c r="B598" s="8"/>
       <c r="C598" s="9"/>
@@ -16292,7 +16295,7 @@
       <c r="W598" s="5"/>
       <c r="X598" s="5"/>
     </row>
-    <row r="599" spans="1:24">
+    <row r="599" spans="1:24" ht="12.75">
       <c r="A599" s="7"/>
       <c r="B599" s="8"/>
       <c r="C599" s="9"/>
@@ -16318,7 +16321,7 @@
       <c r="W599" s="5"/>
       <c r="X599" s="5"/>
     </row>
-    <row r="600" spans="1:24">
+    <row r="600" spans="1:24" ht="12.75">
       <c r="A600" s="7"/>
       <c r="B600" s="8"/>
       <c r="C600" s="9"/>
@@ -16344,7 +16347,7 @@
       <c r="W600" s="5"/>
       <c r="X600" s="5"/>
     </row>
-    <row r="601" spans="1:24">
+    <row r="601" spans="1:24" ht="12.75">
       <c r="A601" s="7"/>
       <c r="B601" s="8"/>
       <c r="C601" s="9"/>
@@ -16370,7 +16373,7 @@
       <c r="W601" s="5"/>
       <c r="X601" s="5"/>
     </row>
-    <row r="602" spans="1:24">
+    <row r="602" spans="1:24" ht="12.75">
       <c r="A602" s="7"/>
       <c r="B602" s="8"/>
       <c r="C602" s="9"/>
@@ -16396,7 +16399,7 @@
       <c r="W602" s="5"/>
       <c r="X602" s="5"/>
     </row>
-    <row r="603" spans="1:24">
+    <row r="603" spans="1:24" ht="12.75">
       <c r="A603" s="7"/>
       <c r="B603" s="8"/>
       <c r="C603" s="9"/>
@@ -16422,7 +16425,7 @@
       <c r="W603" s="5"/>
       <c r="X603" s="5"/>
     </row>
-    <row r="604" spans="1:24">
+    <row r="604" spans="1:24" ht="12.75">
       <c r="A604" s="7"/>
       <c r="B604" s="8"/>
       <c r="C604" s="9"/>
@@ -16448,7 +16451,7 @@
       <c r="W604" s="5"/>
       <c r="X604" s="5"/>
     </row>
-    <row r="605" spans="1:24">
+    <row r="605" spans="1:24" ht="12.75">
       <c r="A605" s="7"/>
       <c r="B605" s="8"/>
       <c r="C605" s="9"/>
@@ -16474,7 +16477,7 @@
       <c r="W605" s="5"/>
       <c r="X605" s="5"/>
     </row>
-    <row r="606" spans="1:24">
+    <row r="606" spans="1:24" ht="12.75">
       <c r="A606" s="7"/>
       <c r="B606" s="8"/>
       <c r="C606" s="9"/>
@@ -16500,7 +16503,7 @@
       <c r="W606" s="5"/>
       <c r="X606" s="5"/>
     </row>
-    <row r="607" spans="1:24">
+    <row r="607" spans="1:24" ht="12.75">
       <c r="A607" s="7"/>
       <c r="B607" s="8"/>
       <c r="C607" s="9"/>
@@ -16526,7 +16529,7 @@
       <c r="W607" s="5"/>
       <c r="X607" s="5"/>
     </row>
-    <row r="608" spans="1:24">
+    <row r="608" spans="1:24" ht="12.75">
       <c r="A608" s="7"/>
       <c r="B608" s="8"/>
       <c r="C608" s="9"/>
@@ -16552,7 +16555,7 @@
       <c r="W608" s="5"/>
       <c r="X608" s="5"/>
     </row>
-    <row r="609" spans="1:24">
+    <row r="609" spans="1:24" ht="12.75">
       <c r="A609" s="7"/>
       <c r="B609" s="8"/>
       <c r="C609" s="9"/>
@@ -16578,7 +16581,7 @@
       <c r="W609" s="5"/>
       <c r="X609" s="5"/>
     </row>
-    <row r="610" spans="1:24">
+    <row r="610" spans="1:24" ht="12.75">
       <c r="A610" s="7"/>
       <c r="B610" s="8"/>
       <c r="C610" s="9"/>
@@ -16604,7 +16607,7 @@
       <c r="W610" s="5"/>
       <c r="X610" s="5"/>
     </row>
-    <row r="611" spans="1:24">
+    <row r="611" spans="1:24" ht="12.75">
       <c r="A611" s="7"/>
       <c r="B611" s="8"/>
       <c r="C611" s="9"/>
@@ -16630,7 +16633,7 @@
       <c r="W611" s="5"/>
       <c r="X611" s="5"/>
     </row>
-    <row r="612" spans="1:24">
+    <row r="612" spans="1:24" ht="12.75">
       <c r="A612" s="7"/>
       <c r="B612" s="8"/>
       <c r="C612" s="9"/>
@@ -16656,7 +16659,7 @@
       <c r="W612" s="5"/>
       <c r="X612" s="5"/>
     </row>
-    <row r="613" spans="1:24">
+    <row r="613" spans="1:24" ht="12.75">
       <c r="A613" s="7"/>
       <c r="B613" s="8"/>
       <c r="C613" s="9"/>
@@ -16682,7 +16685,7 @@
       <c r="W613" s="5"/>
       <c r="X613" s="5"/>
     </row>
-    <row r="614" spans="1:24">
+    <row r="614" spans="1:24" ht="12.75">
       <c r="A614" s="7"/>
       <c r="B614" s="8"/>
       <c r="C614" s="9"/>
@@ -16708,7 +16711,7 @@
       <c r="W614" s="5"/>
       <c r="X614" s="5"/>
     </row>
-    <row r="615" spans="1:24">
+    <row r="615" spans="1:24" ht="12.75">
       <c r="A615" s="7"/>
       <c r="B615" s="8"/>
       <c r="C615" s="9"/>
@@ -16734,7 +16737,7 @@
       <c r="W615" s="5"/>
       <c r="X615" s="5"/>
     </row>
-    <row r="616" spans="1:24">
+    <row r="616" spans="1:24" ht="12.75">
       <c r="A616" s="7"/>
       <c r="B616" s="8"/>
       <c r="C616" s="9"/>
@@ -16760,7 +16763,7 @@
       <c r="W616" s="5"/>
       <c r="X616" s="5"/>
     </row>
-    <row r="617" spans="1:24">
+    <row r="617" spans="1:24" ht="12.75">
       <c r="A617" s="7"/>
       <c r="B617" s="8"/>
       <c r="C617" s="9"/>
@@ -16786,7 +16789,7 @@
       <c r="W617" s="5"/>
       <c r="X617" s="5"/>
     </row>
-    <row r="618" spans="1:24">
+    <row r="618" spans="1:24" ht="12.75">
       <c r="A618" s="7"/>
       <c r="B618" s="8"/>
       <c r="C618" s="9"/>
@@ -16812,7 +16815,7 @@
       <c r="W618" s="5"/>
       <c r="X618" s="5"/>
     </row>
-    <row r="619" spans="1:24">
+    <row r="619" spans="1:24" ht="12.75">
       <c r="A619" s="7"/>
       <c r="B619" s="8"/>
       <c r="C619" s="9"/>
@@ -16838,7 +16841,7 @@
       <c r="W619" s="5"/>
       <c r="X619" s="5"/>
     </row>
-    <row r="620" spans="1:24">
+    <row r="620" spans="1:24" ht="12.75">
       <c r="A620" s="7"/>
       <c r="B620" s="8"/>
       <c r="C620" s="9"/>
@@ -16864,7 +16867,7 @@
       <c r="W620" s="5"/>
       <c r="X620" s="5"/>
     </row>
-    <row r="621" spans="1:24">
+    <row r="621" spans="1:24" ht="12.75">
       <c r="A621" s="7"/>
       <c r="B621" s="8"/>
       <c r="C621" s="9"/>
@@ -16890,7 +16893,7 @@
       <c r="W621" s="5"/>
       <c r="X621" s="5"/>
     </row>
-    <row r="622" spans="1:24">
+    <row r="622" spans="1:24" ht="12.75">
       <c r="A622" s="7"/>
       <c r="B622" s="8"/>
       <c r="C622" s="9"/>
@@ -16916,7 +16919,7 @@
       <c r="W622" s="5"/>
       <c r="X622" s="5"/>
     </row>
-    <row r="623" spans="1:24">
+    <row r="623" spans="1:24" ht="12.75">
       <c r="A623" s="7"/>
       <c r="B623" s="8"/>
       <c r="C623" s="9"/>
@@ -16942,7 +16945,7 @@
       <c r="W623" s="5"/>
       <c r="X623" s="5"/>
     </row>
-    <row r="624" spans="1:24">
+    <row r="624" spans="1:24" ht="12.75">
       <c r="A624" s="7"/>
       <c r="B624" s="8"/>
       <c r="C624" s="9"/>
@@ -16968,7 +16971,7 @@
       <c r="W624" s="5"/>
       <c r="X624" s="5"/>
     </row>
-    <row r="625" spans="1:24">
+    <row r="625" spans="1:24" ht="12.75">
       <c r="A625" s="7"/>
       <c r="B625" s="8"/>
       <c r="C625" s="9"/>
@@ -16994,7 +16997,7 @@
       <c r="W625" s="5"/>
       <c r="X625" s="5"/>
     </row>
-    <row r="626" spans="1:24">
+    <row r="626" spans="1:24" ht="12.75">
       <c r="A626" s="7"/>
       <c r="B626" s="8"/>
       <c r="C626" s="9"/>
@@ -17020,7 +17023,7 @@
       <c r="W626" s="5"/>
       <c r="X626" s="5"/>
     </row>
-    <row r="627" spans="1:24">
+    <row r="627" spans="1:24" ht="12.75">
       <c r="A627" s="7"/>
       <c r="B627" s="8"/>
       <c r="C627" s="9"/>
@@ -17046,7 +17049,7 @@
       <c r="W627" s="5"/>
       <c r="X627" s="5"/>
     </row>
-    <row r="628" spans="1:24">
+    <row r="628" spans="1:24" ht="12.75">
       <c r="A628" s="7"/>
       <c r="B628" s="8"/>
       <c r="C628" s="9"/>
@@ -17072,7 +17075,7 @@
       <c r="W628" s="5"/>
       <c r="X628" s="5"/>
     </row>
-    <row r="629" spans="1:24">
+    <row r="629" spans="1:24" ht="12.75">
       <c r="A629" s="7"/>
       <c r="B629" s="8"/>
       <c r="C629" s="9"/>
@@ -17098,7 +17101,7 @@
       <c r="W629" s="5"/>
       <c r="X629" s="5"/>
     </row>
-    <row r="630" spans="1:24">
+    <row r="630" spans="1:24" ht="12.75">
       <c r="A630" s="7"/>
       <c r="B630" s="8"/>
       <c r="C630" s="9"/>
@@ -17124,7 +17127,7 @@
       <c r="W630" s="5"/>
       <c r="X630" s="5"/>
     </row>
-    <row r="631" spans="1:24">
+    <row r="631" spans="1:24" ht="12.75">
       <c r="A631" s="7"/>
       <c r="B631" s="8"/>
       <c r="C631" s="9"/>
@@ -17150,7 +17153,7 @@
       <c r="W631" s="5"/>
       <c r="X631" s="5"/>
     </row>
-    <row r="632" spans="1:24">
+    <row r="632" spans="1:24" ht="12.75">
       <c r="A632" s="7"/>
       <c r="B632" s="8"/>
       <c r="C632" s="9"/>
@@ -17176,7 +17179,7 @@
       <c r="W632" s="5"/>
       <c r="X632" s="5"/>
     </row>
-    <row r="633" spans="1:24">
+    <row r="633" spans="1:24" ht="12.75">
       <c r="A633" s="7"/>
       <c r="B633" s="8"/>
       <c r="C633" s="9"/>
@@ -17202,7 +17205,7 @@
       <c r="W633" s="5"/>
       <c r="X633" s="5"/>
     </row>
-    <row r="634" spans="1:24">
+    <row r="634" spans="1:24" ht="12.75">
       <c r="A634" s="7"/>
       <c r="B634" s="8"/>
       <c r="C634" s="9"/>
@@ -17228,7 +17231,7 @@
       <c r="W634" s="5"/>
       <c r="X634" s="5"/>
     </row>
-    <row r="635" spans="1:24">
+    <row r="635" spans="1:24" ht="12.75">
       <c r="A635" s="7"/>
       <c r="B635" s="8"/>
       <c r="C635" s="9"/>
@@ -17254,7 +17257,7 @@
       <c r="W635" s="5"/>
       <c r="X635" s="5"/>
     </row>
-    <row r="636" spans="1:24">
+    <row r="636" spans="1:24" ht="12.75">
       <c r="A636" s="7"/>
       <c r="B636" s="8"/>
       <c r="C636" s="9"/>
@@ -17280,7 +17283,7 @@
       <c r="W636" s="5"/>
       <c r="X636" s="5"/>
     </row>
-    <row r="637" spans="1:24">
+    <row r="637" spans="1:24" ht="12.75">
       <c r="A637" s="7"/>
       <c r="B637" s="8"/>
       <c r="C637" s="9"/>
@@ -17306,7 +17309,7 @@
       <c r="W637" s="5"/>
       <c r="X637" s="5"/>
     </row>
-    <row r="638" spans="1:24">
+    <row r="638" spans="1:24" ht="12.75">
       <c r="A638" s="7"/>
       <c r="B638" s="8"/>
       <c r="C638" s="9"/>
@@ -17332,7 +17335,7 @@
       <c r="W638" s="5"/>
       <c r="X638" s="5"/>
     </row>
-    <row r="639" spans="1:24">
+    <row r="639" spans="1:24" ht="12.75">
       <c r="A639" s="7"/>
       <c r="B639" s="8"/>
       <c r="C639" s="9"/>
@@ -17358,7 +17361,7 @@
       <c r="W639" s="5"/>
       <c r="X639" s="5"/>
     </row>
-    <row r="640" spans="1:24">
+    <row r="640" spans="1:24" ht="12.75">
       <c r="A640" s="7"/>
       <c r="B640" s="8"/>
       <c r="C640" s="9"/>
@@ -17384,7 +17387,7 @@
       <c r="W640" s="5"/>
       <c r="X640" s="5"/>
     </row>
-    <row r="641" spans="1:24">
+    <row r="641" spans="1:24" ht="12.75">
       <c r="A641" s="7"/>
       <c r="B641" s="8"/>
       <c r="C641" s="9"/>
@@ -17410,7 +17413,7 @@
       <c r="W641" s="5"/>
       <c r="X641" s="5"/>
     </row>
-    <row r="642" spans="1:24">
+    <row r="642" spans="1:24" ht="12.75">
       <c r="A642" s="7"/>
       <c r="B642" s="8"/>
       <c r="C642" s="9"/>
@@ -17436,7 +17439,7 @@
       <c r="W642" s="5"/>
       <c r="X642" s="5"/>
     </row>
-    <row r="643" spans="1:24">
+    <row r="643" spans="1:24" ht="12.75">
       <c r="A643" s="7"/>
       <c r="B643" s="8"/>
       <c r="C643" s="9"/>
@@ -17462,7 +17465,7 @@
       <c r="W643" s="5"/>
       <c r="X643" s="5"/>
     </row>
-    <row r="644" spans="1:24">
+    <row r="644" spans="1:24" ht="12.75">
       <c r="A644" s="7"/>
       <c r="B644" s="8"/>
       <c r="C644" s="9"/>
@@ -17488,7 +17491,7 @@
       <c r="W644" s="5"/>
       <c r="X644" s="5"/>
     </row>
-    <row r="645" spans="1:24">
+    <row r="645" spans="1:24" ht="12.75">
       <c r="A645" s="7"/>
       <c r="B645" s="8"/>
       <c r="C645" s="9"/>
@@ -17514,7 +17517,7 @@
       <c r="W645" s="5"/>
       <c r="X645" s="5"/>
     </row>
-    <row r="646" spans="1:24">
+    <row r="646" spans="1:24" ht="12.75">
       <c r="A646" s="7"/>
       <c r="B646" s="8"/>
       <c r="C646" s="9"/>
@@ -17540,7 +17543,7 @@
       <c r="W646" s="5"/>
       <c r="X646" s="5"/>
     </row>
-    <row r="647" spans="1:24">
+    <row r="647" spans="1:24" ht="12.75">
       <c r="A647" s="7"/>
       <c r="B647" s="8"/>
       <c r="C647" s="9"/>
@@ -17566,7 +17569,7 @@
       <c r="W647" s="5"/>
       <c r="X647" s="5"/>
     </row>
-    <row r="648" spans="1:24">
+    <row r="648" spans="1:24" ht="12.75">
       <c r="A648" s="7"/>
       <c r="B648" s="8"/>
       <c r="C648" s="9"/>
@@ -17592,7 +17595,7 @@
       <c r="W648" s="5"/>
       <c r="X648" s="5"/>
     </row>
-    <row r="649" spans="1:24">
+    <row r="649" spans="1:24" ht="12.75">
       <c r="A649" s="7"/>
       <c r="B649" s="8"/>
       <c r="C649" s="9"/>
@@ -17618,7 +17621,7 @@
       <c r="W649" s="5"/>
       <c r="X649" s="5"/>
     </row>
-    <row r="650" spans="1:24">
+    <row r="650" spans="1:24" ht="12.75">
       <c r="A650" s="7"/>
       <c r="B650" s="8"/>
       <c r="C650" s="9"/>
@@ -17644,7 +17647,7 @@
       <c r="W650" s="5"/>
       <c r="X650" s="5"/>
     </row>
-    <row r="651" spans="1:24">
+    <row r="651" spans="1:24" ht="12.75">
       <c r="A651" s="7"/>
       <c r="B651" s="8"/>
       <c r="C651" s="9"/>
@@ -17670,7 +17673,7 @@
       <c r="W651" s="5"/>
       <c r="X651" s="5"/>
     </row>
-    <row r="652" spans="1:24">
+    <row r="652" spans="1:24" ht="12.75">
       <c r="A652" s="7"/>
       <c r="B652" s="8"/>
       <c r="C652" s="9"/>
@@ -17696,7 +17699,7 @@
       <c r="W652" s="5"/>
       <c r="X652" s="5"/>
     </row>
-    <row r="653" spans="1:24">
+    <row r="653" spans="1:24" ht="12.75">
       <c r="A653" s="7"/>
       <c r="B653" s="8"/>
       <c r="C653" s="9"/>
@@ -17722,7 +17725,7 @@
       <c r="W653" s="5"/>
       <c r="X653" s="5"/>
     </row>
-    <row r="654" spans="1:24">
+    <row r="654" spans="1:24" ht="12.75">
       <c r="A654" s="7"/>
       <c r="B654" s="8"/>
       <c r="C654" s="9"/>
@@ -17748,7 +17751,7 @@
       <c r="W654" s="5"/>
       <c r="X654" s="5"/>
     </row>
-    <row r="655" spans="1:24">
+    <row r="655" spans="1:24" ht="12.75">
       <c r="A655" s="7"/>
       <c r="B655" s="8"/>
       <c r="C655" s="9"/>
@@ -17774,7 +17777,7 @@
       <c r="W655" s="5"/>
       <c r="X655" s="5"/>
     </row>
-    <row r="656" spans="1:24">
+    <row r="656" spans="1:24" ht="12.75">
       <c r="A656" s="7"/>
       <c r="B656" s="8"/>
       <c r="C656" s="9"/>
@@ -17800,7 +17803,7 @@
       <c r="W656" s="5"/>
       <c r="X656" s="5"/>
     </row>
-    <row r="657" spans="1:24">
+    <row r="657" spans="1:24" ht="12.75">
       <c r="A657" s="7"/>
       <c r="B657" s="8"/>
       <c r="C657" s="9"/>
@@ -17826,7 +17829,7 @@
       <c r="W657" s="5"/>
       <c r="X657" s="5"/>
     </row>
-    <row r="658" spans="1:24">
+    <row r="658" spans="1:24" ht="12.75">
       <c r="A658" s="7"/>
       <c r="B658" s="8"/>
       <c r="C658" s="9"/>
@@ -17852,7 +17855,7 @@
       <c r="W658" s="5"/>
       <c r="X658" s="5"/>
     </row>
-    <row r="659" spans="1:24">
+    <row r="659" spans="1:24" ht="12.75">
       <c r="A659" s="7"/>
       <c r="B659" s="8"/>
       <c r="C659" s="9"/>
@@ -17878,7 +17881,7 @@
       <c r="W659" s="5"/>
       <c r="X659" s="5"/>
     </row>
-    <row r="660" spans="1:24">
+    <row r="660" spans="1:24" ht="12.75">
       <c r="A660" s="7"/>
       <c r="B660" s="8"/>
       <c r="C660" s="9"/>
@@ -17904,7 +17907,7 @@
       <c r="W660" s="5"/>
       <c r="X660" s="5"/>
     </row>
-    <row r="661" spans="1:24">
+    <row r="661" spans="1:24" ht="12.75">
       <c r="A661" s="7"/>
       <c r="B661" s="8"/>
       <c r="C661" s="9"/>
@@ -17930,7 +17933,7 @@
       <c r="W661" s="5"/>
       <c r="X661" s="5"/>
     </row>
-    <row r="662" spans="1:24">
+    <row r="662" spans="1:24" ht="12.75">
       <c r="A662" s="7"/>
       <c r="B662" s="8"/>
       <c r="C662" s="9"/>
@@ -17956,7 +17959,7 @@
       <c r="W662" s="5"/>
       <c r="X662" s="5"/>
     </row>
-    <row r="663" spans="1:24">
+    <row r="663" spans="1:24" ht="12.75">
       <c r="A663" s="7"/>
       <c r="B663" s="8"/>
       <c r="C663" s="9"/>
@@ -17982,7 +17985,7 @@
       <c r="W663" s="5"/>
       <c r="X663" s="5"/>
     </row>
-    <row r="664" spans="1:24">
+    <row r="664" spans="1:24" ht="12.75">
       <c r="A664" s="7"/>
       <c r="B664" s="8"/>
       <c r="C664" s="9"/>
@@ -18008,7 +18011,7 @@
       <c r="W664" s="5"/>
       <c r="X664" s="5"/>
     </row>
-    <row r="665" spans="1:24">
+    <row r="665" spans="1:24" ht="12.75">
       <c r="A665" s="7"/>
       <c r="B665" s="8"/>
       <c r="C665" s="9"/>
@@ -18034,7 +18037,7 @@
       <c r="W665" s="5"/>
       <c r="X665" s="5"/>
     </row>
-    <row r="666" spans="1:24">
+    <row r="666" spans="1:24" ht="12.75">
       <c r="A666" s="7"/>
       <c r="B666" s="8"/>
       <c r="C666" s="9"/>
@@ -18060,7 +18063,7 @@
       <c r="W666" s="5"/>
       <c r="X666" s="5"/>
     </row>
-    <row r="667" spans="1:24">
+    <row r="667" spans="1:24" ht="12.75">
       <c r="A667" s="7"/>
       <c r="B667" s="8"/>
       <c r="C667" s="9"/>
@@ -18086,7 +18089,7 @@
       <c r="W667" s="5"/>
       <c r="X667" s="5"/>
     </row>
-    <row r="668" spans="1:24">
+    <row r="668" spans="1:24" ht="12.75">
       <c r="A668" s="7"/>
       <c r="B668" s="8"/>
       <c r="C668" s="9"/>
@@ -18112,7 +18115,7 @@
       <c r="W668" s="5"/>
       <c r="X668" s="5"/>
     </row>
-    <row r="669" spans="1:24">
+    <row r="669" spans="1:24" ht="12.75">
       <c r="A669" s="7"/>
       <c r="B669" s="8"/>
       <c r="C669" s="9"/>
@@ -18138,7 +18141,7 @@
       <c r="W669" s="5"/>
       <c r="X669" s="5"/>
     </row>
-    <row r="670" spans="1:24">
+    <row r="670" spans="1:24" ht="12.75">
       <c r="A670" s="7"/>
       <c r="B670" s="8"/>
       <c r="C670" s="9"/>
@@ -18164,7 +18167,7 @@
       <c r="W670" s="5"/>
       <c r="X670" s="5"/>
     </row>
-    <row r="671" spans="1:24">
+    <row r="671" spans="1:24" ht="12.75">
       <c r="A671" s="7"/>
       <c r="B671" s="8"/>
       <c r="C671" s="9"/>
@@ -18190,7 +18193,7 @@
       <c r="W671" s="5"/>
       <c r="X671" s="5"/>
     </row>
-    <row r="672" spans="1:24">
+    <row r="672" spans="1:24" ht="12.75">
       <c r="A672" s="7"/>
       <c r="B672" s="8"/>
       <c r="C672" s="9"/>
@@ -18216,7 +18219,7 @@
       <c r="W672" s="5"/>
       <c r="X672" s="5"/>
     </row>
-    <row r="673" spans="1:24">
+    <row r="673" spans="1:24" ht="12.75">
       <c r="A673" s="7"/>
       <c r="B673" s="8"/>
       <c r="C673" s="9"/>
@@ -18242,7 +18245,7 @@
       <c r="W673" s="5"/>
       <c r="X673" s="5"/>
     </row>
-    <row r="674" spans="1:24">
+    <row r="674" spans="1:24" ht="12.75">
       <c r="A674" s="7"/>
       <c r="B674" s="8"/>
       <c r="C674" s="9"/>
@@ -18268,7 +18271,7 @@
       <c r="W674" s="5"/>
       <c r="X674" s="5"/>
     </row>
-    <row r="675" spans="1:24">
+    <row r="675" spans="1:24" ht="12.75">
       <c r="A675" s="7"/>
       <c r="B675" s="8"/>
       <c r="C675" s="9"/>
@@ -18294,7 +18297,7 @@
       <c r="W675" s="5"/>
       <c r="X675" s="5"/>
     </row>
-    <row r="676" spans="1:24">
+    <row r="676" spans="1:24" ht="12.75">
       <c r="A676" s="7"/>
       <c r="B676" s="8"/>
       <c r="C676" s="9"/>
@@ -18320,7 +18323,7 @@
       <c r="W676" s="5"/>
       <c r="X676" s="5"/>
     </row>
-    <row r="677" spans="1:24">
+    <row r="677" spans="1:24" ht="12.75">
       <c r="A677" s="7"/>
       <c r="B677" s="8"/>
       <c r="C677" s="9"/>
@@ -18346,7 +18349,7 @@
       <c r="W677" s="5"/>
       <c r="X677" s="5"/>
     </row>
-    <row r="678" spans="1:24">
+    <row r="678" spans="1:24" ht="12.75">
       <c r="A678" s="7"/>
       <c r="B678" s="8"/>
       <c r="C678" s="9"/>
@@ -18372,7 +18375,7 @@
       <c r="W678" s="5"/>
       <c r="X678" s="5"/>
     </row>
-    <row r="679" spans="1:24">
+    <row r="679" spans="1:24" ht="12.75">
       <c r="A679" s="7"/>
       <c r="B679" s="8"/>
       <c r="C679" s="9"/>
@@ -18398,7 +18401,7 @@
       <c r="W679" s="5"/>
       <c r="X679" s="5"/>
     </row>
-    <row r="680" spans="1:24">
+    <row r="680" spans="1:24" ht="12.75">
       <c r="A680" s="7"/>
       <c r="B680" s="8"/>
       <c r="C680" s="9"/>
@@ -18424,7 +18427,7 @@
       <c r="W680" s="5"/>
       <c r="X680" s="5"/>
     </row>
-    <row r="681" spans="1:24">
+    <row r="681" spans="1:24" ht="12.75">
       <c r="A681" s="7"/>
       <c r="B681" s="8"/>
       <c r="C681" s="9"/>
@@ -18450,7 +18453,7 @@
       <c r="W681" s="5"/>
       <c r="X681" s="5"/>
     </row>
-    <row r="682" spans="1:24">
+    <row r="682" spans="1:24" ht="12.75">
       <c r="A682" s="7"/>
       <c r="B682" s="8"/>
       <c r="C682" s="9"/>
@@ -18476,7 +18479,7 @@
       <c r="W682" s="5"/>
       <c r="X682" s="5"/>
     </row>
-    <row r="683" spans="1:24">
+    <row r="683" spans="1:24" ht="12.75">
       <c r="A683" s="7"/>
       <c r="B683" s="8"/>
       <c r="C683" s="9"/>
@@ -18502,7 +18505,7 @@
       <c r="W683" s="5"/>
       <c r="X683" s="5"/>
     </row>
-    <row r="684" spans="1:24">
+    <row r="684" spans="1:24" ht="12.75">
       <c r="A684" s="7"/>
       <c r="B684" s="8"/>
       <c r="C684" s="9"/>
@@ -18528,7 +18531,7 @@
       <c r="W684" s="5"/>
       <c r="X684" s="5"/>
     </row>
-    <row r="685" spans="1:24">
+    <row r="685" spans="1:24" ht="12.75">
       <c r="A685" s="7"/>
       <c r="B685" s="8"/>
       <c r="C685" s="9"/>
@@ -18554,7 +18557,7 @@
       <c r="W685" s="5"/>
       <c r="X685" s="5"/>
     </row>
-    <row r="686" spans="1:24">
+    <row r="686" spans="1:24" ht="12.75">
       <c r="A686" s="7"/>
       <c r="B686" s="8"/>
       <c r="C686" s="9"/>
@@ -18580,7 +18583,7 @@
       <c r="W686" s="5"/>
       <c r="X686" s="5"/>
     </row>
-    <row r="687" spans="1:24">
+    <row r="687" spans="1:24" ht="12.75">
       <c r="A687" s="7"/>
       <c r="B687" s="8"/>
       <c r="C687" s="9"/>
@@ -18606,7 +18609,7 @@
       <c r="W687" s="5"/>
       <c r="X687" s="5"/>
     </row>
-    <row r="688" spans="1:24">
+    <row r="688" spans="1:24" ht="12.75">
       <c r="A688" s="7"/>
       <c r="B688" s="8"/>
       <c r="C688" s="9"/>
@@ -18632,7 +18635,7 @@
       <c r="W688" s="5"/>
       <c r="X688" s="5"/>
     </row>
-    <row r="689" spans="1:24">
+    <row r="689" spans="1:24" ht="12.75">
       <c r="A689" s="7"/>
       <c r="B689" s="8"/>
       <c r="C689" s="9"/>
@@ -18658,7 +18661,7 @@
       <c r="W689" s="5"/>
       <c r="X689" s="5"/>
     </row>
-    <row r="690" spans="1:24">
+    <row r="690" spans="1:24" ht="12.75">
       <c r="A690" s="7"/>
       <c r="B690" s="8"/>
       <c r="C690" s="9"/>
@@ -18684,7 +18687,7 @@
       <c r="W690" s="5"/>
       <c r="X690" s="5"/>
     </row>
-    <row r="691" spans="1:24">
+    <row r="691" spans="1:24" ht="12.75">
       <c r="A691" s="7"/>
       <c r="B691" s="8"/>
       <c r="C691" s="9"/>
@@ -18710,7 +18713,7 @@
       <c r="W691" s="5"/>
       <c r="X691" s="5"/>
     </row>
-    <row r="692" spans="1:24">
+    <row r="692" spans="1:24" ht="12.75">
       <c r="A692" s="7"/>
       <c r="B692" s="8"/>
       <c r="C692" s="9"/>
@@ -18736,7 +18739,7 @@
       <c r="W692" s="5"/>
       <c r="X692" s="5"/>
     </row>
-    <row r="693" spans="1:24">
+    <row r="693" spans="1:24" ht="12.75">
       <c r="A693" s="7"/>
       <c r="B693" s="8"/>
       <c r="C693" s="9"/>
@@ -18762,7 +18765,7 @@
       <c r="W693" s="5"/>
       <c r="X693" s="5"/>
     </row>
-    <row r="694" spans="1:24">
+    <row r="694" spans="1:24" ht="12.75">
       <c r="A694" s="7"/>
       <c r="B694" s="8"/>
       <c r="C694" s="9"/>
@@ -18788,7 +18791,7 @@
       <c r="W694" s="5"/>
       <c r="X694" s="5"/>
     </row>
-    <row r="695" spans="1:24">
+    <row r="695" spans="1:24" ht="12.75">
       <c r="A695" s="7"/>
       <c r="B695" s="8"/>
       <c r="C695" s="9"/>
@@ -18814,7 +18817,7 @@
       <c r="W695" s="5"/>
       <c r="X695" s="5"/>
     </row>
-    <row r="696" spans="1:24">
+    <row r="696" spans="1:24" ht="12.75">
       <c r="A696" s="7"/>
       <c r="B696" s="8"/>
       <c r="C696" s="9"/>
@@ -18840,7 +18843,7 @@
       <c r="W696" s="5"/>
       <c r="X696" s="5"/>
     </row>
-    <row r="697" spans="1:24">
+    <row r="697" spans="1:24" ht="12.75">
       <c r="A697" s="7"/>
       <c r="B697" s="8"/>
       <c r="C697" s="9"/>
@@ -18866,7 +18869,7 @@
       <c r="W697" s="5"/>
       <c r="X697" s="5"/>
     </row>
-    <row r="698" spans="1:24">
+    <row r="698" spans="1:24" ht="12.75">
       <c r="A698" s="7"/>
       <c r="B698" s="8"/>
       <c r="C698" s="9"/>
@@ -18892,7 +18895,7 @@
       <c r="W698" s="5"/>
       <c r="X698" s="5"/>
     </row>
-    <row r="699" spans="1:24">
+    <row r="699" spans="1:24" ht="12.75">
       <c r="A699" s="7"/>
       <c r="B699" s="8"/>
       <c r="C699" s="9"/>
@@ -18918,7 +18921,7 @@
       <c r="W699" s="5"/>
       <c r="X699" s="5"/>
     </row>
-    <row r="700" spans="1:24">
+    <row r="700" spans="1:24" ht="12.75">
       <c r="A700" s="7"/>
       <c r="B700" s="8"/>
       <c r="C700" s="9"/>
@@ -18944,7 +18947,7 @@
       <c r="W700" s="5"/>
       <c r="X700" s="5"/>
     </row>
-    <row r="701" spans="1:24">
+    <row r="701" spans="1:24" ht="12.75">
       <c r="A701" s="7"/>
       <c r="B701" s="8"/>
       <c r="C701" s="9"/>
@@ -18970,7 +18973,7 @@
       <c r="W701" s="5"/>
       <c r="X701" s="5"/>
     </row>
-    <row r="702" spans="1:24">
+    <row r="702" spans="1:24" ht="12.75">
       <c r="A702" s="7"/>
       <c r="B702" s="8"/>
       <c r="C702" s="9"/>
@@ -18996,7 +18999,7 @@
       <c r="W702" s="5"/>
       <c r="X702" s="5"/>
     </row>
-    <row r="703" spans="1:24">
+    <row r="703" spans="1:24" ht="12.75">
       <c r="A703" s="7"/>
       <c r="B703" s="8"/>
       <c r="C703" s="9"/>
@@ -19022,7 +19025,7 @@
       <c r="W703" s="5"/>
       <c r="X703" s="5"/>
     </row>
-    <row r="704" spans="1:24">
+    <row r="704" spans="1:24" ht="12.75">
       <c r="A704" s="7"/>
       <c r="B704" s="8"/>
       <c r="C704" s="9"/>
@@ -19048,7 +19051,7 @@
       <c r="W704" s="5"/>
       <c r="X704" s="5"/>
     </row>
-    <row r="705" spans="1:24">
+    <row r="705" spans="1:24" ht="12.75">
       <c r="A705" s="7"/>
       <c r="B705" s="8"/>
       <c r="C705" s="9"/>
@@ -19074,7 +19077,7 @@
       <c r="W705" s="5"/>
       <c r="X705" s="5"/>
     </row>
-    <row r="706" spans="1:24">
+    <row r="706" spans="1:24" ht="12.75">
       <c r="A706" s="7"/>
       <c r="B706" s="8"/>
       <c r="C706" s="9"/>
@@ -19100,7 +19103,7 @@
       <c r="W706" s="5"/>
       <c r="X706" s="5"/>
     </row>
-    <row r="707" spans="1:24">
+    <row r="707" spans="1:24" ht="12.75">
       <c r="A707" s="7"/>
       <c r="B707" s="8"/>
       <c r="C707" s="9"/>
@@ -19126,7 +19129,7 @@
       <c r="W707" s="5"/>
       <c r="X707" s="5"/>
     </row>
-    <row r="708" spans="1:24">
+    <row r="708" spans="1:24" ht="12.75">
       <c r="A708" s="7"/>
       <c r="B708" s="8"/>
       <c r="C708" s="9"/>
@@ -19152,7 +19155,7 @@
       <c r="W708" s="5"/>
       <c r="X708" s="5"/>
     </row>
-    <row r="709" spans="1:24">
+    <row r="709" spans="1:24" ht="12.75">
       <c r="A709" s="7"/>
       <c r="B709" s="8"/>
       <c r="C709" s="9"/>
@@ -19178,7 +19181,7 @@
       <c r="W709" s="5"/>
       <c r="X709" s="5"/>
     </row>
-    <row r="710" spans="1:24">
+    <row r="710" spans="1:24" ht="12.75">
       <c r="A710" s="7"/>
       <c r="B710" s="8"/>
       <c r="C710" s="9"/>
@@ -19204,7 +19207,7 @@
       <c r="W710" s="5"/>
       <c r="X710" s="5"/>
     </row>
-    <row r="711" spans="1:24">
+    <row r="711" spans="1:24" ht="12.75">
       <c r="A711" s="7"/>
       <c r="B711" s="8"/>
       <c r="C711" s="9"/>
@@ -19230,7 +19233,7 @@
       <c r="W711" s="5"/>
       <c r="X711" s="5"/>
     </row>
-    <row r="712" spans="1:24">
+    <row r="712" spans="1:24" ht="12.75">
       <c r="A712" s="7"/>
       <c r="B712" s="8"/>
       <c r="C712" s="9"/>
@@ -19256,7 +19259,7 @@
       <c r="W712" s="5"/>
       <c r="X712" s="5"/>
     </row>
-    <row r="713" spans="1:24">
+    <row r="713" spans="1:24" ht="12.75">
       <c r="A713" s="7"/>
       <c r="B713" s="8"/>
       <c r="C713" s="9"/>
@@ -19282,7 +19285,7 @@
       <c r="W713" s="5"/>
       <c r="X713" s="5"/>
     </row>
-    <row r="714" spans="1:24">
+    <row r="714" spans="1:24" ht="12.75">
       <c r="A714" s="7"/>
       <c r="B714" s="8"/>
       <c r="C714" s="9"/>
@@ -19308,7 +19311,7 @@
       <c r="W714" s="5"/>
       <c r="X714" s="5"/>
     </row>
-    <row r="715" spans="1:24">
+    <row r="715" spans="1:24" ht="12.75">
       <c r="A715" s="7"/>
       <c r="B715" s="8"/>
       <c r="C715" s="9"/>
@@ -19334,7 +19337,7 @@
       <c r="W715" s="5"/>
       <c r="X715" s="5"/>
     </row>
-    <row r="716" spans="1:24">
+    <row r="716" spans="1:24" ht="12.75">
       <c r="A716" s="7"/>
       <c r="B716" s="8"/>
       <c r="C716" s="9"/>
@@ -19360,7 +19363,7 @@
       <c r="W716" s="5"/>
       <c r="X716" s="5"/>
     </row>
-    <row r="717" spans="1:24">
+    <row r="717" spans="1:24" ht="12.75">
       <c r="A717" s="7"/>
       <c r="B717" s="8"/>
       <c r="C717" s="9"/>
@@ -19386,7 +19389,7 @@
       <c r="W717" s="5"/>
       <c r="X717" s="5"/>
     </row>
-    <row r="718" spans="1:24">
+    <row r="718" spans="1:24" ht="12.75">
       <c r="A718" s="7"/>
       <c r="B718" s="8"/>
       <c r="C718" s="9"/>
@@ -19412,7 +19415,7 @@
       <c r="W718" s="5"/>
       <c r="X718" s="5"/>
     </row>
-    <row r="719" spans="1:24">
+    <row r="719" spans="1:24" ht="12.75">
       <c r="A719" s="7"/>
       <c r="B719" s="8"/>
       <c r="C719" s="9"/>
@@ -19438,7 +19441,7 @@
       <c r="W719" s="5"/>
       <c r="X719" s="5"/>
     </row>
-    <row r="720" spans="1:24">
+    <row r="720" spans="1:24" ht="12.75">
       <c r="A720" s="7"/>
       <c r="B720" s="8"/>
       <c r="C720" s="9"/>
@@ -19464,7 +19467,7 @@
       <c r="W720" s="5"/>
       <c r="X720" s="5"/>
     </row>
-    <row r="721" spans="1:24">
+    <row r="721" spans="1:24" ht="12.75">
       <c r="A721" s="7"/>
       <c r="B721" s="8"/>
       <c r="C721" s="9"/>
@@ -19490,7 +19493,7 @@
       <c r="W721" s="5"/>
       <c r="X721" s="5"/>
     </row>
-    <row r="722" spans="1:24">
+    <row r="722" spans="1:24" ht="12.75">
       <c r="A722" s="7"/>
       <c r="B722" s="8"/>
       <c r="C722" s="9"/>
@@ -19516,7 +19519,7 @@
       <c r="W722" s="5"/>
       <c r="X722" s="5"/>
     </row>
-    <row r="723" spans="1:24">
+    <row r="723" spans="1:24" ht="12.75">
       <c r="A723" s="7"/>
       <c r="B723" s="8"/>
       <c r="C723" s="9"/>
@@ -19542,7 +19545,7 @@
       <c r="W723" s="5"/>
       <c r="X723" s="5"/>
     </row>
-    <row r="724" spans="1:24">
+    <row r="724" spans="1:24" ht="12.75">
       <c r="A724" s="7"/>
       <c r="B724" s="8"/>
       <c r="C724" s="9"/>
@@ -19568,7 +19571,7 @@
       <c r="W724" s="5"/>
       <c r="X724" s="5"/>
     </row>
-    <row r="725" spans="1:24">
+    <row r="725" spans="1:24" ht="12.75">
       <c r="A725" s="7"/>
       <c r="B725" s="8"/>
       <c r="C725" s="9"/>
@@ -19594,7 +19597,7 @@
       <c r="W725" s="5"/>
       <c r="X725" s="5"/>
     </row>
-    <row r="726" spans="1:24">
+    <row r="726" spans="1:24" ht="12.75">
       <c r="A726" s="7"/>
       <c r="B726" s="8"/>
       <c r="C726" s="9"/>
@@ -19620,7 +19623,7 @@
       <c r="W726" s="5"/>
       <c r="X726" s="5"/>
     </row>
-    <row r="727" spans="1:24">
+    <row r="727" spans="1:24" ht="12.75">
       <c r="A727" s="7"/>
       <c r="B727" s="8"/>
       <c r="C727" s="9"/>
@@ -19646,7 +19649,7 @@
       <c r="W727" s="5"/>
       <c r="X727" s="5"/>
     </row>
-    <row r="728" spans="1:24">
+    <row r="728" spans="1:24" ht="12.75">
       <c r="A728" s="7"/>
       <c r="B728" s="8"/>
       <c r="C728" s="9"/>
@@ -19672,7 +19675,7 @@
       <c r="W728" s="5"/>
       <c r="X728" s="5"/>
     </row>
-    <row r="729" spans="1:24">
+    <row r="729" spans="1:24" ht="12.75">
       <c r="A729" s="7"/>
       <c r="B729" s="8"/>
       <c r="C729" s="9"/>
@@ -19698,7 +19701,7 @@
       <c r="W729" s="5"/>
       <c r="X729" s="5"/>
     </row>
-    <row r="730" spans="1:24">
+    <row r="730" spans="1:24" ht="12.75">
       <c r="A730" s="7"/>
       <c r="B730" s="8"/>
       <c r="C730" s="9"/>
@@ -19724,7 +19727,7 @@
       <c r="W730" s="5"/>
       <c r="X730" s="5"/>
     </row>
-    <row r="731" spans="1:24">
+    <row r="731" spans="1:24" ht="12.75">
       <c r="A731" s="7"/>
       <c r="B731" s="8"/>
       <c r="C731" s="9"/>
@@ -19750,7 +19753,7 @@
       <c r="W731" s="5"/>
       <c r="X731" s="5"/>
     </row>
-    <row r="732" spans="1:24">
+    <row r="732" spans="1:24" ht="12.75">
       <c r="A732" s="7"/>
       <c r="B732" s="8"/>
       <c r="C732" s="9"/>
@@ -19776,7 +19779,7 @@
       <c r="W732" s="5"/>
       <c r="X732" s="5"/>
     </row>
-    <row r="733" spans="1:24">
+    <row r="733" spans="1:24" ht="12.75">
       <c r="A733" s="7"/>
       <c r="B733" s="8"/>
       <c r="C733" s="9"/>
@@ -19802,7 +19805,7 @@
       <c r="W733" s="5"/>
       <c r="X733" s="5"/>
     </row>
-    <row r="734" spans="1:24">
+    <row r="734" spans="1:24" ht="12.75">
       <c r="A734" s="7"/>
       <c r="B734" s="8"/>
       <c r="C734" s="9"/>
@@ -19828,7 +19831,7 @@
       <c r="W734" s="5"/>
       <c r="X734" s="5"/>
     </row>
-    <row r="735" spans="1:24">
+    <row r="735" spans="1:24" ht="12.75">
       <c r="A735" s="7"/>
       <c r="B735" s="8"/>
       <c r="C735" s="9"/>
@@ -19854,7 +19857,7 @@
       <c r="W735" s="5"/>
       <c r="X735" s="5"/>
     </row>
-    <row r="736" spans="1:24">
+    <row r="736" spans="1:24" ht="12.75">
       <c r="A736" s="7"/>
       <c r="B736" s="8"/>
       <c r="C736" s="9"/>
@@ -19880,7 +19883,7 @@
       <c r="W736" s="5"/>
       <c r="X736" s="5"/>
     </row>
-    <row r="737" spans="1:24">
+    <row r="737" spans="1:24" ht="12.75">
       <c r="A737" s="7"/>
       <c r="B737" s="8"/>
       <c r="C737" s="9"/>
@@ -19906,7 +19909,7 @@
       <c r="W737" s="5"/>
       <c r="X737" s="5"/>
     </row>
-    <row r="738" spans="1:24">
+    <row r="738" spans="1:24" ht="12.75">
       <c r="A738" s="7"/>
       <c r="B738" s="8"/>
       <c r="C738" s="9"/>
@@ -19932,7 +19935,7 @@
       <c r="W738" s="5"/>
       <c r="X738" s="5"/>
     </row>
-    <row r="739" spans="1:24">
+    <row r="739" spans="1:24" ht="12.75">
       <c r="A739" s="7"/>
       <c r="B739" s="8"/>
       <c r="C739" s="9"/>
@@ -19958,7 +19961,7 @@
       <c r="W739" s="5"/>
       <c r="X739" s="5"/>
     </row>
-    <row r="740" spans="1:24">
+    <row r="740" spans="1:24" ht="12.75">
       <c r="A740" s="7"/>
       <c r="B740" s="8"/>
       <c r="C740" s="9"/>
@@ -19984,7 +19987,7 @@
       <c r="W740" s="5"/>
       <c r="X740" s="5"/>
     </row>
-    <row r="741" spans="1:24">
+    <row r="741" spans="1:24" ht="12.75">
       <c r="A741" s="7"/>
       <c r="B741" s="8"/>
       <c r="C741" s="9"/>
@@ -20010,7 +20013,7 @@
       <c r="W741" s="5"/>
       <c r="X741" s="5"/>
     </row>
-    <row r="742" spans="1:24">
+    <row r="742" spans="1:24" ht="12.75">
       <c r="A742" s="7"/>
       <c r="B742" s="8"/>
       <c r="C742" s="9"/>
@@ -20036,7 +20039,7 @@
       <c r="W742" s="5"/>
       <c r="X742" s="5"/>
     </row>
-    <row r="743" spans="1:24">
+    <row r="743" spans="1:24" ht="12.75">
       <c r="A743" s="7"/>
       <c r="B743" s="8"/>
       <c r="C743" s="9"/>
@@ -20062,7 +20065,7 @@
       <c r="W743" s="5"/>
       <c r="X743" s="5"/>
     </row>
-    <row r="744" spans="1:24">
+    <row r="744" spans="1:24" ht="12.75">
       <c r="A744" s="7"/>
       <c r="B744" s="8"/>
       <c r="C744" s="9"/>
@@ -20088,7 +20091,7 @@
       <c r="W744" s="5"/>
       <c r="X744" s="5"/>
     </row>
-    <row r="745" spans="1:24">
+    <row r="745" spans="1:24" ht="12.75">
       <c r="A745" s="7"/>
       <c r="B745" s="8"/>
       <c r="C745" s="9"/>
@@ -20114,7 +20117,7 @@
       <c r="W745" s="5"/>
       <c r="X745" s="5"/>
     </row>
-    <row r="746" spans="1:24">
+    <row r="746" spans="1:24" ht="12.75">
       <c r="A746" s="7"/>
       <c r="B746" s="8"/>
       <c r="C746" s="9"/>
@@ -20140,7 +20143,7 @@
       <c r="W746" s="5"/>
       <c r="X746" s="5"/>
     </row>
-    <row r="747" spans="1:24">
+    <row r="747" spans="1:24" ht="12.75">
       <c r="A747" s="7"/>
       <c r="B747" s="8"/>
       <c r="C747" s="9"/>
@@ -20166,7 +20169,7 @@
       <c r="W747" s="5"/>
       <c r="X747" s="5"/>
     </row>
-    <row r="748" spans="1:24">
+    <row r="748" spans="1:24" ht="12.75">
       <c r="A748" s="7"/>
       <c r="B748" s="8"/>
       <c r="C748" s="9"/>
@@ -20192,7 +20195,7 @@
       <c r="W748" s="5"/>
       <c r="X748" s="5"/>
     </row>
-    <row r="749" spans="1:24">
+    <row r="749" spans="1:24" ht="12.75">
       <c r="A749" s="7"/>
       <c r="B749" s="8"/>
       <c r="C749" s="9"/>
@@ -20218,7 +20221,7 @@
       <c r="W749" s="5"/>
       <c r="X749" s="5"/>
     </row>
-    <row r="750" spans="1:24">
+    <row r="750" spans="1:24" ht="12.75">
       <c r="A750" s="7"/>
       <c r="B750" s="8"/>
       <c r="C750" s="9"/>
@@ -20244,7 +20247,7 @@
       <c r="W750" s="5"/>
       <c r="X750" s="5"/>
     </row>
-    <row r="751" spans="1:24">
+    <row r="751" spans="1:24" ht="12.75">
       <c r="A751" s="7"/>
       <c r="B751" s="8"/>
       <c r="C751" s="9"/>
@@ -20270,7 +20273,7 @@
       <c r="W751" s="5"/>
       <c r="X751" s="5"/>
     </row>
-    <row r="752" spans="1:24">
+    <row r="752" spans="1:24" ht="12.75">
       <c r="A752" s="7"/>
       <c r="B752" s="8"/>
       <c r="C752" s="9"/>
@@ -20296,7 +20299,7 @@
       <c r="W752" s="5"/>
       <c r="X752" s="5"/>
     </row>
-    <row r="753" spans="1:24">
+    <row r="753" spans="1:24" ht="12.75">
       <c r="A753" s="7"/>
       <c r="B753" s="8"/>
       <c r="C753" s="9"/>
@@ -20322,7 +20325,7 @@
       <c r="W753" s="5"/>
       <c r="X753" s="5"/>
     </row>
-    <row r="754" spans="1:24">
+    <row r="754" spans="1:24" ht="12.75">
       <c r="A754" s="7"/>
       <c r="B754" s="8"/>
       <c r="C754" s="9"/>
@@ -20348,7 +20351,7 @@
       <c r="W754" s="5"/>
       <c r="X754" s="5"/>
     </row>
-    <row r="755" spans="1:24">
+    <row r="755" spans="1:24" ht="12.75">
       <c r="A755" s="7"/>
       <c r="B755" s="8"/>
       <c r="C755" s="9"/>
@@ -20374,7 +20377,7 @@
       <c r="W755" s="5"/>
       <c r="X755" s="5"/>
     </row>
-    <row r="756" spans="1:24">
+    <row r="756" spans="1:24" ht="12.75">
       <c r="A756" s="7"/>
       <c r="B756" s="8"/>
       <c r="C756" s="9"/>
@@ -20400,7 +20403,7 @@
       <c r="W756" s="5"/>
       <c r="X756" s="5"/>
     </row>
-    <row r="757" spans="1:24">
+    <row r="757" spans="1:24" ht="12.75">
       <c r="A757" s="7"/>
       <c r="B757" s="8"/>
       <c r="C757" s="9"/>
@@ -20426,7 +20429,7 @@
       <c r="W757" s="5"/>
       <c r="X757" s="5"/>
     </row>
-    <row r="758" spans="1:24">
+    <row r="758" spans="1:24" ht="12.75">
       <c r="A758" s="7"/>
       <c r="B758" s="8"/>
       <c r="C758" s="9"/>
@@ -20452,7 +20455,7 @@
       <c r="W758" s="5"/>
       <c r="X758" s="5"/>
     </row>
-    <row r="759" spans="1:24">
+    <row r="759" spans="1:24" ht="12.75">
       <c r="A759" s="7"/>
       <c r="B759" s="8"/>
       <c r="C759" s="9"/>
@@ -20478,7 +20481,7 @@
       <c r="W759" s="5"/>
       <c r="X759" s="5"/>
     </row>
-    <row r="760" spans="1:24">
+    <row r="760" spans="1:24" ht="12.75">
       <c r="A760" s="7"/>
       <c r="B760" s="8"/>
       <c r="C760" s="9"/>
@@ -20504,7 +20507,7 @@
       <c r="W760" s="5"/>
       <c r="X760" s="5"/>
     </row>
-    <row r="761" spans="1:24">
+    <row r="761" spans="1:24" ht="12.75">
       <c r="A761" s="7"/>
       <c r="B761" s="8"/>
       <c r="C761" s="9"/>
@@ -20530,7 +20533,7 @@
       <c r="W761" s="5"/>
       <c r="X761" s="5"/>
     </row>
-    <row r="762" spans="1:24">
+    <row r="762" spans="1:24" ht="12.75">
       <c r="A762" s="7"/>
       <c r="B762" s="8"/>
       <c r="C762" s="9"/>
@@ -20556,7 +20559,7 @@
       <c r="W762" s="5"/>
       <c r="X762" s="5"/>
     </row>
-    <row r="763" spans="1:24">
+    <row r="763" spans="1:24" ht="12.75">
       <c r="A763" s="7"/>
       <c r="B763" s="8"/>
       <c r="C763" s="9"/>
@@ -20582,7 +20585,7 @@
       <c r="W763" s="5"/>
       <c r="X763" s="5"/>
     </row>
-    <row r="764" spans="1:24">
+    <row r="764" spans="1:24" ht="12.75">
       <c r="A764" s="7"/>
       <c r="B764" s="8"/>
       <c r="C764" s="9"/>
@@ -20608,7 +20611,7 @@
       <c r="W764" s="5"/>
       <c r="X764" s="5"/>
     </row>
-    <row r="765" spans="1:24">
+    <row r="765" spans="1:24" ht="12.75">
       <c r="A765" s="7"/>
       <c r="B765" s="8"/>
       <c r="C765" s="9"/>
@@ -20634,7 +20637,7 @@
       <c r="W765" s="5"/>
       <c r="X765" s="5"/>
     </row>
-    <row r="766" spans="1:24">
+    <row r="766" spans="1:24" ht="12.75">
       <c r="A766" s="7"/>
       <c r="B766" s="8"/>
       <c r="C766" s="9"/>
@@ -20660,7 +20663,7 @@
       <c r="W766" s="5"/>
       <c r="X766" s="5"/>
     </row>
-    <row r="767" spans="1:24">
+    <row r="767" spans="1:24" ht="12.75">
       <c r="A767" s="7"/>
       <c r="B767" s="8"/>
       <c r="C767" s="9"/>
@@ -20686,7 +20689,7 @@
       <c r="W767" s="5"/>
       <c r="X767" s="5"/>
     </row>
-    <row r="768" spans="1:24">
+    <row r="768" spans="1:24" ht="12.75">
       <c r="A768" s="7"/>
       <c r="B768" s="8"/>
       <c r="C768" s="9"/>
@@ -20712,7 +20715,7 @@
       <c r="W768" s="5"/>
       <c r="X768" s="5"/>
     </row>
-    <row r="769" spans="1:24">
+    <row r="769" spans="1:24" ht="12.75">
       <c r="A769" s="7"/>
       <c r="B769" s="8"/>
       <c r="C769" s="9"/>
@@ -20738,7 +20741,7 @@
       <c r="W769" s="5"/>
       <c r="X769" s="5"/>
     </row>
-    <row r="770" spans="1:24">
+    <row r="770" spans="1:24" ht="12.75">
       <c r="A770" s="7"/>
       <c r="B770" s="8"/>
       <c r="C770" s="9"/>
@@ -20764,7 +20767,7 @@
       <c r="W770" s="5"/>
       <c r="X770" s="5"/>
     </row>
-    <row r="771" spans="1:24">
+    <row r="771" spans="1:24" ht="12.75">
       <c r="A771" s="7"/>
       <c r="B771" s="8"/>
       <c r="C771" s="9"/>
@@ -20790,7 +20793,7 @@
       <c r="W771" s="5"/>
       <c r="X771" s="5"/>
     </row>
-    <row r="772" spans="1:24">
+    <row r="772" spans="1:24" ht="12.75">
       <c r="A772" s="7"/>
       <c r="B772" s="8"/>
       <c r="C772" s="9"/>
@@ -20816,7 +20819,7 @@
       <c r="W772" s="5"/>
       <c r="X772" s="5"/>
     </row>
-    <row r="773" spans="1:24">
+    <row r="773" spans="1:24" ht="12.75">
       <c r="A773" s="7"/>
       <c r="B773" s="8"/>
       <c r="C773" s="9"/>
@@ -20842,7 +20845,7 @@
       <c r="W773" s="5"/>
       <c r="X773" s="5"/>
     </row>
-    <row r="774" spans="1:24">
+    <row r="774" spans="1:24" ht="12.75">
       <c r="A774" s="7"/>
       <c r="B774" s="8"/>
       <c r="C774" s="9"/>
@@ -20868,7 +20871,7 @@
       <c r="W774" s="5"/>
       <c r="X774" s="5"/>
     </row>
-    <row r="775" spans="1:24">
+    <row r="775" spans="1:24" ht="12.75">
       <c r="A775" s="7"/>
       <c r="B775" s="8"/>
       <c r="C775" s="9"/>
@@ -20894,7 +20897,7 @@
       <c r="W775" s="5"/>
       <c r="X775" s="5"/>
     </row>
-    <row r="776" spans="1:24">
+    <row r="776" spans="1:24" ht="12.75">
       <c r="A776" s="7"/>
       <c r="B776" s="8"/>
       <c r="C776" s="9"/>
@@ -20920,7 +20923,7 @@
       <c r="W776" s="5"/>
       <c r="X776" s="5"/>
     </row>
-    <row r="777" spans="1:24">
+    <row r="777" spans="1:24" ht="12.75">
       <c r="A777" s="7"/>
       <c r="B777" s="8"/>
       <c r="C777" s="9"/>
@@ -20946,7 +20949,7 @@
       <c r="W777" s="5"/>
       <c r="X777" s="5"/>
     </row>
-    <row r="778" spans="1:24">
+    <row r="778" spans="1:24" ht="12.75">
       <c r="A778" s="7"/>
       <c r="B778" s="8"/>
       <c r="C778" s="9"/>
@@ -20972,7 +20975,7 @@
       <c r="W778" s="5"/>
       <c r="X778" s="5"/>
     </row>
-    <row r="779" spans="1:24">
+    <row r="779" spans="1:24" ht="12.75">
       <c r="A779" s="7"/>
       <c r="B779" s="8"/>
       <c r="C779" s="9"/>
@@ -20998,7 +21001,7 @@
       <c r="W779" s="5"/>
       <c r="X779" s="5"/>
     </row>
-    <row r="780" spans="1:24">
+    <row r="780" spans="1:24" ht="12.75">
       <c r="A780" s="7"/>
       <c r="B780" s="8"/>
       <c r="C780" s="9"/>
@@ -21024,7 +21027,7 @@
       <c r="W780" s="5"/>
       <c r="X780" s="5"/>
     </row>
-    <row r="781" spans="1:24">
+    <row r="781" spans="1:24" ht="12.75">
       <c r="A781" s="7"/>
       <c r="B781" s="8"/>
       <c r="C781" s="9"/>
@@ -21050,7 +21053,7 @@
       <c r="W781" s="5"/>
       <c r="X781" s="5"/>
     </row>
-    <row r="782" spans="1:24">
+    <row r="782" spans="1:24" ht="12.75">
       <c r="A782" s="7"/>
       <c r="B782" s="8"/>
       <c r="C782" s="9"/>
@@ -21076,7 +21079,7 @@
       <c r="W782" s="5"/>
       <c r="X782" s="5"/>
     </row>
-    <row r="783" spans="1:24">
+    <row r="783" spans="1:24" ht="12.75">
       <c r="A783" s="7"/>
       <c r="B783" s="8"/>
       <c r="C783" s="9"/>
@@ -21102,7 +21105,7 @@
       <c r="W783" s="5"/>
       <c r="X783" s="5"/>
     </row>
-    <row r="784" spans="1:24">
+    <row r="784" spans="1:24" ht="12.75">
       <c r="A784" s="7"/>
       <c r="B784" s="8"/>
       <c r="C784" s="9"/>
@@ -21128,7 +21131,7 @@
       <c r="W784" s="5"/>
       <c r="X784" s="5"/>
     </row>
-    <row r="785" spans="1:24">
+    <row r="785" spans="1:24" ht="12.75">
       <c r="A785" s="7"/>
       <c r="B785" s="8"/>
       <c r="C785" s="9"/>
@@ -21154,7 +21157,7 @@
       <c r="W785" s="5"/>
       <c r="X785" s="5"/>
     </row>
-    <row r="786" spans="1:24">
+    <row r="786" spans="1:24" ht="12.75">
       <c r="A786" s="7"/>
       <c r="B786" s="8"/>
       <c r="C786" s="9"/>
@@ -21180,7 +21183,7 @@
       <c r="W786" s="5"/>
       <c r="X786" s="5"/>
     </row>
-    <row r="787" spans="1:24">
+    <row r="787" spans="1:24" ht="12.75">
       <c r="A787" s="7"/>
       <c r="B787" s="8"/>
       <c r="C787" s="9"/>
@@ -21206,7 +21209,7 @@
       <c r="W787" s="5"/>
       <c r="X787" s="5"/>
     </row>
-    <row r="788" spans="1:24">
+    <row r="788" spans="1:24" ht="12.75">
       <c r="A788" s="7"/>
       <c r="B788" s="8"/>
       <c r="C788" s="9"/>
@@ -21232,7 +21235,7 @@
       <c r="W788" s="5"/>
       <c r="X788" s="5"/>
     </row>
-    <row r="789" spans="1:24">
+    <row r="789" spans="1:24" ht="12.75">
       <c r="A789" s="7"/>
       <c r="B789" s="8"/>
       <c r="C789" s="9"/>
@@ -21258,7 +21261,7 @@
       <c r="W789" s="5"/>
       <c r="X789" s="5"/>
     </row>
-    <row r="790" spans="1:24">
+    <row r="790" spans="1:24" ht="12.75">
       <c r="A790" s="7"/>
       <c r="B790" s="8"/>
       <c r="C790" s="9"/>
@@ -21284,7 +21287,7 @@
       <c r="W790" s="5"/>
       <c r="X790" s="5"/>
     </row>
-    <row r="791" spans="1:24">
+    <row r="791" spans="1:24" ht="12.75">
       <c r="A791" s="7"/>
       <c r="B791" s="8"/>
       <c r="C791" s="9"/>
@@ -21310,7 +21313,7 @@
       <c r="W791" s="5"/>
       <c r="X791" s="5"/>
     </row>
-    <row r="792" spans="1:24">
+    <row r="792" spans="1:24" ht="12.75">
       <c r="A792" s="7"/>
       <c r="B792" s="8"/>
       <c r="C792" s="9"/>
@@ -21336,7 +21339,7 @@
       <c r="W792" s="5"/>
       <c r="X792" s="5"/>
     </row>
-    <row r="793" spans="1:24">
+    <row r="793" spans="1:24" ht="12.75">
       <c r="A793" s="7"/>
       <c r="B793" s="8"/>
       <c r="C793" s="9"/>
@@ -21362,7 +21365,7 @@
       <c r="W793" s="5"/>
       <c r="X793" s="5"/>
     </row>
-    <row r="794" spans="1:24">
+    <row r="794" spans="1:24" ht="12.75">
       <c r="A794" s="7"/>
       <c r="B794" s="8"/>
       <c r="C794" s="9"/>
@@ -21388,7 +21391,7 @@
       <c r="W794" s="5"/>
       <c r="X794" s="5"/>
     </row>
-    <row r="795" spans="1:24">
+    <row r="795" spans="1:24" ht="12.75">
       <c r="A795" s="7"/>
       <c r="B795" s="8"/>
       <c r="C795" s="9"/>
@@ -21414,7 +21417,7 @@
       <c r="W795" s="5"/>
       <c r="X795" s="5"/>
     </row>
-    <row r="796" spans="1:24">
+    <row r="796" spans="1:24" ht="12.75">
       <c r="A796" s="7"/>
       <c r="B796" s="8"/>
       <c r="C796" s="9"/>
@@ -21440,7 +21443,7 @@
       <c r="W796" s="5"/>
       <c r="X796" s="5"/>
     </row>
-    <row r="797" spans="1:24">
+    <row r="797" spans="1:24" ht="12.75">
       <c r="A797" s="7"/>
       <c r="B797" s="8"/>
       <c r="C797" s="9"/>
@@ -21466,7 +21469,7 @@
       <c r="W797" s="5"/>
       <c r="X797" s="5"/>
     </row>
-    <row r="798" spans="1:24">
+    <row r="798" spans="1:24" ht="12.75">
       <c r="A798" s="7"/>
       <c r="B798" s="8"/>
       <c r="C798" s="9"/>
@@ -21492,7 +21495,7 @@
       <c r="W798" s="5"/>
       <c r="X798" s="5"/>
     </row>
-    <row r="799" spans="1:24">
+    <row r="799" spans="1:24" ht="12.75">
       <c r="A799" s="7"/>
       <c r="B799" s="8"/>
       <c r="C799" s="9"/>
@@ -21518,7 +21521,7 @@
       <c r="W799" s="5"/>
       <c r="X799" s="5"/>
     </row>
-    <row r="800" spans="1:24">
+    <row r="800" spans="1:24" ht="12.75">
       <c r="A800" s="7"/>
       <c r="B800" s="8"/>
       <c r="C800" s="9"/>
@@ -21544,7 +21547,7 @@
       <c r="W800" s="5"/>
       <c r="X800" s="5"/>
     </row>
-    <row r="801" spans="1:24">
+    <row r="801" spans="1:24" ht="12.75">
       <c r="A801" s="7"/>
       <c r="B801" s="8"/>
       <c r="C801" s="9"/>
@@ -21570,7 +21573,7 @@
       <c r="W801" s="5"/>
       <c r="X801" s="5"/>
     </row>
-    <row r="802" spans="1:24">
+    <row r="802" spans="1:24" ht="12.75">
       <c r="A802" s="7"/>
       <c r="B802" s="8"/>
       <c r="C802" s="9"/>
@@ -21596,7 +21599,7 @@
       <c r="W802" s="5"/>
       <c r="X802" s="5"/>
     </row>
-    <row r="803" spans="1:24">
+    <row r="803" spans="1:24" ht="12.75">
       <c r="A803" s="7"/>
       <c r="B803" s="8"/>
       <c r="C803" s="9"/>
@@ -21622,7 +21625,7 @@
       <c r="W803" s="5"/>
       <c r="X803" s="5"/>
     </row>
-    <row r="804" spans="1:24">
+    <row r="804" spans="1:24" ht="12.75">
       <c r="A804" s="7"/>
       <c r="B804" s="8"/>
       <c r="C804" s="9"/>
@@ -21648,7 +21651,7 @@
       <c r="W804" s="5"/>
       <c r="X804" s="5"/>
     </row>
-    <row r="805" spans="1:24">
+    <row r="805" spans="1:24" ht="12.75">
       <c r="A805" s="7"/>
       <c r="B805" s="8"/>
       <c r="C805" s="9"/>
@@ -21674,7 +21677,7 @@
       <c r="W805" s="5"/>
       <c r="X805" s="5"/>
     </row>
-    <row r="806" spans="1:24">
+    <row r="806" spans="1:24" ht="12.75">
       <c r="A806" s="7"/>
       <c r="B806" s="8"/>
       <c r="C806" s="9"/>
@@ -21700,7 +21703,7 @@
       <c r="W806" s="5"/>
       <c r="X806" s="5"/>
     </row>
-    <row r="807" spans="1:24">
+    <row r="807" spans="1:24" ht="12.75">
       <c r="A807" s="7"/>
       <c r="B807" s="8"/>
       <c r="C807" s="9"/>
@@ -21726,7 +21729,7 @@
       <c r="W807" s="5"/>
       <c r="X807" s="5"/>
     </row>
-    <row r="808" spans="1:24">
+    <row r="808" spans="1:24" ht="12.75">
       <c r="A808" s="7"/>
       <c r="B808" s="8"/>
       <c r="C808" s="9"/>
@@ -21752,7 +21755,7 @@
       <c r="W808" s="5"/>
       <c r="X808" s="5"/>
     </row>
-    <row r="809" spans="1:24">
+    <row r="809" spans="1:24" ht="12.75">
       <c r="A809" s="7"/>
       <c r="B809" s="8"/>
       <c r="C809" s="9"/>
@@ -21778,7 +21781,7 @@
       <c r="W809" s="5"/>
       <c r="X809" s="5"/>
     </row>
-    <row r="810" spans="1:24">
+    <row r="810" spans="1:24" ht="12.75">
       <c r="A810" s="7"/>
       <c r="B810" s="8"/>
       <c r="C810" s="9"/>
@@ -21804,7 +21807,7 @@
       <c r="W810" s="5"/>
       <c r="X810" s="5"/>
     </row>
-    <row r="811" spans="1:24">
+    <row r="811" spans="1:24" ht="12.75">
       <c r="A811" s="7"/>
       <c r="B811" s="8"/>
       <c r="C811" s="9"/>
@@ -21830,7 +21833,7 @@
       <c r="W811" s="5"/>
       <c r="X811" s="5"/>
     </row>
-    <row r="812" spans="1:24">
+    <row r="812" spans="1:24" ht="12.75">
       <c r="A812" s="7"/>
       <c r="B812" s="8"/>
       <c r="C812" s="9"/>
@@ -21856,7 +21859,7 @@
       <c r="W812" s="5"/>
       <c r="X812" s="5"/>
     </row>
-    <row r="813" spans="1:24">
+    <row r="813" spans="1:24" ht="12.75">
       <c r="A813" s="7"/>
       <c r="B813" s="8"/>
       <c r="C813" s="9"/>
@@ -21882,7 +21885,7 @@
       <c r="W813" s="5"/>
       <c r="X813" s="5"/>
     </row>
-    <row r="814" spans="1:24">
+    <row r="814" spans="1:24" ht="12.75">
       <c r="A814" s="7"/>
       <c r="B814" s="8"/>
       <c r="C814" s="9"/>
@@ -21908,7 +21911,7 @@
       <c r="W814" s="5"/>
       <c r="X814" s="5"/>
     </row>
-    <row r="815" spans="1:24">
+    <row r="815" spans="1:24" ht="12.75">
       <c r="A815" s="7"/>
       <c r="B815" s="8"/>
       <c r="C815" s="9"/>
@@ -21934,7 +21937,7 @@
       <c r="W815" s="5"/>
       <c r="X815" s="5"/>
     </row>
-    <row r="816" spans="1:24">
+    <row r="816" spans="1:24" ht="12.75">
       <c r="A816" s="7"/>
       <c r="B816" s="8"/>
       <c r="C816" s="9"/>
@@ -21960,7 +21963,7 @@
       <c r="W816" s="5"/>
       <c r="X816" s="5"/>
     </row>
-    <row r="817" spans="1:24">
+    <row r="817" spans="1:24" ht="12.75">
       <c r="A817" s="7"/>
       <c r="B817" s="8"/>
       <c r="C817" s="9"/>
@@ -21986,7 +21989,7 @@
       <c r="W817" s="5"/>
       <c r="X817" s="5"/>
     </row>
-    <row r="818" spans="1:24">
+    <row r="818" spans="1:24" ht="12.75">
       <c r="A818" s="7"/>
       <c r="B818" s="8"/>
       <c r="C818" s="9"/>
@@ -22012,7 +22015,7 @@
       <c r="W818" s="5"/>
       <c r="X818" s="5"/>
     </row>
-    <row r="819" spans="1:24">
+    <row r="819" spans="1:24" ht="12.75">
       <c r="A819" s="7"/>
       <c r="B819" s="8"/>
       <c r="C819" s="9"/>
@@ -22038,7 +22041,7 @@
       <c r="W819" s="5"/>
       <c r="X819" s="5"/>
     </row>
-    <row r="820" spans="1:24">
+    <row r="820" spans="1:24" ht="12.75">
       <c r="A820" s="7"/>
       <c r="B820" s="8"/>
       <c r="C820" s="9"/>
@@ -22064,7 +22067,7 @@
       <c r="W820" s="5"/>
       <c r="X820" s="5"/>
     </row>
-    <row r="821" spans="1:24">
+    <row r="821" spans="1:24" ht="12.75">
       <c r="A821" s="7"/>
       <c r="B821" s="8"/>
       <c r="C821" s="9"/>
@@ -22090,7 +22093,7 @@
       <c r="W821" s="5"/>
       <c r="X821" s="5"/>
     </row>
-    <row r="822" spans="1:24">
+    <row r="822" spans="1:24" ht="12.75">
       <c r="A822" s="7"/>
       <c r="B822" s="8"/>
       <c r="C822" s="9"/>
@@ -22116,7 +22119,7 @@
       <c r="W822" s="5"/>
       <c r="X822" s="5"/>
     </row>
-    <row r="823" spans="1:24">
+    <row r="823" spans="1:24" ht="12.75">
       <c r="A823" s="7"/>
       <c r="B823" s="8"/>
       <c r="C823" s="9"/>
@@ -22142,7 +22145,7 @@
       <c r="W823" s="5"/>
       <c r="X823" s="5"/>
     </row>
-    <row r="824" spans="1:24">
+    <row r="824" spans="1:24" ht="12.75">
       <c r="A824" s="7"/>
       <c r="B824" s="8"/>
       <c r="C824" s="9"/>
@@ -22168,7 +22171,7 @@
       <c r="W824" s="5"/>
       <c r="X824" s="5"/>
     </row>
-    <row r="825" spans="1:24">
+    <row r="825" spans="1:24" ht="12.75">
       <c r="A825" s="7"/>
       <c r="B825" s="8"/>
       <c r="C825" s="9"/>
@@ -22194,7 +22197,7 @@
       <c r="W825" s="5"/>
       <c r="X825" s="5"/>
     </row>
-    <row r="826" spans="1:24">
+    <row r="826" spans="1:24" ht="12.75">
       <c r="A826" s="7"/>
       <c r="B826" s="8"/>
       <c r="C826" s="9"/>
@@ -22220,7 +22223,7 @@
       <c r="W826" s="5"/>
       <c r="X826" s="5"/>
     </row>
-    <row r="827" spans="1:24">
+    <row r="827" spans="1:24" ht="12.75">
       <c r="A827" s="7"/>
       <c r="B827" s="8"/>
       <c r="C827" s="9"/>
@@ -22246,7 +22249,7 @@
       <c r="W827" s="5"/>
       <c r="X827" s="5"/>
     </row>
-    <row r="828" spans="1:24">
+    <row r="828" spans="1:24" ht="12.75">
       <c r="A828" s="7"/>
       <c r="B828" s="8"/>
       <c r="C828" s="9"/>
@@ -22272,7 +22275,7 @@
       <c r="W828" s="5"/>
       <c r="X828" s="5"/>
     </row>
-    <row r="829" spans="1:24">
+    <row r="829" spans="1:24" ht="12.75">
       <c r="A829" s="7"/>
       <c r="B829" s="8"/>
       <c r="C829" s="9"/>
@@ -22298,7 +22301,7 @@
       <c r="W829" s="5"/>
       <c r="X829" s="5"/>
     </row>
-    <row r="830" spans="1:24">
+    <row r="830" spans="1:24" ht="12.75">
       <c r="A830" s="7"/>
       <c r="B830" s="8"/>
       <c r="C830" s="9"/>
@@ -22324,7 +22327,7 @@
       <c r="W830" s="5"/>
       <c r="X830" s="5"/>
     </row>
-    <row r="831" spans="1:24">
+    <row r="831" spans="1:24" ht="12.75">
       <c r="A831" s="7"/>
       <c r="B831" s="8"/>
       <c r="C831" s="9"/>
@@ -22350,7 +22353,7 @@
       <c r="W831" s="5"/>
       <c r="X831" s="5"/>
     </row>
-    <row r="832" spans="1:24">
+    <row r="832" spans="1:24" ht="12.75">
       <c r="A832" s="7"/>
       <c r="B832" s="8"/>
       <c r="C832" s="9"/>
@@ -22376,7 +22379,7 @@
       <c r="W832" s="5"/>
       <c r="X832" s="5"/>
     </row>
-    <row r="833" spans="1:24">
+    <row r="833" spans="1:24" ht="12.75">
       <c r="A833" s="7"/>
       <c r="B833" s="8"/>
       <c r="C833" s="9"/>
@@ -22402,7 +22405,7 @@
       <c r="W833" s="5"/>
       <c r="X833" s="5"/>
     </row>
-    <row r="834" spans="1:24">
+    <row r="834" spans="1:24" ht="12.75">
       <c r="A834" s="7"/>
       <c r="B834" s="8"/>
       <c r="C834" s="9"/>
@@ -22428,7 +22431,7 @@
       <c r="W834" s="5"/>
       <c r="X834" s="5"/>
     </row>
-    <row r="835" spans="1:24">
+    <row r="835" spans="1:24" ht="12.75">
       <c r="A835" s="7"/>
       <c r="B835" s="8"/>
       <c r="C835" s="9"/>
@@ -22454,7 +22457,7 @@
       <c r="W835" s="5"/>
       <c r="X835" s="5"/>
     </row>
-    <row r="836" spans="1:24">
+    <row r="836" spans="1:24" ht="12.75">
       <c r="A836" s="7"/>
       <c r="B836" s="8"/>
       <c r="C836" s="9"/>
@@ -22480,7 +22483,7 @@
       <c r="W836" s="5"/>
       <c r="X836" s="5"/>
     </row>
-    <row r="837" spans="1:24">
+    <row r="837" spans="1:24" ht="12.75">
       <c r="A837" s="7"/>
       <c r="B837" s="8"/>
       <c r="C837" s="9"/>
@@ -22506,7 +22509,7 @@
       <c r="W837" s="5"/>
       <c r="X837" s="5"/>
     </row>
-    <row r="838" spans="1:24">
+    <row r="838" spans="1:24" ht="12.75">
       <c r="A838" s="7"/>
       <c r="B838" s="8"/>
       <c r="C838" s="9"/>
@@ -22532,7 +22535,7 @@
       <c r="W838" s="5"/>
       <c r="X838" s="5"/>
     </row>
-    <row r="839" spans="1:24">
+    <row r="839" spans="1:24" ht="12.75">
       <c r="A839" s="7"/>
       <c r="B839" s="8"/>
       <c r="C839" s="9"/>
@@ -22558,7 +22561,7 @@
       <c r="W839" s="5"/>
       <c r="X839" s="5"/>
     </row>
-    <row r="840" spans="1:24">
+    <row r="840" spans="1:24" ht="12.75">
       <c r="A840" s="7"/>
       <c r="B840" s="8"/>
       <c r="C840" s="9"/>
@@ -22584,7 +22587,7 @@
       <c r="W840" s="5"/>
       <c r="X840" s="5"/>
     </row>
-    <row r="841" spans="1:24">
+    <row r="841" spans="1:24" ht="12.75">
       <c r="A841" s="7"/>
       <c r="B841" s="8"/>
       <c r="C841" s="9"/>
@@ -22610,7 +22613,7 @@
       <c r="W841" s="5"/>
       <c r="X841" s="5"/>
     </row>
-    <row r="842" spans="1:24">
+    <row r="842" spans="1:24" ht="12.75">
       <c r="A842" s="7"/>
       <c r="B842" s="8"/>
       <c r="C842" s="9"/>
@@ -22636,7 +22639,7 @@
       <c r="W842" s="5"/>
       <c r="X842" s="5"/>
     </row>
-    <row r="843" spans="1:24">
+    <row r="843" spans="1:24" ht="12.75">
       <c r="A843" s="7"/>
       <c r="B843" s="8"/>
       <c r="C843" s="9"/>
@@ -22662,7 +22665,7 @@
       <c r="W843" s="5"/>
       <c r="X843" s="5"/>
     </row>
-    <row r="844" spans="1:24">
+    <row r="844" spans="1:24" ht="12.75">
       <c r="A844" s="7"/>
       <c r="B844" s="8"/>
       <c r="C844" s="9"/>
@@ -22688,7 +22691,7 @@
       <c r="W844" s="5"/>
       <c r="X844" s="5"/>
     </row>
-    <row r="845" spans="1:24">
+    <row r="845" spans="1:24" ht="12.75">
       <c r="A845" s="7"/>
       <c r="B845" s="8"/>
       <c r="C845" s="9"/>
@@ -22714,7 +22717,7 @@
       <c r="W845" s="5"/>
       <c r="X845" s="5"/>
     </row>
-    <row r="846" spans="1:24">
+    <row r="846" spans="1:24" ht="12.75">
       <c r="A846" s="7"/>
       <c r="B846" s="8"/>
       <c r="C846" s="9"/>
@@ -22740,7 +22743,7 @@
       <c r="W846" s="5"/>
       <c r="X846" s="5"/>
     </row>
-    <row r="847" spans="1:24">
+    <row r="847" spans="1:24" ht="12.75">
       <c r="A847" s="7"/>
       <c r="B847" s="8"/>
       <c r="C847" s="9"/>
@@ -22766,7 +22769,7 @@
       <c r="W847" s="5"/>
       <c r="X847" s="5"/>
     </row>
-    <row r="848" spans="1:24">
+    <row r="848" spans="1:24" ht="12.75">
       <c r="A848" s="7"/>
       <c r="B848" s="8"/>
       <c r="C848" s="9"/>
@@ -22792,7 +22795,7 @@
       <c r="W848" s="5"/>
       <c r="X848" s="5"/>
     </row>
-    <row r="849" spans="1:24">
+    <row r="849" spans="1:24" ht="12.75">
       <c r="A849" s="7"/>
       <c r="B849" s="8"/>
       <c r="C849" s="9"/>
@@ -22818,7 +22821,7 @@
       <c r="W849" s="5"/>
       <c r="X849" s="5"/>
     </row>
-    <row r="850" spans="1:24">
+    <row r="850" spans="1:24" ht="12.75">
       <c r="A850" s="7"/>
       <c r="B850" s="8"/>
       <c r="C850" s="9"/>
@@ -22844,7 +22847,7 @@
       <c r="W850" s="5"/>
       <c r="X850" s="5"/>
     </row>
-    <row r="851" spans="1:24">
+    <row r="851" spans="1:24" ht="12.75">
       <c r="A851" s="7"/>
       <c r="B851" s="8"/>
       <c r="C851" s="9"/>
@@ -22870,7 +22873,7 @@
       <c r="W851" s="5"/>
       <c r="X851" s="5"/>
     </row>
-    <row r="852" spans="1:24">
+    <row r="852" spans="1:24" ht="12.75">
       <c r="A852" s="7"/>
       <c r="B852" s="8"/>
       <c r="C852" s="9"/>
@@ -22896,7 +22899,7 @@
       <c r="W852" s="5"/>
       <c r="X852" s="5"/>
     </row>
-    <row r="853" spans="1:24">
+    <row r="853" spans="1:24" ht="12.75">
       <c r="A853" s="7"/>
       <c r="B853" s="8"/>
       <c r="C853" s="9"/>
@@ -22922,7 +22925,7 @@
       <c r="W853" s="5"/>
       <c r="X853" s="5"/>
     </row>
-    <row r="854" spans="1:24">
+    <row r="854" spans="1:24" ht="12.75">
       <c r="A854" s="7"/>
       <c r="B854" s="8"/>
       <c r="C854" s="9"/>
@@ -22948,7 +22951,7 @@
       <c r="W854" s="5"/>
       <c r="X854" s="5"/>
     </row>
-    <row r="855" spans="1:24">
+    <row r="855" spans="1:24" ht="12.75">
       <c r="A855" s="7"/>
       <c r="B855" s="8"/>
       <c r="C855" s="9"/>
@@ -22974,7 +22977,7 @@
       <c r="W855" s="5"/>
       <c r="X855" s="5"/>
     </row>
-    <row r="856" spans="1:24">
+    <row r="856" spans="1:24" ht="12.75">
       <c r="A856" s="7"/>
       <c r="B856" s="8"/>
       <c r="C856" s="9"/>
@@ -23000,7 +23003,7 @@
       <c r="W856" s="5"/>
       <c r="X856" s="5"/>
     </row>
-    <row r="857" spans="1:24">
+    <row r="857" spans="1:24" ht="12.75">
       <c r="A857" s="7"/>
       <c r="B857" s="8"/>
       <c r="C857" s="9"/>
@@ -23026,7 +23029,7 @@
       <c r="W857" s="5"/>
       <c r="X857" s="5"/>
     </row>
-    <row r="858" spans="1:24">
+    <row r="858" spans="1:24" ht="12.75">
       <c r="A858" s="7"/>
       <c r="B858" s="8"/>
       <c r="C858" s="9"/>
@@ -23052,7 +23055,7 @@
       <c r="W858" s="5"/>
       <c r="X858" s="5"/>
     </row>
-    <row r="859" spans="1:24">
+    <row r="859" spans="1:24" ht="12.75">
       <c r="A859" s="7"/>
       <c r="B859" s="8"/>
       <c r="C859" s="9"/>
@@ -23078,7 +23081,7 @@
       <c r="W859" s="5"/>
       <c r="X859" s="5"/>
     </row>
-    <row r="860" spans="1:24">
+    <row r="860" spans="1:24" ht="12.75">
       <c r="A860" s="7"/>
       <c r="B860" s="8"/>
       <c r="C860" s="9"/>
@@ -23104,7 +23107,7 @@
       <c r="W860" s="5"/>
       <c r="X860" s="5"/>
     </row>
-    <row r="861" spans="1:24">
+    <row r="861" spans="1:24" ht="12.75">
       <c r="A861" s="7"/>
       <c r="B861" s="8"/>
       <c r="C861" s="9"/>
@@ -23130,7 +23133,7 @@
       <c r="W861" s="5"/>
       <c r="X861" s="5"/>
     </row>
-    <row r="862" spans="1:24">
+    <row r="862" spans="1:24" ht="12.75">
       <c r="A862" s="7"/>
       <c r="B862" s="8"/>
       <c r="C862" s="9"/>
@@ -23156,7 +23159,7 @@
       <c r="W862" s="5"/>
       <c r="X862" s="5"/>
     </row>
-    <row r="863" spans="1:24">
+    <row r="863" spans="1:24" ht="12.75">
       <c r="A863" s="7"/>
       <c r="B863" s="8"/>
       <c r="C863" s="9"/>
@@ -23182,7 +23185,7 @@
       <c r="W863" s="5"/>
       <c r="X863" s="5"/>
     </row>
-    <row r="864" spans="1:24">
+    <row r="864" spans="1:24" ht="12.75">
       <c r="A864" s="7"/>
       <c r="B864" s="8"/>
       <c r="C864" s="9"/>
@@ -23208,7 +23211,7 @@
       <c r="W864" s="5"/>
       <c r="X864" s="5"/>
     </row>
-    <row r="865" spans="1:24">
+    <row r="865" spans="1:24" ht="12.75">
       <c r="A865" s="7"/>
       <c r="B865" s="8"/>
       <c r="C865" s="9"/>
@@ -23234,7 +23237,7 @@
       <c r="W865" s="5"/>
       <c r="X865" s="5"/>
     </row>
-    <row r="866" spans="1:24">
+    <row r="866" spans="1:24" ht="12.75">
       <c r="A866" s="7"/>
       <c r="B866" s="8"/>
       <c r="C866" s="9"/>
@@ -23260,7 +23263,7 @@
       <c r="W866" s="5"/>
       <c r="X866" s="5"/>
     </row>
-    <row r="867" spans="1:24">
+    <row r="867" spans="1:24" ht="12.75">
       <c r="A867" s="7"/>
       <c r="B867" s="8"/>
       <c r="C867" s="9"/>
@@ -23286,7 +23289,7 @@
       <c r="W867" s="5"/>
       <c r="X867" s="5"/>
     </row>
-    <row r="868" spans="1:24">
+    <row r="868" spans="1:24" ht="12.75">
       <c r="A868" s="7"/>
       <c r="B868" s="8"/>
       <c r="C868" s="9"/>
@@ -23312,7 +23315,7 @@
       <c r="W868" s="5"/>
       <c r="X868" s="5"/>
     </row>
-    <row r="869" spans="1:24">
+    <row r="869" spans="1:24" ht="12.75">
       <c r="A869" s="7"/>
       <c r="B869" s="8"/>
       <c r="C869" s="9"/>
@@ -23338,7 +23341,7 @@
       <c r="W869" s="5"/>
       <c r="X869" s="5"/>
     </row>
-    <row r="870" spans="1:24">
+    <row r="870" spans="1:24" ht="12.75">
       <c r="A870" s="7"/>
       <c r="B870" s="8"/>
       <c r="C870" s="9"/>
@@ -23364,7 +23367,7 @@
       <c r="W870" s="5"/>
       <c r="X870" s="5"/>
     </row>
-    <row r="871" spans="1:24">
+    <row r="871" spans="1:24" ht="12.75">
       <c r="A871" s="7"/>
       <c r="B871" s="8"/>
       <c r="C871" s="9"/>
@@ -23390,7 +23393,7 @@
       <c r="W871" s="5"/>
       <c r="X871" s="5"/>
     </row>
-    <row r="872" spans="1:24">
+    <row r="872" spans="1:24" ht="12.75">
       <c r="A872" s="7"/>
       <c r="B872" s="8"/>
       <c r="C872" s="9"/>
@@ -23416,7 +23419,7 @@
       <c r="W872" s="5"/>
       <c r="X872" s="5"/>
     </row>
-    <row r="873" spans="1:24">
+    <row r="873" spans="1:24" ht="12.75">
       <c r="A873" s="7"/>
       <c r="B873" s="8"/>
       <c r="C873" s="9"/>
@@ -23442,7 +23445,7 @@
       <c r="W873" s="5"/>
       <c r="X873" s="5"/>
     </row>
-    <row r="874" spans="1:24">
+    <row r="874" spans="1:24" ht="12.75">
       <c r="A874" s="7"/>
       <c r="B874" s="8"/>
       <c r="C874" s="9"/>
@@ -23468,7 +23471,7 @@
       <c r="W874" s="5"/>
       <c r="X874" s="5"/>
     </row>
-    <row r="875" spans="1:24">
+    <row r="875" spans="1:24" ht="12.75">
       <c r="A875" s="7"/>
       <c r="B875" s="8"/>
       <c r="C875" s="9"/>
@@ -23494,7 +23497,7 @@
       <c r="W875" s="5"/>
       <c r="X875" s="5"/>
     </row>
-    <row r="876" spans="1:24">
+    <row r="876" spans="1:24" ht="12.75">
       <c r="A876" s="7"/>
       <c r="B876" s="8"/>
       <c r="C876" s="9"/>
@@ -23520,7 +23523,7 @@
       <c r="W876" s="5"/>
       <c r="X876" s="5"/>
     </row>
-    <row r="877" spans="1:24">
+    <row r="877" spans="1:24" ht="12.75">
       <c r="A877" s="7"/>
       <c r="B877" s="8"/>
       <c r="C877" s="9"/>
@@ -23546,7 +23549,7 @@
       <c r="W877" s="5"/>
       <c r="X877" s="5"/>
     </row>
-    <row r="878" spans="1:24">
+    <row r="878" spans="1:24" ht="12.75">
       <c r="A878" s="7"/>
       <c r="B878" s="8"/>
       <c r="C878" s="9"/>
@@ -23572,7 +23575,7 @@
       <c r="W878" s="5"/>
       <c r="X878" s="5"/>
     </row>
-    <row r="879" spans="1:24">
+    <row r="879" spans="1:24" ht="12.75">
       <c r="A879" s="7"/>
       <c r="B879" s="8"/>
       <c r="C879" s="9"/>
@@ -23598,7 +23601,7 @@
       <c r="W879" s="5"/>
       <c r="X879" s="5"/>
     </row>
-    <row r="880" spans="1:24">
+    <row r="880" spans="1:24" ht="12.75">
       <c r="A880" s="7"/>
       <c r="B880" s="8"/>
       <c r="C880" s="9"/>
@@ -23624,7 +23627,7 @@
       <c r="W880" s="5"/>
       <c r="X880" s="5"/>
     </row>
-    <row r="881" spans="1:24">
+    <row r="881" spans="1:24" ht="12.75">
       <c r="A881" s="7"/>
       <c r="B881" s="8"/>
       <c r="C881" s="9"/>
@@ -23650,7 +23653,7 @@
       <c r="W881" s="5"/>
       <c r="X881" s="5"/>
     </row>
-    <row r="882" spans="1:24">
+    <row r="882" spans="1:24" ht="12.75">
       <c r="A882" s="7"/>
       <c r="B882" s="8"/>
       <c r="C882" s="9"/>
@@ -23676,7 +23679,7 @@
       <c r="W882" s="5"/>
       <c r="X882" s="5"/>
     </row>
-    <row r="883" spans="1:24">
+    <row r="883" spans="1:24" ht="12.75">
       <c r="A883" s="7"/>
       <c r="B883" s="8"/>
       <c r="C883" s="9"/>
@@ -23702,7 +23705,7 @@
       <c r="W883" s="5"/>
       <c r="X883" s="5"/>
     </row>
-    <row r="884" spans="1:24">
+    <row r="884" spans="1:24" ht="12.75">
       <c r="A884" s="7"/>
       <c r="B884" s="8"/>
       <c r="C884" s="9"/>
@@ -23728,7 +23731,7 @@
       <c r="W884" s="5"/>
       <c r="X884" s="5"/>
     </row>
-    <row r="885" spans="1:24">
+    <row r="885" spans="1:24" ht="12.75">
       <c r="A885" s="7"/>
       <c r="B885" s="8"/>
       <c r="C885" s="9"/>
@@ -23754,7 +23757,7 @@
       <c r="W885" s="5"/>
       <c r="X885" s="5"/>
     </row>
-    <row r="886" spans="1:24">
+    <row r="886" spans="1:24" ht="12.75">
       <c r="A886" s="7"/>
       <c r="B886" s="8"/>
       <c r="C886" s="9"/>
@@ -23780,7 +23783,7 @@
       <c r="W886" s="5"/>
       <c r="X886" s="5"/>
     </row>
-    <row r="887" spans="1:24">
+    <row r="887" spans="1:24" ht="12.75">
       <c r="A887" s="7"/>
       <c r="B887" s="8"/>
       <c r="C887" s="9"/>
@@ -23806,7 +23809,7 @@
       <c r="W887" s="5"/>
       <c r="X887" s="5"/>
     </row>
-    <row r="888" spans="1:24">
+    <row r="888" spans="1:24" ht="12.75">
       <c r="A888" s="7"/>
       <c r="B888" s="8"/>
       <c r="C888" s="9"/>
@@ -23832,7 +23835,7 @@
       <c r="W888" s="5"/>
       <c r="X888" s="5"/>
     </row>
-    <row r="889" spans="1:24">
+    <row r="889" spans="1:24" ht="12.75">
       <c r="A889" s="7"/>
       <c r="B889" s="8"/>
       <c r="C889" s="9"/>
@@ -23858,7 +23861,7 @@
       <c r="W889" s="5"/>
       <c r="X889" s="5"/>
     </row>
-    <row r="890" spans="1:24">
+    <row r="890" spans="1:24" ht="12.75">
       <c r="A890" s="7"/>
       <c r="B890" s="8"/>
       <c r="C890" s="9"/>
@@ -23884,7 +23887,7 @@
       <c r="W890" s="5"/>
       <c r="X890" s="5"/>
     </row>
-    <row r="891" spans="1:24">
+    <row r="891" spans="1:24" ht="12.75">
       <c r="A891" s="7"/>
       <c r="B891" s="8"/>
       <c r="C891" s="9"/>
@@ -23910,7 +23913,7 @@
       <c r="W891" s="5"/>
       <c r="X891" s="5"/>
     </row>
-    <row r="892" spans="1:24">
+    <row r="892" spans="1:24" ht="12.75">
       <c r="A892" s="7"/>
       <c r="B892" s="8"/>
       <c r="C892" s="9"/>
@@ -23936,7 +23939,7 @@
       <c r="W892" s="5"/>
       <c r="X892" s="5"/>
     </row>
-    <row r="893" spans="1:24">
+    <row r="893" spans="1:24" ht="12.75">
       <c r="A893" s="7"/>
       <c r="B893" s="8"/>
       <c r="C893" s="9"/>
@@ -23962,7 +23965,7 @@
       <c r="W893" s="5"/>
       <c r="X893" s="5"/>
     </row>
-    <row r="894" spans="1:24">
+    <row r="894" spans="1:24" ht="12.75">
       <c r="A894" s="7"/>
       <c r="B894" s="8"/>
       <c r="C894" s="9"/>
@@ -23988,7 +23991,7 @@
       <c r="W894" s="5"/>
       <c r="X894" s="5"/>
     </row>
-    <row r="895" spans="1:24">
+    <row r="895" spans="1:24" ht="12.75">
       <c r="A895" s="7"/>
       <c r="B895" s="8"/>
       <c r="C895" s="9"/>
@@ -24014,7 +24017,7 @@
       <c r="W895" s="5"/>
       <c r="X895" s="5"/>
     </row>
-    <row r="896" spans="1:24">
+    <row r="896" spans="1:24" ht="12.75">
       <c r="A896" s="7"/>
       <c r="B896" s="8"/>
       <c r="C896" s="9"/>
@@ -24040,7 +24043,7 @@
       <c r="W896" s="5"/>
       <c r="X896" s="5"/>
     </row>
-    <row r="897" spans="1:24">
+    <row r="897" spans="1:24" ht="12.75">
       <c r="A897" s="7"/>
       <c r="B897" s="8"/>
       <c r="C897" s="9"/>
@@ -24066,7 +24069,7 @@
       <c r="W897" s="5"/>
       <c r="X897" s="5"/>
     </row>
-    <row r="898" spans="1:24">
+    <row r="898" spans="1:24" ht="12.75">
       <c r="A898" s="7"/>
       <c r="B898" s="8"/>
       <c r="C898" s="9"/>
@@ -24092,7 +24095,7 @@
       <c r="W898" s="5"/>
       <c r="X898" s="5"/>
     </row>
-    <row r="899" spans="1:24">
+    <row r="899" spans="1:24" ht="12.75">
       <c r="A899" s="7"/>
       <c r="B899" s="8"/>
       <c r="C899" s="9"/>
@@ -24118,7 +24121,7 @@
       <c r="W899" s="5"/>
       <c r="X899" s="5"/>
     </row>
-    <row r="900" spans="1:24">
+    <row r="900" spans="1:24" ht="12.75">
       <c r="A900" s="7"/>
       <c r="B900" s="8"/>
       <c r="C900" s="9"/>
@@ -24144,7 +24147,7 @@
       <c r="W900" s="5"/>
       <c r="X900" s="5"/>
     </row>
-    <row r="901" spans="1:24">
+    <row r="901" spans="1:24" ht="12.75">
       <c r="A901" s="7"/>
       <c r="B901" s="8"/>
       <c r="C901" s="9"/>
@@ -24170,7 +24173,7 @@
       <c r="W901" s="5"/>
       <c r="X901" s="5"/>
     </row>
-    <row r="902" spans="1:24">
+    <row r="902" spans="1:24" ht="12.75">
       <c r="A902" s="7"/>
       <c r="B902" s="8"/>
       <c r="C902" s="9"/>
@@ -24196,7 +24199,7 @@
       <c r="W902" s="5"/>
       <c r="X902" s="5"/>
     </row>
-    <row r="903" spans="1:24">
+    <row r="903" spans="1:24" ht="12.75">
       <c r="A903" s="7"/>
       <c r="B903" s="8"/>
       <c r="C903" s="9"/>
@@ -24222,7 +24225,7 @@
       <c r="W903" s="5"/>
       <c r="X903" s="5"/>
     </row>
-    <row r="904" spans="1:24">
+    <row r="904" spans="1:24" ht="12.75">
       <c r="A904" s="7"/>
       <c r="B904" s="8"/>
       <c r="C904" s="9"/>
@@ -24248,7 +24251,7 @@
       <c r="W904" s="5"/>
       <c r="X904" s="5"/>
     </row>
-    <row r="905" spans="1:24">
+    <row r="905" spans="1:24" ht="12.75">
       <c r="A905" s="7"/>
       <c r="B905" s="8"/>
       <c r="C905" s="9"/>
@@ -24274,7 +24277,7 @@
       <c r="W905" s="5"/>
       <c r="X905" s="5"/>
     </row>
-    <row r="906" spans="1:24">
+    <row r="906" spans="1:24" ht="12.75">
       <c r="A906" s="7"/>
       <c r="B906" s="8"/>
       <c r="C906" s="9"/>
@@ -24300,7 +24303,7 @@
       <c r="W906" s="5"/>
       <c r="X906" s="5"/>
     </row>
-    <row r="907" spans="1:24">
+    <row r="907" spans="1:24" ht="12.75">
       <c r="A907" s="7"/>
       <c r="B907" s="8"/>
       <c r="C907" s="9"/>
@@ -24326,7 +24329,7 @@
       <c r="W907" s="5"/>
       <c r="X907" s="5"/>
     </row>
-    <row r="908" spans="1:24">
+    <row r="908" spans="1:24" ht="12.75">
       <c r="A908" s="7"/>
       <c r="B908" s="8"/>
       <c r="C908" s="9"/>
@@ -24352,7 +24355,7 @@
       <c r="W908" s="5"/>
       <c r="X908" s="5"/>
     </row>
-    <row r="909" spans="1:24">
+    <row r="909" spans="1:24" ht="12.75">
       <c r="A909" s="7"/>
       <c r="B909" s="8"/>
       <c r="C909" s="9"/>
@@ -24378,7 +24381,7 @@
       <c r="W909" s="5"/>
       <c r="X909" s="5"/>
     </row>
-    <row r="910" spans="1:24">
+    <row r="910" spans="1:24" ht="12.75">
       <c r="A910" s="7"/>
       <c r="B910" s="8"/>
       <c r="C910" s="9"/>
@@ -24404,7 +24407,7 @@
       <c r="W910" s="5"/>
       <c r="X910" s="5"/>
     </row>
-    <row r="911" spans="1:24">
+    <row r="911" spans="1:24" ht="12.75">
       <c r="A911" s="7"/>
       <c r="B911" s="8"/>
       <c r="C911" s="9"/>
@@ -24430,7 +24433,7 @@
       <c r="W911" s="5"/>
       <c r="X911" s="5"/>
     </row>
-    <row r="912" spans="1:24">
+    <row r="912" spans="1:24" ht="12.75">
       <c r="A912" s="7"/>
       <c r="B912" s="8"/>
       <c r="C912" s="9"/>
@@ -24456,7 +24459,7 @@
       <c r="W912" s="5"/>
       <c r="X912" s="5"/>
     </row>
-    <row r="913" spans="1:24">
+    <row r="913" spans="1:24" ht="12.75">
       <c r="A913" s="7"/>
       <c r="B913" s="8"/>
       <c r="C913" s="9"/>
@@ -24482,7 +24485,7 @@
       <c r="W913" s="5"/>
       <c r="X913" s="5"/>
     </row>
-    <row r="914" spans="1:24">
+    <row r="914" spans="1:24" ht="12.75">
       <c r="A914" s="7"/>
       <c r="B914" s="8"/>
       <c r="C914" s="9"/>
@@ -24508,7 +24511,7 @@
       <c r="W914" s="5"/>
       <c r="X914" s="5"/>
     </row>
-    <row r="915" spans="1:24">
+    <row r="915" spans="1:24" ht="12.75">
       <c r="A915" s="7"/>
       <c r="B915" s="8"/>
       <c r="C915" s="9"/>
@@ -24534,7 +24537,7 @@
       <c r="W915" s="5"/>
       <c r="X915" s="5"/>
     </row>
-    <row r="916" spans="1:24">
+    <row r="916" spans="1:24" ht="12.75">
       <c r="A916" s="7"/>
       <c r="B916" s="8"/>
       <c r="C916" s="9"/>
@@ -24560,7 +24563,7 @@
       <c r="W916" s="5"/>
       <c r="X916" s="5"/>
     </row>
-    <row r="917" spans="1:24">
+    <row r="917" spans="1:24" ht="12.75">
       <c r="A917" s="7"/>
       <c r="B917" s="8"/>
       <c r="C917" s="9"/>
@@ -24586,7 +24589,7 @@
       <c r="W917" s="5"/>
       <c r="X917" s="5"/>
     </row>
-    <row r="918" spans="1:24">
+    <row r="918" spans="1:24" ht="12.75">
       <c r="A918" s="7"/>
       <c r="B918" s="8"/>
       <c r="C918" s="9"/>
@@ -24612,7 +24615,7 @@
       <c r="W918" s="5"/>
       <c r="X918" s="5"/>
     </row>
-    <row r="919" spans="1:24">
+    <row r="919" spans="1:24" ht="12.75">
       <c r="A919" s="7"/>
       <c r="B919" s="8"/>
       <c r="C919" s="9"/>
@@ -24638,7 +24641,7 @@
       <c r="W919" s="5"/>
       <c r="X919" s="5"/>
     </row>
-    <row r="920" spans="1:24">
+    <row r="920" spans="1:24" ht="12.75">
       <c r="A920" s="7"/>
       <c r="B920" s="8"/>
       <c r="C920" s="9"/>
@@ -24664,7 +24667,7 @@
       <c r="W920" s="5"/>
       <c r="X920" s="5"/>
     </row>
-    <row r="921" spans="1:24">
+    <row r="921" spans="1:24" ht="12.75">
       <c r="A921" s="7"/>
       <c r="B921" s="8"/>
       <c r="C921" s="9"/>
@@ -24690,7 +24693,7 @@
       <c r="W921" s="5"/>
       <c r="X921" s="5"/>
     </row>
-    <row r="922" spans="1:24">
+    <row r="922" spans="1:24" ht="12.75">
       <c r="A922" s="7"/>
       <c r="B922" s="8"/>
       <c r="C922" s="9"/>
@@ -24716,7 +24719,7 @@
       <c r="W922" s="5"/>
       <c r="X922" s="5"/>
     </row>
-    <row r="923" spans="1:24">
+    <row r="923" spans="1:24" ht="12.75">
       <c r="A923" s="7"/>
       <c r="B923" s="8"/>
       <c r="C923" s="9"/>
@@ -24742,7 +24745,7 @@
       <c r="W923" s="5"/>
       <c r="X923" s="5"/>
     </row>
-    <row r="924" spans="1:24">
+    <row r="924" spans="1:24" ht="12.75">
       <c r="A924" s="7"/>
       <c r="B924" s="8"/>
       <c r="C924" s="9"/>
@@ -24768,7 +24771,7 @@
       <c r="W924" s="5"/>
       <c r="X924" s="5"/>
     </row>
-    <row r="925" spans="1:24">
+    <row r="925" spans="1:24" ht="12.75">
       <c r="A925" s="7"/>
       <c r="B925" s="8"/>
       <c r="C925" s="9"/>
@@ -24794,7 +24797,7 @@
       <c r="W925" s="5"/>
       <c r="X925" s="5"/>
     </row>
-    <row r="926" spans="1:24">
+    <row r="926" spans="1:24" ht="12.75">
       <c r="A926" s="7"/>
       <c r="B926" s="8"/>
       <c r="C926" s="9"/>
@@ -24820,7 +24823,7 @@
       <c r="W926" s="5"/>
       <c r="X926" s="5"/>
     </row>
-    <row r="927" spans="1:24">
+    <row r="927" spans="1:24" ht="12.75">
       <c r="A927" s="7"/>
       <c r="B927" s="8"/>
       <c r="C927" s="9"/>
@@ -24846,7 +24849,7 @@
       <c r="W927" s="5"/>
       <c r="X927" s="5"/>
     </row>
-    <row r="928" spans="1:24">
+    <row r="928" spans="1:24" ht="12.75">
       <c r="A928" s="7"/>
       <c r="B928" s="8"/>
       <c r="C928" s="9"/>
@@ -24872,7 +24875,7 @@
       <c r="W928" s="5"/>
       <c r="X928" s="5"/>
     </row>
-    <row r="929" spans="1:24">
+    <row r="929" spans="1:24" ht="12.75">
       <c r="A929" s="7"/>
       <c r="B929" s="8"/>
       <c r="C929" s="9"/>
@@ -24898,7 +24901,7 @@
       <c r="W929" s="5"/>
       <c r="X929" s="5"/>
     </row>
-    <row r="930" spans="1:24">
+    <row r="930" spans="1:24" ht="12.75">
       <c r="A930" s="7"/>
       <c r="B930" s="8"/>
       <c r="C930" s="9"/>
@@ -24924,7 +24927,7 @@
       <c r="W930" s="5"/>
       <c r="X930" s="5"/>
     </row>
-    <row r="931" spans="1:24">
+    <row r="931" spans="1:24" ht="12.75">
       <c r="A931" s="7"/>
       <c r="B931" s="8"/>
       <c r="C931" s="9"/>
@@ -24950,7 +24953,7 @@
       <c r="W931" s="5"/>
       <c r="X931" s="5"/>
     </row>
-    <row r="932" spans="1:24">
+    <row r="932" spans="1:24" ht="12.75">
       <c r="A932" s="7"/>
       <c r="B932" s="8"/>
       <c r="C932" s="9"/>
@@ -24976,7 +24979,7 @@
       <c r="W932" s="5"/>
       <c r="X932" s="5"/>
     </row>
-    <row r="933" spans="1:24">
+    <row r="933" spans="1:24" ht="12.75">
       <c r="A933" s="7"/>
       <c r="B933" s="8"/>
       <c r="C933" s="9"/>
@@ -25002,7 +25005,7 @@
       <c r="W933" s="5"/>
       <c r="X933" s="5"/>
     </row>
-    <row r="934" spans="1:24">
+    <row r="934" spans="1:24" ht="12.75">
       <c r="A934" s="7"/>
       <c r="B934" s="8"/>
       <c r="C934" s="9"/>
@@ -25028,7 +25031,7 @@
       <c r="W934" s="5"/>
       <c r="X934" s="5"/>
     </row>
-    <row r="935" spans="1:24">
+    <row r="935" spans="1:24" ht="12.75">
       <c r="A935" s="7"/>
       <c r="B935" s="8"/>
       <c r="C935" s="9"/>
@@ -25054,7 +25057,7 @@
       <c r="W935" s="5"/>
       <c r="X935" s="5"/>
     </row>
-    <row r="936" spans="1:24">
+    <row r="936" spans="1:24" ht="12.75">
       <c r="A936" s="7"/>
       <c r="B936" s="8"/>
       <c r="C936" s="9"/>
@@ -25080,7 +25083,7 @@
       <c r="W936" s="5"/>
       <c r="X936" s="5"/>
     </row>
-    <row r="937" spans="1:24">
+    <row r="937" spans="1:24" ht="12.75">
       <c r="A937" s="7"/>
       <c r="B937" s="8"/>
       <c r="C937" s="9"/>
@@ -25106,7 +25109,7 @@
       <c r="W937" s="5"/>
       <c r="X937" s="5"/>
     </row>
-    <row r="938" spans="1:24">
+    <row r="938" spans="1:24" ht="12.75">
       <c r="A938" s="7"/>
       <c r="B938" s="8"/>
       <c r="C938" s="9"/>
@@ -25132,7 +25135,7 @@
       <c r="W938" s="5"/>
       <c r="X938" s="5"/>
     </row>
-    <row r="939" spans="1:24">
+    <row r="939" spans="1:24" ht="12.75">
       <c r="A939" s="7"/>
       <c r="B939" s="8"/>
       <c r="C939" s="9"/>
@@ -25158,7 +25161,7 @@
       <c r="W939" s="5"/>
       <c r="X939" s="5"/>
     </row>
-    <row r="940" spans="1:24">
+    <row r="940" spans="1:24" ht="12.75">
       <c r="A940" s="7"/>
       <c r="B940" s="8"/>
       <c r="C940" s="9"/>
@@ -25184,7 +25187,7 @@
       <c r="W940" s="5"/>
       <c r="X940" s="5"/>
     </row>
-    <row r="941" spans="1:24">
+    <row r="941" spans="1:24" ht="12.75">
       <c r="A941" s="7"/>
       <c r="B941" s="8"/>
       <c r="C941" s="9"/>
@@ -25210,7 +25213,7 @@
       <c r="W941" s="5"/>
       <c r="X941" s="5"/>
     </row>
-    <row r="942" spans="1:24">
+    <row r="942" spans="1:24" ht="12.75">
       <c r="A942" s="7"/>
       <c r="B942" s="8"/>
       <c r="C942" s="9"/>
@@ -25236,7 +25239,7 @@
       <c r="W942" s="5"/>
       <c r="X942" s="5"/>
     </row>
-    <row r="943" spans="1:24">
+    <row r="943" spans="1:24" ht="12.75">
       <c r="A943" s="7"/>
       <c r="B943" s="8"/>
       <c r="C943" s="9"/>
@@ -25262,7 +25265,7 @@
       <c r="W943" s="5"/>
       <c r="X943" s="5"/>
     </row>
-    <row r="944" spans="1:24">
+    <row r="944" spans="1:24" ht="12.75">
       <c r="A944" s="7"/>
       <c r="B944" s="8"/>
       <c r="C944" s="9"/>
@@ -25288,7 +25291,7 @@
       <c r="W944" s="5"/>
       <c r="X944" s="5"/>
     </row>
-    <row r="945" spans="1:24">
+    <row r="945" spans="1:24" ht="12.75">
       <c r="A945" s="7"/>
       <c r="B945" s="8"/>
       <c r="C945" s="9"/>
@@ -25314,7 +25317,7 @@
       <c r="W945" s="5"/>
       <c r="X945" s="5"/>
     </row>
-    <row r="946" spans="1:24">
+    <row r="946" spans="1:24" ht="12.75">
       <c r="A946" s="7"/>
       <c r="B946" s="8"/>
       <c r="C946" s="9"/>
@@ -25340,7 +25343,7 @@
       <c r="W946" s="5"/>
       <c r="X946" s="5"/>
     </row>
-    <row r="947" spans="1:24">
+    <row r="947" spans="1:24" ht="12.75">
       <c r="A947" s="7"/>
       <c r="B947" s="8"/>
       <c r="C947" s="9"/>
@@ -25366,7 +25369,7 @@
       <c r="W947" s="5"/>
       <c r="X947" s="5"/>
     </row>
-    <row r="948" spans="1:24">
+    <row r="948" spans="1:24" ht="12.75">
       <c r="A948" s="7"/>
       <c r="B948" s="8"/>
       <c r="C948" s="9"/>
@@ -25392,7 +25395,7 @@
       <c r="W948" s="5"/>
       <c r="X948" s="5"/>
     </row>
-    <row r="949" spans="1:24">
+    <row r="949" spans="1:24" ht="12.75">
       <c r="A949" s="7"/>
       <c r="B949" s="8"/>
       <c r="C949" s="9"/>
@@ -25418,7 +25421,7 @@
       <c r="W949" s="5"/>
       <c r="X949" s="5"/>
     </row>
-    <row r="950" spans="1:24">
+    <row r="950" spans="1:24" ht="12.75">
       <c r="A950" s="7"/>
       <c r="B950" s="8"/>
       <c r="C950" s="9"/>
@@ -25444,7 +25447,7 @@
       <c r="W950" s="5"/>
       <c r="X950" s="5"/>
     </row>
-    <row r="951" spans="1:24">
+    <row r="951" spans="1:24" ht="12.75">
       <c r="A951" s="7"/>
       <c r="B951" s="8"/>
       <c r="C951" s="9"/>
@@ -25470,7 +25473,7 @@
       <c r="W951" s="5"/>
       <c r="X951" s="5"/>
     </row>
-    <row r="952" spans="1:24">
+    <row r="952" spans="1:24" ht="12.75">
       <c r="A952" s="7"/>
       <c r="B952" s="8"/>
       <c r="C952" s="9"/>
@@ -25496,7 +25499,7 @@
       <c r="W952" s="5"/>
       <c r="X952" s="5"/>
     </row>
-    <row r="953" spans="1:24">
+    <row r="953" spans="1:24" ht="12.75">
       <c r="A953" s="7"/>
       <c r="B953" s="8"/>
       <c r="C953" s="9"/>
@@ -25522,7 +25525,7 @@
       <c r="W953" s="5"/>
       <c r="X953" s="5"/>
     </row>
-    <row r="954" spans="1:24">
+    <row r="954" spans="1:24" ht="12.75">
       <c r="A954" s="7"/>
       <c r="B954" s="8"/>
       <c r="C954" s="9"/>
@@ -25548,7 +25551,7 @@
       <c r="W954" s="5"/>
       <c r="X954" s="5"/>
     </row>
-    <row r="955" spans="1:24">
+    <row r="955" spans="1:24" ht="12.75">
       <c r="A955" s="7"/>
       <c r="B955" s="8"/>
       <c r="C955" s="9"/>
@@ -25574,7 +25577,7 @@
       <c r="W955" s="5"/>
       <c r="X955" s="5"/>
     </row>
-    <row r="956" spans="1:24">
+    <row r="956" spans="1:24" ht="12.75">
       <c r="A956" s="7"/>
       <c r="B956" s="8"/>
       <c r="C956" s="9"/>
@@ -25600,7 +25603,7 @@
       <c r="W956" s="5"/>
       <c r="X956" s="5"/>
     </row>
-    <row r="957" spans="1:24">
+    <row r="957" spans="1:24" ht="12.75">
       <c r="A957" s="7"/>
       <c r="B957" s="8"/>
       <c r="C957" s="9"/>
@@ -25626,7 +25629,7 @@
       <c r="W957" s="5"/>
       <c r="X957" s="5"/>
     </row>
-    <row r="958" spans="1:24">
+    <row r="958" spans="1:24" ht="12.75">
       <c r="A958" s="7"/>
       <c r="B958" s="8"/>
       <c r="C958" s="9"/>
@@ -25652,7 +25655,7 @@
       <c r="W958" s="5"/>
       <c r="X958" s="5"/>
     </row>
-    <row r="959" spans="1:24">
+    <row r="959" spans="1:24" ht="12.75">
       <c r="A959" s="7"/>
       <c r="B959" s="8"/>
       <c r="C959" s="9"/>
@@ -25678,7 +25681,7 @@
       <c r="W959" s="5"/>
       <c r="X959" s="5"/>
     </row>
-    <row r="960" spans="1:24">
+    <row r="960" spans="1:24" ht="12.75">
       <c r="A960" s="7"/>
       <c r="B960" s="8"/>
       <c r="C960" s="9"/>
@@ -25704,7 +25707,7 @@
       <c r="W960" s="5"/>
       <c r="X960" s="5"/>
     </row>
-    <row r="961" spans="1:24">
+    <row r="961" spans="1:24" ht="12.75">
       <c r="A961" s="7"/>
       <c r="B961" s="8"/>
       <c r="C961" s="9"/>
@@ -25730,7 +25733,7 @@
       <c r="W961" s="5"/>
       <c r="X961" s="5"/>
     </row>
-    <row r="962" spans="1:24">
+    <row r="962" spans="1:24" ht="12.75">
       <c r="A962" s="7"/>
       <c r="B962" s="8"/>
       <c r="C962" s="9"/>
@@ -25756,7 +25759,7 @@
       <c r="W962" s="5"/>
       <c r="X962" s="5"/>
     </row>
-    <row r="963" spans="1:24">
+    <row r="963" spans="1:24" ht="12.75">
       <c r="A963" s="7"/>
       <c r="B963" s="8"/>
       <c r="C963" s="9"/>
@@ -25782,7 +25785,7 @@
       <c r="W963" s="5"/>
       <c r="X963" s="5"/>
     </row>
-    <row r="964" spans="1:24">
+    <row r="964" spans="1:24" ht="12.75">
       <c r="A964" s="7"/>
       <c r="B964" s="8"/>
       <c r="C964" s="9"/>
@@ -25808,7 +25811,7 @@
       <c r="W964" s="5"/>
       <c r="X964" s="5"/>
     </row>
-    <row r="965" spans="1:24">
+    <row r="965" spans="1:24" ht="12.75">
       <c r="A965" s="7"/>
       <c r="B965" s="8"/>
       <c r="C965" s="9"/>
@@ -25834,7 +25837,7 @@
       <c r="W965" s="5"/>
       <c r="X965" s="5"/>
     </row>
-    <row r="966" spans="1:24">
+    <row r="966" spans="1:24" ht="12.75">
       <c r="A966" s="7"/>
       <c r="B966" s="8"/>
       <c r="C966" s="9"/>
@@ -25860,7 +25863,7 @@
       <c r="W966" s="5"/>
       <c r="X966" s="5"/>
     </row>
-    <row r="967" spans="1:24">
+    <row r="967" spans="1:24" ht="12.75">
       <c r="A967" s="7"/>
       <c r="B967" s="8"/>
       <c r="C967" s="9"/>
@@ -25886,7 +25889,7 @@
       <c r="W967" s="5"/>
       <c r="X967" s="5"/>
     </row>
-    <row r="968" spans="1:24">
+    <row r="968" spans="1:24" ht="12.75">
       <c r="A968" s="7"/>
       <c r="B968" s="8"/>
       <c r="C968" s="9"/>
@@ -25912,7 +25915,7 @@
       <c r="W968" s="5"/>
       <c r="X968" s="5"/>
     </row>
-    <row r="969" spans="1:24">
+    <row r="969" spans="1:24" ht="12.75">
       <c r="A969" s="7"/>
       <c r="B969" s="8"/>
       <c r="C969" s="9"/>
@@ -25938,7 +25941,7 @@
       <c r="W969" s="5"/>
       <c r="X969" s="5"/>
     </row>
-    <row r="970" spans="1:24">
+    <row r="970" spans="1:24" ht="12.75">
       <c r="A970" s="7"/>
       <c r="B970" s="8"/>
       <c r="C970" s="9"/>
@@ -25964,7 +25967,7 @@
       <c r="W970" s="5"/>
       <c r="X970" s="5"/>
     </row>
-    <row r="971" spans="1:24">
+    <row r="971" spans="1:24" ht="12.75">
       <c r="A971" s="7"/>
       <c r="B971" s="8"/>
       <c r="C971" s="9"/>
@@ -25990,7 +25993,7 @@
       <c r="W971" s="5"/>
       <c r="X971" s="5"/>
     </row>
-    <row r="972" spans="1:24">
+    <row r="972" spans="1:24" ht="12.75">
       <c r="A972" s="7"/>
       <c r="B972" s="8"/>
       <c r="C972" s="9"/>
@@ -26016,7 +26019,7 @@
       <c r="W972" s="5"/>
       <c r="X972" s="5"/>
     </row>
-    <row r="973" spans="1:24">
+    <row r="973" spans="1:24" ht="12.75">
       <c r="A973" s="7"/>
       <c r="B973" s="8"/>
       <c r="C973" s="9"/>
@@ -26042,7 +26045,7 @@
       <c r="W973" s="5"/>
       <c r="X973" s="5"/>
     </row>
-    <row r="974" spans="1:24">
+    <row r="974" spans="1:24" ht="12.75">
       <c r="A974" s="7"/>
       <c r="B974" s="8"/>
       <c r="C974" s="9"/>
@@ -26068,7 +26071,7 @@
       <c r="W974" s="5"/>
       <c r="X974" s="5"/>
     </row>
-    <row r="975" spans="1:24">
+    <row r="975" spans="1:24" ht="12.75">
       <c r="A975" s="7"/>
       <c r="B975" s="8"/>
       <c r="C975" s="9"/>
@@ -26094,7 +26097,7 @@
       <c r="W975" s="5"/>
       <c r="X975" s="5"/>
     </row>
-    <row r="976" spans="1:24">
+    <row r="976" spans="1:24" ht="12.75">
       <c r="A976" s="7"/>
       <c r="B976" s="8"/>
       <c r="C976" s="9"/>
@@ -26120,7 +26123,7 @@
       <c r="W976" s="5"/>
       <c r="X976" s="5"/>
     </row>
-    <row r="977" spans="1:24">
+    <row r="977" spans="1:24" ht="12.75">
       <c r="A977" s="7"/>
       <c r="B977" s="8"/>
       <c r="C977" s="9"/>
@@ -26146,7 +26149,7 @@
       <c r="W977" s="5"/>
       <c r="X977" s="5"/>
     </row>
-    <row r="978" spans="1:24">
+    <row r="978" spans="1:24" ht="12.75">
       <c r="A978" s="7"/>
       <c r="B978" s="8"/>
       <c r="C978" s="9"/>
@@ -26172,7 +26175,7 @@
       <c r="W978" s="5"/>
       <c r="X978" s="5"/>
     </row>
-    <row r="979" spans="1:24">
+    <row r="979" spans="1:24" ht="12.75">
       <c r="A979" s="7"/>
       <c r="B979" s="8"/>
       <c r="C979" s="9"/>
@@ -26198,7 +26201,7 @@
       <c r="W979" s="5"/>
       <c r="X979" s="5"/>
     </row>
-    <row r="980" spans="1:24">
+    <row r="980" spans="1:24" ht="12.75">
       <c r="A980" s="7"/>
       <c r="B980" s="8"/>
       <c r="C980" s="9"/>
@@ -26224,7 +26227,7 @@
       <c r="W980" s="5"/>
       <c r="X980" s="5"/>
     </row>
-    <row r="981" spans="1:24">
+    <row r="981" spans="1:24" ht="12.75">
       <c r="A981" s="7"/>
       <c r="B981" s="8"/>
       <c r="C981" s="9"/>
@@ -26250,7 +26253,7 @@
       <c r="W981" s="5"/>
       <c r="X981" s="5"/>
     </row>
-    <row r="982" spans="1:24">
+    <row r="982" spans="1:24" ht="12.75">
       <c r="A982" s="7"/>
       <c r="B982" s="8"/>
       <c r="C982" s="9"/>
@@ -26276,7 +26279,7 @@
       <c r="W982" s="5"/>
       <c r="X982" s="5"/>
     </row>
-    <row r="983" spans="1:24">
+    <row r="983" spans="1:24" ht="12.75">
       <c r="A983" s="7"/>
       <c r="B983" s="8"/>
       <c r="C983" s="9"/>
@@ -26302,7 +26305,7 @@
       <c r="W983" s="5"/>
       <c r="X983" s="5"/>
     </row>
-    <row r="984" spans="1:24">
+    <row r="984" spans="1:24" ht="12.75">
       <c r="A984" s="7"/>
       <c r="B984" s="8"/>
       <c r="C984" s="9"/>
@@ -26328,7 +26331,7 @@
       <c r="W984" s="5"/>
       <c r="X984" s="5"/>
     </row>
-    <row r="985" spans="1:24">
+    <row r="985" spans="1:24" ht="12.75">
       <c r="A985" s="7"/>
       <c r="B985" s="8"/>
       <c r="C985" s="9"/>
@@ -26354,7 +26357,7 @@
       <c r="W985" s="5"/>
       <c r="X985" s="5"/>
     </row>
-    <row r="986" spans="1:24">
+    <row r="986" spans="1:24" ht="12.75">
       <c r="A986" s="7"/>
       <c r="B986" s="8"/>
       <c r="C986" s="9"/>
@@ -26380,7 +26383,7 @@
       <c r="W986" s="5"/>
       <c r="X986" s="5"/>
     </row>
-    <row r="987" spans="1:24">
+    <row r="987" spans="1:24" ht="12.75">
       <c r="A987" s="7"/>
       <c r="B987" s="8"/>
       <c r="C987" s="9"/>
@@ -26407,35 +26410,6 @@
       <c r="X987" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E987">
-      <formula1>"Janeiro,Fevereiro,Março,Abril,Maio,Junho,Julho,Agosto,Setembro,Outubro,Novembro,Dezembro"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Dados!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1">
-          <x14:formula1>
-            <xm:f>[1]Dados!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F987</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Dados!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D987</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/data/receitas_2023.xlsx
+++ b/data/receitas_2023.xlsx
@@ -15,7 +15,6 @@
     <sheet name="RECEITAS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="39">
   <si>
     <t>DATA</t>
   </si>
@@ -124,6 +123,24 @@
   </si>
   <si>
     <t>Paulo Rafael</t>
+  </si>
+  <si>
+    <t>Julho</t>
+  </si>
+  <si>
+    <t>Xande</t>
+  </si>
+  <si>
+    <t>Atila</t>
+  </si>
+  <si>
+    <t>João Rodigo</t>
+  </si>
+  <si>
+    <t>Tales</t>
+  </si>
+  <si>
+    <t>Belian</t>
   </si>
 </sst>
 </file>
@@ -506,7 +523,7 @@
   <dimension ref="A1:X987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1242,12 +1259,25 @@
       <c r="X19" s="5"/>
     </row>
     <row r="20" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="A20" s="7">
+        <v>45110</v>
+      </c>
+      <c r="B20" s="8" t="str">
+        <f>F20</f>
+        <v>Paulo Rafael</v>
+      </c>
+      <c r="C20" s="9">
+        <v>90</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1268,12 +1298,25 @@
       <c r="X20" s="5"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="A21" s="7">
+        <v>45111</v>
+      </c>
+      <c r="B21" s="8" t="str">
+        <f t="shared" ref="B21:B39" si="0">F21</f>
+        <v>Peu Amaral</v>
+      </c>
+      <c r="C21" s="9">
+        <v>90</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1294,12 +1337,25 @@
       <c r="X21" s="5"/>
     </row>
     <row r="22" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="A22" s="7">
+        <v>45112</v>
+      </c>
+      <c r="B22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Braga</v>
+      </c>
+      <c r="C22" s="9">
+        <v>90</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1320,12 +1376,25 @@
       <c r="X22" s="5"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="A23" s="7">
+        <v>45112</v>
+      </c>
+      <c r="B23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Rodolpho</v>
+      </c>
+      <c r="C23" s="9">
+        <v>90</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1346,12 +1415,25 @@
       <c r="X23" s="5"/>
     </row>
     <row r="24" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="A24" s="7">
+        <v>45114</v>
+      </c>
+      <c r="B24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Emanuel</v>
+      </c>
+      <c r="C24" s="9">
+        <v>90</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1372,12 +1454,25 @@
       <c r="X24" s="5"/>
     </row>
     <row r="25" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="A25" s="7">
+        <v>45114</v>
+      </c>
+      <c r="B25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Leka</v>
+      </c>
+      <c r="C25" s="9">
+        <v>90</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1398,12 +1493,25 @@
       <c r="X25" s="5"/>
     </row>
     <row r="26" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="A26" s="7">
+        <v>45112</v>
+      </c>
+      <c r="B26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Nino</v>
+      </c>
+      <c r="C26" s="9">
+        <v>90</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1424,12 +1532,25 @@
       <c r="X26" s="5"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="A27" s="7">
+        <v>45112</v>
+      </c>
+      <c r="B27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Lucas Marques</v>
+      </c>
+      <c r="C27" s="9">
+        <v>90</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1450,12 +1571,25 @@
       <c r="X27" s="5"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="A28" s="7">
+        <v>45114</v>
+      </c>
+      <c r="B28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Hazin</v>
+      </c>
+      <c r="C28" s="9">
+        <v>90</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -1476,12 +1610,25 @@
       <c r="X28" s="5"/>
     </row>
     <row r="29" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="A29" s="7">
+        <v>45114</v>
+      </c>
+      <c r="B29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Lotta</v>
+      </c>
+      <c r="C29" s="9">
+        <v>90</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -1502,12 +1649,25 @@
       <c r="X29" s="5"/>
     </row>
     <row r="30" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="A30" s="7">
+        <v>45112</v>
+      </c>
+      <c r="B30" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Pentelho</v>
+      </c>
+      <c r="C30" s="9">
+        <v>90</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -1528,12 +1688,25 @@
       <c r="X30" s="5"/>
     </row>
     <row r="31" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="A31" s="7">
+        <v>45112</v>
+      </c>
+      <c r="B31" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Feitosa</v>
+      </c>
+      <c r="C31" s="9">
+        <v>90</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -1554,12 +1727,25 @@
       <c r="X31" s="5"/>
     </row>
     <row r="32" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="A32" s="7">
+        <v>45114</v>
+      </c>
+      <c r="B32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Guiler</v>
+      </c>
+      <c r="C32" s="9">
+        <v>90</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -1580,12 +1766,25 @@
       <c r="X32" s="5"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="A33" s="7">
+        <v>45110</v>
+      </c>
+      <c r="B33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulo André</v>
+      </c>
+      <c r="C33" s="9">
+        <v>90</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -1606,12 +1805,25 @@
       <c r="X33" s="5"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="A34" s="7">
+        <v>45111</v>
+      </c>
+      <c r="B34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Dolfo</v>
+      </c>
+      <c r="C34" s="9">
+        <v>90</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -1632,12 +1844,25 @@
       <c r="X34" s="5"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="A35" s="7">
+        <v>45112</v>
+      </c>
+      <c r="B35" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Xande</v>
+      </c>
+      <c r="C35" s="9">
+        <v>90</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -1658,12 +1883,25 @@
       <c r="X35" s="5"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="A36" s="7">
+        <v>45112</v>
+      </c>
+      <c r="B36" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Atila</v>
+      </c>
+      <c r="C36" s="9">
+        <v>90</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -1684,12 +1922,25 @@
       <c r="X36" s="5"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+      <c r="A37" s="7">
+        <v>45114</v>
+      </c>
+      <c r="B37" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>João Rodigo</v>
+      </c>
+      <c r="C37" s="9">
+        <v>90</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -1710,12 +1961,25 @@
       <c r="X37" s="5"/>
     </row>
     <row r="38" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="A38" s="7">
+        <v>45114</v>
+      </c>
+      <c r="B38" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Tales</v>
+      </c>
+      <c r="C38" s="9">
+        <v>90</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -1736,12 +2000,25 @@
       <c r="X38" s="5"/>
     </row>
     <row r="39" spans="1:24" ht="12.75">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="A39" s="7">
+        <v>45112</v>
+      </c>
+      <c r="B39" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Belian</v>
+      </c>
+      <c r="C39" s="9">
+        <v>90</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -1762,12 +2039,24 @@
       <c r="X39" s="5"/>
     </row>
     <row r="40" spans="1:24" ht="12.75">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="A40" s="7">
+        <v>45112</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="9">
+        <v>60</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -1788,12 +2077,24 @@
       <c r="X40" s="5"/>
     </row>
     <row r="41" spans="1:24" ht="12.75">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+      <c r="A41" s="7">
+        <v>45119</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="9">
+        <v>40</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
